--- a/output7/【河洛文讀注音-閩拼調號】《歸去來辭》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《歸去來辭》.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CDDEEBB-1214-43A6-97D9-7D4943E12B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED82318-C3ED-40EC-BD70-226C6CBE74B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="標音字庫" sheetId="125" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="124" r:id="rId3"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId4"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId5"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId6"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
+    <sheet name="標音字庫" sheetId="127" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="126" r:id="rId3"/>
+    <sheet name="人工標音字庫" sheetId="128" r:id="rId4"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="1595">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4021,7 +4022,778 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>兮</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>將</t>
+  </si>
+  <si>
+    <t>蕪</t>
+  </si>
+  <si>
+    <t>胡</t>
+  </si>
+  <si>
     <t>​</t>
+  </si>
+  <si>
+    <t>Kue</t>
+  </si>
+  <si>
+    <t>lâi</t>
+  </si>
+  <si>
+    <t>hô</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>役</t>
+  </si>
+  <si>
+    <t>奚</t>
+  </si>
+  <si>
+    <t>惆</t>
+  </si>
+  <si>
+    <t>悵</t>
+  </si>
+  <si>
+    <t>獨</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>hêng</t>
+  </si>
+  <si>
+    <t>sê</t>
+  </si>
+  <si>
+    <t>to̍k</t>
+  </si>
+  <si>
+    <t>悟</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>諫</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>Ngōo</t>
+  </si>
+  <si>
+    <t>khó</t>
+  </si>
+  <si>
+    <t>tui;​</t>
+  </si>
+  <si>
+    <t>實</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>途</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>覺</t>
+  </si>
+  <si>
+    <t>昨</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>Si̍t</t>
+  </si>
+  <si>
+    <t>bêi</t>
+  </si>
+  <si>
+    <t>tô͘</t>
+  </si>
+  <si>
+    <t>kak</t>
+  </si>
+  <si>
+    <t>kin</t>
+  </si>
+  <si>
+    <t>舟</t>
+  </si>
+  <si>
+    <t>遙</t>
+  </si>
+  <si>
+    <t>輕</t>
+  </si>
+  <si>
+    <t>揚</t>
+  </si>
+  <si>
+    <t>飄</t>
+  </si>
+  <si>
+    <t>吹</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>Chiu</t>
+  </si>
+  <si>
+    <t>hong</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>征</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>晨</t>
+  </si>
+  <si>
+    <t>熹</t>
+  </si>
+  <si>
+    <t>瞻</t>
+  </si>
+  <si>
+    <t>衡</t>
+  </si>
+  <si>
+    <t>宇</t>
+  </si>
+  <si>
+    <t>載</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>奔</t>
+  </si>
+  <si>
+    <t>Nái</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>僮</t>
+  </si>
+  <si>
+    <t>僕</t>
+  </si>
+  <si>
+    <t>歡</t>
+  </si>
+  <si>
+    <t>迎</t>
+  </si>
+  <si>
+    <t>稚</t>
+  </si>
+  <si>
+    <t>候</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>hāu</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>徑</t>
+  </si>
+  <si>
+    <t>就</t>
+  </si>
+  <si>
+    <t>荒</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
+    <t>菊</t>
+  </si>
+  <si>
+    <t>猶</t>
+  </si>
+  <si>
+    <t>存</t>
+  </si>
+  <si>
+    <t>攜</t>
+  </si>
+  <si>
+    <t>幼</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>盈</t>
+  </si>
+  <si>
+    <t>樽</t>
+  </si>
+  <si>
+    <t>Kê</t>
+  </si>
+  <si>
+    <t>ji̍p</t>
+  </si>
+  <si>
+    <t>êng</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>壺</t>
+  </si>
+  <si>
+    <t>觴</t>
+  </si>
+  <si>
+    <t>酌</t>
+  </si>
+  <si>
+    <t>眄</t>
+  </si>
+  <si>
+    <t>柯</t>
+  </si>
+  <si>
+    <t>顏</t>
+  </si>
+  <si>
+    <t>Ín</t>
+  </si>
+  <si>
+    <t>miā</t>
+  </si>
+  <si>
+    <t>倚</t>
+  </si>
+  <si>
+    <t>窗</t>
+  </si>
+  <si>
+    <t>寄</t>
+  </si>
+  <si>
+    <t>傲</t>
+  </si>
+  <si>
+    <t>審</t>
+  </si>
+  <si>
+    <t>容</t>
+  </si>
+  <si>
+    <t>膝</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>Ía</t>
+  </si>
+  <si>
+    <t>涉</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>趣</t>
+  </si>
+  <si>
+    <t>雖</t>
+  </si>
+  <si>
+    <t>設</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>關</t>
+  </si>
+  <si>
+    <t>Hn̂g</t>
+  </si>
+  <si>
+    <t>ji̍t</t>
+  </si>
+  <si>
+    <t>si̍p</t>
+  </si>
+  <si>
+    <t>sui</t>
+  </si>
+  <si>
+    <t>siat</t>
+  </si>
+  <si>
+    <t>策</t>
+  </si>
+  <si>
+    <t>扶</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>流</t>
+  </si>
+  <si>
+    <t>憩</t>
+  </si>
+  <si>
+    <t>矯</t>
+  </si>
+  <si>
+    <t>首</t>
+  </si>
+  <si>
+    <t>遐</t>
+  </si>
+  <si>
+    <t>Chhek</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>岫</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>倦</t>
+  </si>
+  <si>
+    <t>飛</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>bô</t>
+  </si>
+  <si>
+    <t>koān</t>
+  </si>
+  <si>
+    <t>hui</t>
+  </si>
+  <si>
+    <t>翳</t>
+  </si>
+  <si>
+    <t>撫</t>
+  </si>
+  <si>
+    <t>孤</t>
+  </si>
+  <si>
+    <t>盤</t>
+  </si>
+  <si>
+    <t>桓</t>
+  </si>
+  <si>
+    <t>hó͘</t>
+  </si>
+  <si>
+    <t>請</t>
+  </si>
+  <si>
+    <t>息</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>絕</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>遺</t>
+  </si>
+  <si>
+    <t>複</t>
+  </si>
+  <si>
+    <t>駕</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>焉</t>
+  </si>
+  <si>
+    <t>Sè</t>
+  </si>
+  <si>
+    <t>góa</t>
+  </si>
+  <si>
+    <t>ho̍k</t>
+  </si>
+  <si>
+    <t>kà</t>
+  </si>
+  <si>
+    <t>gōa</t>
+  </si>
+  <si>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>悅</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>戚</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>消</t>
+  </si>
+  <si>
+    <t>Oat</t>
+  </si>
+  <si>
+    <t>lo̍k</t>
+  </si>
+  <si>
+    <t>農</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>疇</t>
+  </si>
+  <si>
+    <t>kò͘</t>
+  </si>
+  <si>
+    <t>命</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>棹</t>
+  </si>
+  <si>
+    <t>O̍h</t>
+  </si>
+  <si>
+    <t>bēng</t>
+  </si>
+  <si>
+    <t>tàu</t>
+  </si>
+  <si>
+    <t>窈</t>
+  </si>
+  <si>
+    <t>窕</t>
+  </si>
+  <si>
+    <t>尋</t>
+  </si>
+  <si>
+    <t>壑</t>
+  </si>
+  <si>
+    <t>崎</t>
+  </si>
+  <si>
+    <t>嶇</t>
+  </si>
+  <si>
+    <t>經</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>榮</t>
+  </si>
+  <si>
+    <t>泉</t>
+  </si>
+  <si>
+    <t>涓</t>
+  </si>
+  <si>
+    <t>始</t>
+  </si>
+  <si>
+    <t>Bo̍k</t>
+  </si>
+  <si>
+    <t>zuann7</t>
+  </si>
+  <si>
+    <t>羨</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>Siān</t>
+  </si>
+  <si>
+    <t>tek</t>
+  </si>
+  <si>
+    <t>kám</t>
+  </si>
+  <si>
+    <t>寓</t>
+  </si>
+  <si>
+    <t>內</t>
+  </si>
+  <si>
+    <t>幾</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>曷</t>
+  </si>
+  <si>
+    <t>委</t>
+  </si>
+  <si>
+    <t>任</t>
+  </si>
+  <si>
+    <t>留</t>
+  </si>
+  <si>
+    <t>遑</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>富</t>
+  </si>
+  <si>
+    <t>貴</t>
+  </si>
+  <si>
+    <t>願</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>期</t>
+  </si>
+  <si>
+    <t>ngô͘</t>
+  </si>
+  <si>
+    <t>良</t>
+  </si>
+  <si>
+    <t>辰</t>
+  </si>
+  <si>
+    <t>植</t>
+  </si>
+  <si>
+    <t>杖</t>
+  </si>
+  <si>
+    <t>耘</t>
+  </si>
+  <si>
+    <t>耔</t>
+  </si>
+  <si>
+    <t>Hoâi</t>
+  </si>
+  <si>
+    <t>koo</t>
+  </si>
+  <si>
+    <t>ti̍t</t>
+  </si>
+  <si>
+    <t>tiōng</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>臯</t>
+  </si>
+  <si>
+    <t>舒</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>Teng</t>
+  </si>
+  <si>
+    <t>聊</t>
+  </si>
+  <si>
+    <t>乘</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>疑</t>
+  </si>
+  <si>
+    <t>Liâu</t>
+  </si>
+  <si>
+    <t>sêng</t>
+  </si>
+  <si>
+    <t>hoà</t>
+  </si>
+  <si>
+    <t>kui</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>hê</t>
+  </si>
+  <si>
+    <t>​</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4029,2164 +4801,509 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>hing2</t>
-  </si>
-  <si>
-    <t>he5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzi2</t>
-  </si>
-  <si>
-    <t>tok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-  </si>
-  <si>
-    <t>bbe2</t>
-  </si>
-  <si>
-    <t>doo2</t>
-  </si>
-  <si>
-    <t>gi2</t>
-  </si>
-  <si>
-    <t>bbi6</t>
-  </si>
-  <si>
-    <t>uan3</t>
-  </si>
-  <si>
-    <t>gak7</t>
-  </si>
-  <si>
-    <t>gim1</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>za6</t>
-  </si>
-  <si>
-    <t>ziu1</t>
-  </si>
-  <si>
-    <t>iao2</t>
-  </si>
-  <si>
-    <t>iong2</t>
-  </si>
-  <si>
-    <t>piao1</t>
-  </si>
-  <si>
-    <t>bbun6</t>
-  </si>
-  <si>
-    <t>zian2</t>
-  </si>
-  <si>
-    <t>loo6</t>
-  </si>
-  <si>
-    <t>hun6</t>
-  </si>
-  <si>
-    <t>sin2</t>
-  </si>
-  <si>
-    <t>gong1</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>bbi2</t>
-  </si>
-  <si>
-    <t>lnai3</t>
-  </si>
-  <si>
-    <t>ziam1</t>
-  </si>
-  <si>
-    <t>u3</t>
-  </si>
-  <si>
-    <t>zai3</t>
-  </si>
-  <si>
-    <t>him1</t>
-  </si>
-  <si>
-    <t>pun1</t>
-  </si>
-  <si>
-    <t>歸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kì</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lâi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ê</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>û</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hô</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>役</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kì</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>í</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ûi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hêng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jī</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Tiân</t>
+  </si>
+  <si>
+    <t>ôan</t>
+  </si>
+  <si>
+    <t>tiòng</t>
   </si>
   <si>
     <t>óng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Si̍t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bêi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tô͘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kî</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bī</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oán</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sī</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cha̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kheng</t>
+  </si>
+  <si>
+    <t>phiô</t>
+  </si>
+  <si>
+    <t>kong</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Tông</t>
+  </si>
+  <si>
+    <t>po̍k</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>kèng</t>
+  </si>
+  <si>
+    <t>kiok</t>
+  </si>
+  <si>
+    <t>têng</t>
+  </si>
+  <si>
+    <t>kho</t>
+  </si>
+  <si>
+    <t>lâm</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>siông</t>
+  </si>
+  <si>
+    <t>lō</t>
+  </si>
+  <si>
+    <t>kiáu</t>
+  </si>
+  <si>
+    <t>hia</t>
+  </si>
+  <si>
+    <t>è</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>poâⁿ</t>
+  </si>
+  <si>
+    <t>si̍k</t>
+  </si>
+  <si>
+    <t>kau</t>
+  </si>
+  <si>
+    <t>saⁿ</t>
+  </si>
+  <si>
+    <t>siau</t>
+  </si>
+  <si>
+    <t>Lông</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>kun</t>
+  </si>
+  <si>
+    <t>tiáu</t>
+  </si>
+  <si>
+    <t>khê</t>
+  </si>
+  <si>
+    <t>khue</t>
+  </si>
+  <si>
+    <t>keng</t>
+  </si>
+  <si>
+    <t>bān</t>
+  </si>
+  <si>
+    <t>bu̍t</t>
+  </si>
+  <si>
+    <t>seng</t>
+  </si>
+  <si>
+    <t>lāi</t>
+  </si>
+  <si>
+    <t>hông</t>
+  </si>
+  <si>
+    <t>tè</t>
+  </si>
+  <si>
+    <t>hiong</t>
+  </si>
+  <si>
+    <t>liông</t>
+  </si>
+  <si>
+    <t>tong</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>thian</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>ki̍p</t>
+  </si>
+  <si>
+    <t>khak</t>
+  </si>
+  <si>
+    <t>hiu</t>
+  </si>
+  <si>
+    <t>kue​</t>
+  </si>
+  <si>
+    <t>pi​</t>
+  </si>
+  <si>
+    <t>kàn</t>
   </si>
   <si>
     <t>hui​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iô</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iông</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phiô</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mūn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chêng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pun​</t>
+  </si>
+  <si>
+    <t>hoân​</t>
+  </si>
+  <si>
+    <t>hôo</t>
+  </si>
+  <si>
+    <t>goān</t>
   </si>
   <si>
     <t>lō͘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hūn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sîn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bî​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>載</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nái</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhiam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ú</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chài</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pun​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tông</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>po̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gêng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tì</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chú</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hāu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mūi​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kèng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhiông</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iû</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chûn​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kê</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iù</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji̍p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sît</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiú</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>êng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chun​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ín</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siunn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miā</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>têng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>î</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gân​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>審</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ía</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lâm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhhiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ngō</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sím</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hn̂g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji̍t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si̍p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiâⁿ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhù</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mūi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siông</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koai​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>憩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chhek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hû</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lō</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liû</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khè</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sî</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiáu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siú</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koan​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>還</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hûn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bô</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiáu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoân​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kíng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>è</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hó͘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poâⁿ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>koân​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>絕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chhíng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choa̍t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iû​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>與</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>複</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>駕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sè</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>góa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saⁿ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kà</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gōa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiû​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>親</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>書</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>憂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ōe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khîm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>及</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lông</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jîn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kò͘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki̍p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiú​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O̍h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bēng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o̍h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tàu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiu​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嶇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iáu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiáu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chhîm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khê</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khiu​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bo̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuann7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Siān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu̍t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kám</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngô͘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Í</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hôo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lāi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kī</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>úi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jīm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khì</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ūi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hông</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io̍k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hù</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kùi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tè</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hoâi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liông</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti̍t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiōng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hûn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siàu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lîm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hù</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liâu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sêng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoà</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chīn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hê</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gî</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>but7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ggoo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong</t>
+  </si>
+  <si>
+    <t>zi</t>
+  </si>
+  <si>
+    <t>zai</t>
+  </si>
+  <si>
+    <t>ziá</t>
+  </si>
+  <si>
+    <t>za̍k</t>
+  </si>
+  <si>
+    <t>cui</t>
+  </si>
+  <si>
+    <t>zeng</t>
+  </si>
+  <si>
+    <t>zêng</t>
+  </si>
+  <si>
+    <t>ciam</t>
+  </si>
+  <si>
+    <t>zài</t>
+  </si>
+  <si>
+    <t>ciông</t>
+  </si>
+  <si>
+    <t>zun​</t>
+  </si>
+  <si>
+    <t>ziok</t>
+  </si>
+  <si>
+    <t>ziâⁿ</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>ziáu</t>
+  </si>
+  <si>
+    <t>cin</t>
+  </si>
+  <si>
+    <t>cek</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>cun</t>
+  </si>
+  <si>
+    <t>cia</t>
+  </si>
+  <si>
+    <t>ziu​</t>
+  </si>
+  <si>
+    <t>ceng</t>
+  </si>
+  <si>
+    <t>hiòng</t>
+  </si>
+  <si>
+    <t>huan</t>
+  </si>
+  <si>
+    <t>kuai​</t>
+  </si>
+  <si>
+    <t>kuan​</t>
+  </si>
+  <si>
+    <t>zua̍t</t>
+  </si>
+  <si>
+    <t>yi̍k</t>
+  </si>
+  <si>
+    <t>yiô</t>
+  </si>
+  <si>
+    <t>yiông</t>
+  </si>
+  <si>
+    <t>yi​</t>
+  </si>
+  <si>
+    <t>ziang</t>
+  </si>
+  <si>
+    <t>yian</t>
+  </si>
+  <si>
+    <t>yiu​</t>
+  </si>
+  <si>
+    <t>yiáu</t>
+  </si>
+  <si>
+    <t>yio̍k</t>
+  </si>
+  <si>
+    <t>sniu</t>
+  </si>
+  <si>
+    <t>ji2</t>
+  </si>
+  <si>
+    <t>lua2</t>
+  </si>
+  <si>
+    <t>ǎ</t>
+  </si>
+  <si>
+    <t>Kà</t>
+  </si>
+  <si>
+    <t>zā</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>ǎi</t>
+  </si>
+  <si>
+    <t>tiǎ</t>
+  </si>
+  <si>
+    <t>jā</t>
+  </si>
+  <si>
+    <t>kǎ</t>
+  </si>
+  <si>
+    <t>bā</t>
+  </si>
+  <si>
+    <t>woán</t>
+  </si>
+  <si>
+    <t>sā</t>
+  </si>
+  <si>
+    <t>Mān</t>
+  </si>
+  <si>
+    <t>hān</t>
+  </si>
+  <si>
+    <t>sǎn</t>
+  </si>
+  <si>
+    <t>bǎ​</t>
+  </si>
+  <si>
+    <t>tà</t>
+  </si>
+  <si>
+    <t>zá</t>
+  </si>
+  <si>
+    <t>māi​</t>
+  </si>
+  <si>
+    <t>ziā</t>
+  </si>
+  <si>
+    <t>yiǎ</t>
+  </si>
+  <si>
+    <t>zǎn​</t>
+  </si>
+  <si>
+    <t>yià</t>
+  </si>
+  <si>
+    <t>sǎt</t>
+  </si>
+  <si>
+    <t>ā</t>
+  </si>
+  <si>
+    <t>sám</t>
+  </si>
+  <si>
+    <t>we̍k</t>
+  </si>
+  <si>
+    <t>wan​</t>
+  </si>
+  <si>
+    <t>cà</t>
+  </si>
+  <si>
+    <t>māi</t>
+  </si>
+  <si>
+    <t>hǎ</t>
+  </si>
+  <si>
+    <t>liǎ</t>
+  </si>
+  <si>
+    <t>sǎ</t>
+  </si>
+  <si>
+    <t>siá</t>
+  </si>
+  <si>
+    <t>Hǎn</t>
+  </si>
+  <si>
+    <t>siā</t>
+  </si>
+  <si>
+    <t>Káng</t>
+  </si>
+  <si>
+    <t>Chháng</t>
+  </si>
+  <si>
+    <t>yiǎ​</t>
+  </si>
+  <si>
+    <t>kiǎ​</t>
+  </si>
+  <si>
+    <t>khǎm</t>
+  </si>
+  <si>
+    <t>jǎn</t>
+  </si>
+  <si>
+    <t>hā</t>
+  </si>
+  <si>
+    <t>tiá​</t>
+  </si>
+  <si>
+    <t>wo̍h</t>
+  </si>
+  <si>
+    <t>cǎm</t>
+  </si>
+  <si>
+    <t>ǎng</t>
+  </si>
+  <si>
+    <t>Gā</t>
+  </si>
+  <si>
+    <t>kā</t>
+  </si>
+  <si>
+    <t>ái</t>
+  </si>
+  <si>
+    <t>jām</t>
+  </si>
+  <si>
+    <t>khà</t>
+  </si>
+  <si>
+    <t>āi</t>
+  </si>
+  <si>
+    <t>Hà</t>
+  </si>
+  <si>
+    <t>kài</t>
+  </si>
+  <si>
+    <t>hǎn</t>
+  </si>
+  <si>
+    <t>lǎm</t>
+  </si>
+  <si>
+    <t>hà</t>
+  </si>
+  <si>
+    <t>zān</t>
+  </si>
+  <si>
+    <t>gǎ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6477,8 +5594,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6500,6 +5623,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6581,7 +5710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6773,6 +5902,16 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9381,38 +8520,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB2319-9386-4D51-8774-51C5FFFBD587}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D081EEF-A3C0-4F5C-8A08-45D14DA79EB4}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E05B20-999F-4581-B11F-0D55F69B3DFB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232FA1FF-DED9-4196-B9F5-B422ED852DEA}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6ABDC2-0728-4D32-9328-6E1D727F818B}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -9527,21 +8731,21 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
       <c r="T3" s="16"/>
       <c r="V3" s="55" t="s">
         <v>1168</v>
@@ -9549,43 +8753,43 @@
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="60" t="s">
-        <v>916</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>758</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>748</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>1175</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>635</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>695</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>704</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>916</v>
-      </c>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="D4" s="65" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>1180</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O4" s="65" t="s">
+        <v>1479</v>
+      </c>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
       <c r="S4" s="18"/>
       <c r="V4" s="56"/>
     </row>
@@ -9593,89 +8797,67 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>1221</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>1222</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>1223</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>1225</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>1226</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>1227</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>1228</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>1218</v>
-      </c>
-      <c r="P5" s="61" t="s">
+      <c r="D5" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>1171</v>
       </c>
-      <c r="Q5" s="61" t="s">
-        <v>1170</v>
-      </c>
-      <c r="R5" s="61"/>
+      <c r="H5" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N5" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="64" t="s">
+        <v>1177</v>
+      </c>
+      <c r="R5" s="64"/>
       <c r="S5" s="20"/>
       <c r="V5" s="56"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="62" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>1695</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>1696</v>
-      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="62" t="s">
-        <v>1697</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>621</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>1175</v>
-      </c>
-      <c r="L6" s="62" t="s">
-        <v>1698</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>744</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>1699</v>
-      </c>
-      <c r="O6" s="62" t="s">
-        <v>1693</v>
-      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
@@ -9685,67 +8867,67 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
       <c r="S7" s="27"/>
       <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60" t="s">
-        <v>599</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>597</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>846</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>900</v>
-      </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>1180</v>
-      </c>
-      <c r="N8" s="60" t="s">
-        <v>1181</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>778</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>780</v>
-      </c>
-      <c r="R8" s="60"/>
+      <c r="D8" s="65" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>1541</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>1431</v>
+      </c>
+      <c r="O8" s="65" t="s">
+        <v>1542</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Q8" s="65" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R8" s="65"/>
       <c r="S8" s="18"/>
       <c r="V8" s="56"/>
     </row>
@@ -9754,99 +8936,73 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>1245</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>1246</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>1247</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>1248</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>1249</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>1250</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>1171</v>
+      <c r="D9" s="64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>1186</v>
+      </c>
+      <c r="N9" s="64" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>161</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>1170</v>
+        <v>1427</v>
       </c>
       <c r="T9" s="16"/>
       <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
-      <c r="D10" s="62" t="s">
-        <v>1700</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>1701</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>1702</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>846</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>1703</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>1704</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>900</v>
-      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="62"/>
-      <c r="L10" s="62" t="s">
-        <v>1705</v>
-      </c>
-      <c r="M10" s="62" t="s">
-        <v>1706</v>
-      </c>
-      <c r="N10" s="62" t="s">
-        <v>1707</v>
-      </c>
-      <c r="O10" s="62" t="s">
-        <v>1708</v>
-      </c>
-      <c r="P10" s="62" t="s">
-        <v>1709</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>1710</v>
-      </c>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
       <c r="S10" s="29"/>
       <c r="V10" s="56"/>
@@ -9854,64 +9010,64 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
       <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="60" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>597</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>704</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>1186</v>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60" t="s">
-        <v>1187</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>1172</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>782</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="O12" s="60" t="s">
-        <v>1188</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>1189</v>
-      </c>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+      <c r="D12" s="65" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65" t="s">
+        <v>1498</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>1179</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="O12" s="65" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P12" s="65" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
       <c r="S12" s="18"/>
       <c r="V12" s="56"/>
     </row>
@@ -9920,93 +9076,69 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>1263</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>1264</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>1220</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>1265</v>
-      </c>
-      <c r="N13" s="61" t="s">
-        <v>1262</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>1266</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>1267</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>1268</v>
-      </c>
-      <c r="R13" s="61" t="s">
+      <c r="D13" s="64" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L13" s="64" t="s">
         <v>1170</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="N13" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Q13" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>1177</v>
       </c>
       <c r="S13" s="20"/>
       <c r="V13" s="56"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
-      <c r="D14" s="62" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>1712</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>601</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>1699</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>1713</v>
-      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="62"/>
-      <c r="K14" s="62" t="s">
-        <v>1714</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>1695</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>1715</v>
-      </c>
-      <c r="N14" s="62" t="s">
-        <v>601</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>1716</v>
-      </c>
-      <c r="P14" s="62" t="s">
-        <v>1717</v>
-      </c>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
       <c r="S14" s="29"/>
@@ -10015,64 +9147,64 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="60" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60" t="s">
-        <v>1291</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>1292</v>
-      </c>
-      <c r="M16" s="60" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N16" s="60" t="s">
-        <v>1258</v>
-      </c>
-      <c r="O16" s="60" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P16" s="60" t="s">
-        <v>1295</v>
-      </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
+      <c r="D16" s="65" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>1542</v>
+      </c>
+      <c r="O16" s="65" t="s">
+        <v>1500</v>
+      </c>
+      <c r="P16" s="65" t="s">
+        <v>1482</v>
+      </c>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
       <c r="S16" s="18"/>
       <c r="V16" s="56"/>
     </row>
@@ -10081,93 +9213,69 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>1276</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>1280</v>
-      </c>
-      <c r="M17" s="61" t="s">
-        <v>1281</v>
-      </c>
-      <c r="N17" s="61" t="s">
-        <v>1248</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>1282</v>
-      </c>
-      <c r="P17" s="61" t="s">
-        <v>1283</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>1284</v>
-      </c>
-      <c r="R17" s="61" t="s">
-        <v>1170</v>
+      <c r="D17" s="64" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P17" s="64" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>1177</v>
       </c>
       <c r="S17" s="20"/>
       <c r="V17" s="56"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
-      <c r="D18" s="62" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>1195</v>
-      </c>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="62"/>
-      <c r="K18" s="62" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M18" s="62" t="s">
-        <v>1198</v>
-      </c>
-      <c r="N18" s="62" t="s">
-        <v>1182</v>
-      </c>
-      <c r="O18" s="62" t="s">
-        <v>1199</v>
-      </c>
-      <c r="P18" s="62" t="s">
-        <v>384</v>
-      </c>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
       <c r="S18" s="29"/>
@@ -10176,64 +9284,64 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
       <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="60" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>1307</v>
-      </c>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60" t="s">
-        <v>1308</v>
-      </c>
-      <c r="L20" s="60" t="s">
-        <v>1309</v>
-      </c>
-      <c r="M20" s="60" t="s">
-        <v>1309</v>
-      </c>
-      <c r="N20" s="60" t="s">
-        <v>1258</v>
-      </c>
-      <c r="O20" s="60" t="s">
-        <v>1310</v>
-      </c>
-      <c r="P20" s="60" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
+      <c r="D20" s="65" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>1434</v>
+      </c>
+      <c r="M20" s="65" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>1542</v>
+      </c>
+      <c r="O20" s="65" t="s">
+        <v>1501</v>
+      </c>
+      <c r="P20" s="65" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="18"/>
       <c r="V20" s="56"/>
     </row>
@@ -10242,93 +9350,69 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="61" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J21" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K21" s="61" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M21" s="61" t="s">
-        <v>1301</v>
-      </c>
-      <c r="N21" s="61" t="s">
-        <v>1248</v>
-      </c>
-      <c r="O21" s="61" t="s">
-        <v>1302</v>
-      </c>
-      <c r="P21" s="61" t="s">
-        <v>1303</v>
-      </c>
-      <c r="Q21" s="61" t="s">
-        <v>1284</v>
-      </c>
-      <c r="R21" s="61" t="s">
-        <v>1170</v>
+      <c r="D21" s="64" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" s="64" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M21" s="64" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N21" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P21" s="64" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q21" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="64" t="s">
+        <v>1177</v>
       </c>
       <c r="S21" s="20"/>
       <c r="V21" s="56"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
-      <c r="D22" s="62" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>426</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>1202</v>
-      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="62"/>
-      <c r="K22" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="L22" s="62" t="s">
-        <v>1203</v>
-      </c>
-      <c r="M22" s="62" t="s">
-        <v>1203</v>
-      </c>
-      <c r="N22" s="62" t="s">
-        <v>1182</v>
-      </c>
-      <c r="O22" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="P22" s="62" t="s">
-        <v>496</v>
-      </c>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="S22" s="29"/>
@@ -10337,64 +9421,64 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="60" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60" t="s">
-        <v>1327</v>
-      </c>
-      <c r="L24" s="60" t="s">
-        <v>1328</v>
-      </c>
-      <c r="M24" s="60" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N24" s="60" t="s">
-        <v>1270</v>
-      </c>
-      <c r="O24" s="60" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P24" s="60" t="s">
-        <v>1331</v>
-      </c>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
+      <c r="D24" s="65" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L24" s="65" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M24" s="65" t="s">
+        <v>1435</v>
+      </c>
+      <c r="N24" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="O24" s="65" t="s">
+        <v>1436</v>
+      </c>
+      <c r="P24" s="65" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
       <c r="S24" s="18"/>
       <c r="V24" s="56"/>
     </row>
@@ -10403,93 +9487,69 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K25" s="61" t="s">
-        <v>1317</v>
-      </c>
-      <c r="L25" s="61" t="s">
-        <v>1318</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>1319</v>
-      </c>
-      <c r="N25" s="61" t="s">
-        <v>1262</v>
-      </c>
-      <c r="O25" s="61" t="s">
-        <v>1320</v>
-      </c>
-      <c r="P25" s="61" t="s">
-        <v>1321</v>
-      </c>
-      <c r="Q25" s="61" t="s">
-        <v>1284</v>
-      </c>
-      <c r="R25" s="61" t="s">
-        <v>1170</v>
+      <c r="D25" s="64" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M25" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="N25" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="64" t="s">
+        <v>1229</v>
+      </c>
+      <c r="P25" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="64" t="s">
+        <v>1177</v>
       </c>
       <c r="S25" s="20"/>
       <c r="V25" s="56"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
-      <c r="D26" s="62" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>324</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H26" s="62" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I26" s="62" t="s">
-        <v>1206</v>
-      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="62"/>
-      <c r="K26" s="62" t="s">
-        <v>1207</v>
-      </c>
-      <c r="L26" s="62" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M26" s="62" t="s">
-        <v>1209</v>
-      </c>
-      <c r="N26" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="O26" s="62" t="s">
-        <v>1210</v>
-      </c>
-      <c r="P26" s="62" t="s">
-        <v>1211</v>
-      </c>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
       <c r="S26" s="29"/>
@@ -10498,19 +9558,19 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="54"/>
       <c r="U27" s="33" t="str">
@@ -10521,35 +9581,35 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="60" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60" t="s">
-        <v>1342</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>1343</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>1342</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>1344</v>
-      </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
+      <c r="D28" s="65" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K28" s="65" t="s">
+        <v>1505</v>
+      </c>
+      <c r="L28" s="65" t="s">
+        <v>1483</v>
+      </c>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="18"/>
@@ -10564,41 +9624,41 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="61" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>1337</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>1338</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>1284</v>
-      </c>
-      <c r="N29" s="61" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
+      <c r="D29" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K29" s="64" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L29" s="64" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M29" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="64" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
       <c r="Q29" s="61"/>
       <c r="R29" s="61"/>
       <c r="S29" s="20"/>
@@ -10610,31 +9670,15 @@
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
-      <c r="D30" s="62" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>1214</v>
-      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="62"/>
-      <c r="I30" s="62" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>1216</v>
-      </c>
-      <c r="K30" s="62" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L30" s="62" t="s">
-        <v>1217</v>
-      </c>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
       <c r="M30" s="62"/>
       <c r="N30" s="62"/>
       <c r="O30" s="62"/>
@@ -10675,29 +9719,29 @@
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="60" t="s">
-        <v>1353</v>
+        <v>1437</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>1354</v>
+        <v>1438</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1355</v>
+        <v>1520</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>1356</v>
+        <v>1488</v>
       </c>
       <c r="H32" s="60"/>
       <c r="I32" s="60" t="s">
-        <v>1357</v>
+        <v>1551</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1358</v>
+        <v>1552</v>
       </c>
       <c r="K32" s="60" t="s">
-        <v>1359</v>
+        <v>1245</v>
       </c>
       <c r="L32" s="60" t="s">
-        <v>1360</v>
+        <v>1553</v>
       </c>
       <c r="M32" s="60"/>
       <c r="N32" s="60"/>
@@ -10718,37 +9762,37 @@
         <v>8</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>1345</v>
+        <v>1238</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>1346</v>
+        <v>1239</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1347</v>
+        <v>1240</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>1348</v>
+        <v>1241</v>
       </c>
       <c r="H33" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L33" s="61" t="s">
         <v>1244</v>
       </c>
-      <c r="I33" s="61" t="s">
-        <v>1349</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>1350</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>1352</v>
-      </c>
       <c r="M33" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="O33" s="61"/>
       <c r="P33" s="61"/>
@@ -10800,29 +9844,29 @@
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="60" t="s">
-        <v>1369</v>
+        <v>1439</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>1370</v>
+        <v>1440</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>1371</v>
+        <v>1554</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>1308</v>
+        <v>1223</v>
       </c>
       <c r="H36" s="60"/>
       <c r="I36" s="60" t="s">
-        <v>1372</v>
+        <v>1506</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>1373</v>
+        <v>1441</v>
       </c>
       <c r="K36" s="60" t="s">
-        <v>1374</v>
+        <v>1555</v>
       </c>
       <c r="L36" s="60" t="s">
-        <v>1375</v>
+        <v>1556</v>
       </c>
       <c r="M36" s="60"/>
       <c r="N36" s="60"/>
@@ -10839,37 +9883,37 @@
         <v>9</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1361</v>
+        <v>1246</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>1362</v>
+        <v>1247</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>1363</v>
+        <v>1248</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>1364</v>
+        <v>1249</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>1365</v>
+        <v>1250</v>
       </c>
       <c r="J37" s="61" t="s">
-        <v>1366</v>
+        <v>1251</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>1367</v>
+        <v>1252</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>1368</v>
+        <v>1253</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="O37" s="61"/>
       <c r="P37" s="61"/>
@@ -10921,29 +9965,29 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="60" t="s">
-        <v>1384</v>
+        <v>1260</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>1385</v>
+        <v>1557</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>1386</v>
+        <v>1261</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>1387</v>
+        <v>1558</v>
       </c>
       <c r="H40" s="60"/>
       <c r="I40" s="60" t="s">
-        <v>1388</v>
+        <v>1559</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>1389</v>
+        <v>1499</v>
       </c>
       <c r="K40" s="60" t="s">
-        <v>1390</v>
+        <v>1262</v>
       </c>
       <c r="L40" s="60" t="s">
-        <v>1391</v>
+        <v>1507</v>
       </c>
       <c r="M40" s="60"/>
       <c r="N40" s="60"/>
@@ -10960,37 +10004,37 @@
         <v>10</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>1376</v>
+        <v>1254</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>1377</v>
+        <v>1255</v>
       </c>
       <c r="F41" s="61" t="s">
-        <v>1378</v>
+        <v>1256</v>
       </c>
       <c r="G41" s="61" t="s">
-        <v>1379</v>
+        <v>1257</v>
       </c>
       <c r="H41" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="I41" s="61" t="s">
-        <v>1380</v>
+        <v>19</v>
       </c>
       <c r="J41" s="61" t="s">
-        <v>1381</v>
+        <v>262</v>
       </c>
       <c r="K41" s="61" t="s">
-        <v>1382</v>
+        <v>1258</v>
       </c>
       <c r="L41" s="61" t="s">
-        <v>1383</v>
+        <v>1259</v>
       </c>
       <c r="M41" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="N41" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="O41" s="61"/>
       <c r="P41" s="61"/>
@@ -11042,41 +10086,41 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="60" t="s">
-        <v>1401</v>
+        <v>1270</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>1235</v>
+        <v>1180</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>1402</v>
+        <v>1533</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H44" s="60" t="s">
-        <v>1252</v>
+        <v>1538</v>
       </c>
       <c r="I44" s="60" t="s">
-        <v>1403</v>
+        <v>1508</v>
       </c>
       <c r="J44" s="60"/>
       <c r="K44" s="60" t="s">
-        <v>1404</v>
+        <v>1271</v>
       </c>
       <c r="L44" s="60" t="s">
-        <v>1405</v>
+        <v>1442</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>1406</v>
+        <v>1443</v>
       </c>
       <c r="N44" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="O44" s="60" t="s">
-        <v>1407</v>
+        <v>1536</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>1408</v>
+        <v>1489</v>
       </c>
       <c r="Q44" s="60"/>
       <c r="R44" s="60"/>
@@ -11089,49 +10133,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1392</v>
+        <v>1263</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>1393</v>
+        <v>1264</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>1394</v>
+        <v>1265</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>1238</v>
+        <v>1183</v>
       </c>
       <c r="I45" s="61" t="s">
-        <v>1395</v>
+        <v>1266</v>
       </c>
       <c r="J45" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K45" s="61" t="s">
-        <v>1396</v>
+        <v>1267</v>
       </c>
       <c r="L45" s="61" t="s">
-        <v>1397</v>
+        <v>115</v>
       </c>
       <c r="M45" s="61" t="s">
-        <v>1398</v>
+        <v>1268</v>
       </c>
       <c r="N45" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="O45" s="61" t="s">
-        <v>1399</v>
+        <v>256</v>
       </c>
       <c r="P45" s="61" t="s">
-        <v>1400</v>
+        <v>1269</v>
       </c>
       <c r="Q45" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="R45" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S45" s="20"/>
       <c r="V45" s="56"/>
@@ -11179,41 +10223,41 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="60" t="s">
-        <v>1419</v>
+        <v>1281</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>1420</v>
+        <v>1444</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>1421</v>
+        <v>1528</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H48" s="60" t="s">
-        <v>1230</v>
+        <v>1335</v>
       </c>
       <c r="I48" s="60" t="s">
-        <v>1422</v>
+        <v>1490</v>
       </c>
       <c r="J48" s="60"/>
       <c r="K48" s="60" t="s">
-        <v>1423</v>
+        <v>1560</v>
       </c>
       <c r="L48" s="60" t="s">
-        <v>1307</v>
+        <v>1526</v>
       </c>
       <c r="M48" s="60" t="s">
-        <v>1424</v>
+        <v>1445</v>
       </c>
       <c r="N48" s="60" t="s">
-        <v>1270</v>
+        <v>1497</v>
       </c>
       <c r="O48" s="60" t="s">
-        <v>1425</v>
+        <v>1561</v>
       </c>
       <c r="P48" s="60" t="s">
-        <v>1426</v>
+        <v>1562</v>
       </c>
       <c r="Q48" s="60"/>
       <c r="R48" s="60"/>
@@ -11226,49 +10270,49 @@
         <v>12</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>1409</v>
+        <v>1272</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>1410</v>
+        <v>147</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>1411</v>
+        <v>1273</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>1412</v>
+        <v>1274</v>
       </c>
       <c r="I49" s="61" t="s">
-        <v>1413</v>
+        <v>1275</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>1414</v>
+        <v>1276</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>1415</v>
+        <v>1277</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>1416</v>
+        <v>1278</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>1262</v>
+        <v>108</v>
       </c>
       <c r="O49" s="61" t="s">
-        <v>1417</v>
+        <v>1279</v>
       </c>
       <c r="P49" s="61" t="s">
-        <v>1418</v>
+        <v>1280</v>
       </c>
       <c r="Q49" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R49" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S49" s="20"/>
       <c r="V49" s="56"/>
@@ -11316,41 +10360,41 @@
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
       <c r="D52" s="60" t="s">
-        <v>1435</v>
+        <v>1289</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>1436</v>
+        <v>1290</v>
       </c>
       <c r="F52" s="60" t="s">
-        <v>1437</v>
+        <v>1291</v>
       </c>
       <c r="G52" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H52" s="60" t="s">
-        <v>1438</v>
+        <v>1509</v>
       </c>
       <c r="I52" s="60" t="s">
-        <v>1439</v>
+        <v>1563</v>
       </c>
       <c r="J52" s="60"/>
       <c r="K52" s="60" t="s">
-        <v>1440</v>
+        <v>1564</v>
       </c>
       <c r="L52" s="60" t="s">
-        <v>1441</v>
+        <v>1292</v>
       </c>
       <c r="M52" s="60" t="s">
-        <v>1442</v>
+        <v>1293</v>
       </c>
       <c r="N52" s="60" t="s">
-        <v>1258</v>
+        <v>1542</v>
       </c>
       <c r="O52" s="60" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="P52" s="60" t="s">
-        <v>1444</v>
+        <v>1521</v>
       </c>
       <c r="Q52" s="60"/>
       <c r="R52" s="60"/>
@@ -11363,49 +10407,49 @@
         <v>13</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>1224</v>
+        <v>1173</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>1427</v>
+        <v>20</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>1428</v>
+        <v>1282</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H53" s="61" t="s">
-        <v>1429</v>
+        <v>1283</v>
       </c>
       <c r="I53" s="61" t="s">
-        <v>1430</v>
+        <v>1284</v>
       </c>
       <c r="J53" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="61" t="s">
         <v>1244</v>
       </c>
-      <c r="K53" s="61" t="s">
-        <v>1352</v>
-      </c>
       <c r="L53" s="61" t="s">
-        <v>1431</v>
+        <v>1285</v>
       </c>
       <c r="M53" s="61" t="s">
-        <v>1432</v>
+        <v>1286</v>
       </c>
       <c r="N53" s="61" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="O53" s="61" t="s">
-        <v>1433</v>
+        <v>1287</v>
       </c>
       <c r="P53" s="61" t="s">
-        <v>1434</v>
+        <v>1288</v>
       </c>
       <c r="Q53" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R53" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S53" s="20"/>
       <c r="V53" s="56"/>
@@ -11453,41 +10497,41 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="60" t="s">
-        <v>1455</v>
+        <v>1302</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>1456</v>
+        <v>1565</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="G56" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>1458</v>
+        <v>1566</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>1459</v>
+        <v>1491</v>
       </c>
       <c r="J56" s="60"/>
       <c r="K56" s="60" t="s">
-        <v>1460</v>
+        <v>1567</v>
       </c>
       <c r="L56" s="60" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="M56" s="60" t="s">
-        <v>1462</v>
+        <v>1568</v>
       </c>
       <c r="N56" s="60" t="s">
-        <v>1258</v>
+        <v>1542</v>
       </c>
       <c r="O56" s="60" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
       <c r="P56" s="60" t="s">
-        <v>1464</v>
+        <v>1522</v>
       </c>
       <c r="Q56" s="60"/>
       <c r="R56" s="60"/>
@@ -11500,49 +10544,49 @@
         <v>14</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>1445</v>
+        <v>1294</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>1446</v>
+        <v>1295</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>1447</v>
+        <v>1296</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>1448</v>
+        <v>1297</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>1449</v>
+        <v>1298</v>
       </c>
       <c r="J57" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K57" s="61" t="s">
-        <v>1450</v>
+        <v>285</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>1451</v>
+        <v>1299</v>
       </c>
       <c r="M57" s="61" t="s">
-        <v>1452</v>
+        <v>1300</v>
       </c>
       <c r="N57" s="61" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="O57" s="61" t="s">
-        <v>1453</v>
+        <v>1301</v>
       </c>
       <c r="P57" s="61" t="s">
-        <v>1454</v>
+        <v>109</v>
       </c>
       <c r="Q57" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R57" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S57" s="20"/>
       <c r="V57" s="56"/>
@@ -11590,41 +10634,41 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
       <c r="D60" s="60" t="s">
-        <v>1473</v>
+        <v>1569</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>1474</v>
+        <v>1310</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>1254</v>
+        <v>1189</v>
       </c>
       <c r="G60" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H60" s="60" t="s">
-        <v>1475</v>
+        <v>1510</v>
       </c>
       <c r="I60" s="60" t="s">
-        <v>1476</v>
+        <v>1570</v>
       </c>
       <c r="J60" s="60"/>
       <c r="K60" s="60" t="s">
-        <v>1477</v>
+        <v>1511</v>
       </c>
       <c r="L60" s="60" t="s">
-        <v>1478</v>
+        <v>1311</v>
       </c>
       <c r="M60" s="60" t="s">
-        <v>1479</v>
+        <v>1312</v>
       </c>
       <c r="N60" s="60" t="s">
-        <v>1258</v>
+        <v>1542</v>
       </c>
       <c r="O60" s="60" t="s">
-        <v>1271</v>
+        <v>1498</v>
       </c>
       <c r="P60" s="60" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="Q60" s="60"/>
       <c r="R60" s="60"/>
@@ -11637,49 +10681,49 @@
         <v>15</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1465</v>
+        <v>1303</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>1466</v>
+        <v>26</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>1240</v>
+        <v>253</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H61" s="61" t="s">
-        <v>1467</v>
+        <v>1304</v>
       </c>
       <c r="I61" s="61" t="s">
-        <v>1468</v>
+        <v>1305</v>
       </c>
       <c r="J61" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K61" s="61" t="s">
-        <v>1469</v>
+        <v>1306</v>
       </c>
       <c r="L61" s="61" t="s">
-        <v>1470</v>
+        <v>1307</v>
       </c>
       <c r="M61" s="61" t="s">
-        <v>1471</v>
+        <v>1308</v>
       </c>
       <c r="N61" s="61" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="O61" s="61" t="s">
-        <v>1264</v>
+        <v>1197</v>
       </c>
       <c r="P61" s="61" t="s">
-        <v>1472</v>
+        <v>1309</v>
       </c>
       <c r="Q61" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R61" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S61" s="20"/>
       <c r="V61" s="56"/>
@@ -11727,38 +10771,38 @@
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="60" t="s">
-        <v>1487</v>
+        <v>1571</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>1488</v>
+        <v>1450</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>1488</v>
+        <v>1450</v>
       </c>
       <c r="G64" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H64" s="60" t="s">
-        <v>1233</v>
+        <v>1496</v>
       </c>
       <c r="I64" s="60" t="s">
-        <v>1386</v>
+        <v>1261</v>
       </c>
       <c r="J64" s="60"/>
       <c r="K64" s="60" t="s">
-        <v>1489</v>
+        <v>1318</v>
       </c>
       <c r="L64" s="60" t="s">
-        <v>1490</v>
+        <v>1451</v>
       </c>
       <c r="M64" s="60" t="s">
-        <v>1372</v>
+        <v>1506</v>
       </c>
       <c r="N64" s="60" t="s">
-        <v>1258</v>
+        <v>1542</v>
       </c>
       <c r="O64" s="60" t="s">
-        <v>1491</v>
+        <v>1452</v>
       </c>
       <c r="P64" s="60" t="s">
         <v>1492</v>
@@ -11774,49 +10818,49 @@
         <v>16</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1481</v>
+        <v>213</v>
       </c>
       <c r="E65" s="61" t="s">
-        <v>1482</v>
+        <v>1313</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>1482</v>
+        <v>1313</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H65" s="61" t="s">
-        <v>1225</v>
+        <v>1174</v>
       </c>
       <c r="I65" s="61" t="s">
-        <v>1378</v>
+        <v>1256</v>
       </c>
       <c r="J65" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>1483</v>
+        <v>1314</v>
       </c>
       <c r="L65" s="61" t="s">
-        <v>1484</v>
+        <v>1315</v>
       </c>
       <c r="M65" s="61" t="s">
-        <v>1365</v>
+        <v>1250</v>
       </c>
       <c r="N65" s="61" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="O65" s="61" t="s">
-        <v>1485</v>
+        <v>1316</v>
       </c>
       <c r="P65" s="61" t="s">
-        <v>1486</v>
+        <v>1317</v>
       </c>
       <c r="Q65" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R65" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S65" s="20"/>
       <c r="V65" s="56"/>
@@ -11864,35 +10908,35 @@
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
       <c r="D68" s="60" t="s">
-        <v>1229</v>
+        <v>1178</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>1230</v>
+        <v>1335</v>
       </c>
       <c r="F68" s="60" t="s">
-        <v>1231</v>
+        <v>1179</v>
       </c>
       <c r="G68" s="60" t="s">
-        <v>1232</v>
+        <v>1337</v>
       </c>
       <c r="H68" s="60"/>
       <c r="I68" s="60" t="s">
-        <v>1498</v>
+        <v>1572</v>
       </c>
       <c r="J68" s="60" t="s">
-        <v>1499</v>
+        <v>1453</v>
       </c>
       <c r="K68" s="60" t="s">
-        <v>1500</v>
+        <v>1454</v>
       </c>
       <c r="L68" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="M68" s="60" t="s">
-        <v>1501</v>
+        <v>1523</v>
       </c>
       <c r="N68" s="60" t="s">
-        <v>1502</v>
+        <v>1573</v>
       </c>
       <c r="O68" s="60"/>
       <c r="P68" s="60"/>
@@ -11907,43 +10951,43 @@
         <v>17</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1218</v>
+        <v>299</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>1219</v>
+        <v>199</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>1220</v>
+        <v>1170</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>1221</v>
+        <v>1171</v>
       </c>
       <c r="H69" s="61" t="s">
-        <v>1222</v>
+        <v>267</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>1493</v>
+        <v>1319</v>
       </c>
       <c r="J69" s="61" t="s">
-        <v>1494</v>
+        <v>1320</v>
       </c>
       <c r="K69" s="61" t="s">
-        <v>1495</v>
+        <v>1321</v>
       </c>
       <c r="L69" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="M69" s="61" t="s">
-        <v>1496</v>
+        <v>1322</v>
       </c>
       <c r="N69" s="61" t="s">
-        <v>1497</v>
+        <v>1323</v>
       </c>
       <c r="O69" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="P69" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="Q69" s="61"/>
       <c r="R69" s="61"/>
@@ -11993,41 +11037,41 @@
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
       <c r="D72" s="60" t="s">
-        <v>1513</v>
+        <v>1332</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>1388</v>
+        <v>1559</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>1514</v>
+        <v>1333</v>
       </c>
       <c r="G72" s="60" t="s">
-        <v>1258</v>
+        <v>1542</v>
       </c>
       <c r="H72" s="60" t="s">
-        <v>1515</v>
+        <v>1455</v>
       </c>
       <c r="I72" s="60" t="s">
-        <v>1255</v>
+        <v>1540</v>
       </c>
       <c r="J72" s="60"/>
       <c r="K72" s="60" t="s">
-        <v>1516</v>
+        <v>1334</v>
       </c>
       <c r="L72" s="60" t="s">
-        <v>1517</v>
+        <v>1335</v>
       </c>
       <c r="M72" s="60" t="s">
-        <v>1518</v>
+        <v>1336</v>
       </c>
       <c r="N72" s="60" t="s">
-        <v>1232</v>
+        <v>1337</v>
       </c>
       <c r="O72" s="60" t="s">
-        <v>1519</v>
+        <v>1529</v>
       </c>
       <c r="P72" s="60" t="s">
-        <v>1520</v>
+        <v>1574</v>
       </c>
       <c r="Q72" s="60"/>
       <c r="R72" s="60"/>
@@ -12040,49 +11084,49 @@
         <v>18</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>1503</v>
+        <v>1324</v>
       </c>
       <c r="E73" s="61" t="s">
-        <v>1504</v>
+        <v>28</v>
       </c>
       <c r="F73" s="61" t="s">
-        <v>1505</v>
+        <v>1325</v>
       </c>
       <c r="G73" s="61" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="H73" s="61" t="s">
-        <v>1506</v>
+        <v>1326</v>
       </c>
       <c r="I73" s="61" t="s">
-        <v>1507</v>
+        <v>1327</v>
       </c>
       <c r="J73" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K73" s="61" t="s">
-        <v>1508</v>
+        <v>1328</v>
       </c>
       <c r="L73" s="61" t="s">
-        <v>1509</v>
+        <v>1329</v>
       </c>
       <c r="M73" s="61" t="s">
-        <v>1510</v>
+        <v>1330</v>
       </c>
       <c r="N73" s="61" t="s">
-        <v>1221</v>
+        <v>1171</v>
       </c>
       <c r="O73" s="61" t="s">
-        <v>1511</v>
+        <v>1331</v>
       </c>
       <c r="P73" s="61" t="s">
-        <v>1512</v>
+        <v>269</v>
       </c>
       <c r="Q73" s="61" t="s">
-        <v>1171</v>
+        <v>161</v>
       </c>
       <c r="R73" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
@@ -12130,41 +11174,41 @@
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
       <c r="D76" s="60" t="s">
-        <v>1531</v>
+        <v>1345</v>
       </c>
       <c r="E76" s="60" t="s">
-        <v>1532</v>
+        <v>1512</v>
       </c>
       <c r="F76" s="60" t="s">
-        <v>1533</v>
+        <v>1513</v>
       </c>
       <c r="G76" s="60" t="s">
-        <v>1270</v>
+        <v>1497</v>
       </c>
       <c r="H76" s="60" t="s">
-        <v>1438</v>
+        <v>1509</v>
       </c>
       <c r="I76" s="60" t="s">
-        <v>1534</v>
+        <v>1493</v>
       </c>
       <c r="J76" s="60"/>
       <c r="K76" s="60" t="s">
-        <v>1535</v>
+        <v>1346</v>
       </c>
       <c r="L76" s="60" t="s">
-        <v>1536</v>
+        <v>1575</v>
       </c>
       <c r="M76" s="60" t="s">
-        <v>1537</v>
+        <v>1514</v>
       </c>
       <c r="N76" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="O76" s="60" t="s">
-        <v>1538</v>
+        <v>1456</v>
       </c>
       <c r="P76" s="60" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="Q76" s="60"/>
       <c r="R76" s="60"/>
@@ -12177,49 +11221,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>1521</v>
+        <v>1338</v>
       </c>
       <c r="E77" s="61" t="s">
-        <v>1522</v>
+        <v>1339</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>1523</v>
+        <v>1340</v>
       </c>
       <c r="G77" s="61" t="s">
-        <v>1262</v>
+        <v>108</v>
       </c>
       <c r="H77" s="61" t="s">
-        <v>1524</v>
+        <v>157</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>1525</v>
+        <v>1341</v>
       </c>
       <c r="J77" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K77" s="61" t="s">
-        <v>1526</v>
+        <v>251</v>
       </c>
       <c r="L77" s="61" t="s">
-        <v>1527</v>
+        <v>1342</v>
       </c>
       <c r="M77" s="61" t="s">
-        <v>1528</v>
+        <v>1343</v>
       </c>
       <c r="N77" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="O77" s="61" t="s">
-        <v>1529</v>
+        <v>1344</v>
       </c>
       <c r="P77" s="61" t="s">
-        <v>1530</v>
+        <v>203</v>
       </c>
       <c r="Q77" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R77" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
@@ -12267,44 +11311,44 @@
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
       <c r="D80" s="60" t="s">
-        <v>1550</v>
+        <v>1457</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>1551</v>
+        <v>1576</v>
       </c>
       <c r="F80" s="60" t="s">
-        <v>1552</v>
+        <v>1354</v>
       </c>
       <c r="G80" s="60" t="s">
-        <v>1234</v>
+        <v>1536</v>
       </c>
       <c r="H80" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="I80" s="60" t="s">
-        <v>1553</v>
+        <v>1515</v>
       </c>
       <c r="J80" s="60" t="s">
-        <v>1554</v>
+        <v>1476</v>
       </c>
       <c r="K80" s="60"/>
       <c r="L80" s="60" t="s">
-        <v>1233</v>
+        <v>1496</v>
       </c>
       <c r="M80" s="60" t="s">
-        <v>1388</v>
+        <v>1559</v>
       </c>
       <c r="N80" s="60" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="O80" s="60" t="s">
-        <v>1556</v>
+        <v>1577</v>
       </c>
       <c r="P80" s="60" t="s">
-        <v>1557</v>
+        <v>1458</v>
       </c>
       <c r="Q80" s="60" t="s">
-        <v>1558</v>
+        <v>1578</v>
       </c>
       <c r="R80" s="60"/>
       <c r="S80" s="18"/>
@@ -12316,52 +11360,52 @@
         <v>20</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1540</v>
+        <v>1347</v>
       </c>
       <c r="E81" s="61" t="s">
-        <v>1541</v>
+        <v>37</v>
       </c>
       <c r="F81" s="61" t="s">
-        <v>1542</v>
+        <v>1348</v>
       </c>
       <c r="G81" s="61" t="s">
-        <v>1543</v>
+        <v>1349</v>
       </c>
       <c r="H81" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="I81" s="61" t="s">
-        <v>1544</v>
+        <v>71</v>
       </c>
       <c r="J81" s="61" t="s">
-        <v>1545</v>
+        <v>1350</v>
       </c>
       <c r="K81" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="L81" s="61" t="s">
-        <v>1225</v>
+        <v>1174</v>
       </c>
       <c r="M81" s="61" t="s">
-        <v>1380</v>
+        <v>19</v>
       </c>
       <c r="N81" s="61" t="s">
-        <v>1546</v>
+        <v>1351</v>
       </c>
       <c r="O81" s="61" t="s">
-        <v>1547</v>
+        <v>160</v>
       </c>
       <c r="P81" s="61" t="s">
-        <v>1548</v>
+        <v>1352</v>
       </c>
       <c r="Q81" s="61" t="s">
-        <v>1549</v>
+        <v>1353</v>
       </c>
       <c r="R81" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="S81" s="20" t="s">
-        <v>1170</v>
+        <v>1427</v>
       </c>
       <c r="V81" s="56"/>
     </row>
@@ -12408,29 +11452,29 @@
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
       <c r="D84" s="60" t="s">
-        <v>1564</v>
+        <v>1359</v>
       </c>
       <c r="E84" s="60" t="s">
-        <v>1565</v>
+        <v>1360</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>1566</v>
+        <v>1459</v>
       </c>
       <c r="G84" s="60" t="s">
-        <v>1567</v>
+        <v>1516</v>
       </c>
       <c r="H84" s="60"/>
       <c r="I84" s="60" t="s">
-        <v>1568</v>
+        <v>1579</v>
       </c>
       <c r="J84" s="60" t="s">
-        <v>1569</v>
+        <v>1361</v>
       </c>
       <c r="K84" s="60" t="s">
-        <v>1570</v>
+        <v>1408</v>
       </c>
       <c r="L84" s="60" t="s">
-        <v>1571</v>
+        <v>1517</v>
       </c>
       <c r="M84" s="60"/>
       <c r="N84" s="60"/>
@@ -12447,37 +11491,37 @@
         <v>21</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1559</v>
+        <v>236</v>
       </c>
       <c r="E85" s="61" t="s">
-        <v>1560</v>
+        <v>1355</v>
       </c>
       <c r="F85" s="61" t="s">
-        <v>1561</v>
+        <v>1356</v>
       </c>
       <c r="G85" s="61" t="s">
-        <v>1562</v>
+        <v>1357</v>
       </c>
       <c r="H85" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="I85" s="61" t="s">
-        <v>1559</v>
+        <v>236</v>
       </c>
       <c r="J85" s="61" t="s">
-        <v>1563</v>
+        <v>1358</v>
       </c>
       <c r="K85" s="61" t="s">
-        <v>1484</v>
+        <v>1315</v>
       </c>
       <c r="L85" s="61" t="s">
-        <v>1296</v>
+        <v>1215</v>
       </c>
       <c r="M85" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="N85" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="O85" s="61"/>
       <c r="P85" s="61"/>
@@ -12529,41 +11573,41 @@
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
       <c r="D88" s="60" t="s">
-        <v>1251</v>
+        <v>1537</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>1581</v>
+        <v>1531</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>1582</v>
+        <v>1460</v>
       </c>
       <c r="G88" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H88" s="60" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="I88" s="60" t="s">
-        <v>1584</v>
+        <v>1477</v>
       </c>
       <c r="J88" s="60"/>
       <c r="K88" s="60" t="s">
-        <v>1257</v>
+        <v>1524</v>
       </c>
       <c r="L88" s="60" t="s">
-        <v>1585</v>
+        <v>1461</v>
       </c>
       <c r="M88" s="60" t="s">
-        <v>1586</v>
+        <v>1462</v>
       </c>
       <c r="N88" s="60" t="s">
-        <v>1258</v>
+        <v>1542</v>
       </c>
       <c r="O88" s="60" t="s">
-        <v>1587</v>
+        <v>1463</v>
       </c>
       <c r="P88" s="60" t="s">
-        <v>1588</v>
+        <v>1494</v>
       </c>
       <c r="Q88" s="60"/>
       <c r="R88" s="60"/>
@@ -12576,49 +11620,49 @@
         <v>22</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>1237</v>
+        <v>1182</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>1572</v>
+        <v>1362</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>1573</v>
+        <v>1363</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>1574</v>
+        <v>1364</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>1575</v>
+        <v>1365</v>
       </c>
       <c r="J89" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K89" s="61" t="s">
-        <v>1576</v>
+        <v>283</v>
       </c>
       <c r="L89" s="61" t="s">
-        <v>1577</v>
+        <v>1366</v>
       </c>
       <c r="M89" s="61" t="s">
-        <v>1578</v>
+        <v>1367</v>
       </c>
       <c r="N89" s="61" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="O89" s="61" t="s">
-        <v>1579</v>
+        <v>1368</v>
       </c>
       <c r="P89" s="61" t="s">
-        <v>1580</v>
+        <v>1369</v>
       </c>
       <c r="Q89" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R89" s="61" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="S89" s="20"/>
       <c r="V89" s="7"/>
@@ -12666,40 +11710,42 @@
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
       <c r="D92" s="60" t="s">
-        <v>1595</v>
+        <v>1376</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>1343</v>
+        <v>1237</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>1343</v>
+        <v>1237</v>
       </c>
       <c r="G92" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H92" s="60" t="s">
-        <v>1330</v>
+        <v>1519</v>
       </c>
       <c r="I92" s="60" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="J92" s="60"/>
       <c r="K92" s="60" t="s">
-        <v>603</v>
+        <v>1377</v>
       </c>
       <c r="L92" s="60" t="s">
-        <v>603</v>
+        <v>339</v>
       </c>
       <c r="M92" s="60" t="s">
-        <v>778</v>
+        <v>339</v>
       </c>
       <c r="N92" s="60" t="s">
-        <v>1597</v>
+        <v>1534</v>
       </c>
       <c r="O92" s="60" t="s">
-        <v>1598</v>
-      </c>
-      <c r="P92" s="60"/>
+        <v>477</v>
+      </c>
+      <c r="P92" s="60" t="s">
+        <v>1535</v>
+      </c>
       <c r="Q92" s="60"/>
       <c r="R92" s="60"/>
       <c r="S92" s="18"/>
@@ -12711,46 +11757,46 @@
         <v>23</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>1589</v>
+        <v>1370</v>
       </c>
       <c r="E93" s="61" t="s">
-        <v>1337</v>
+        <v>1234</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>1337</v>
+        <v>1234</v>
       </c>
       <c r="G93" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H93" s="61" t="s">
-        <v>1590</v>
+        <v>1371</v>
       </c>
       <c r="I93" s="61" t="s">
-        <v>1591</v>
+        <v>1372</v>
       </c>
       <c r="J93" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K93" s="61" t="s">
-        <v>1592</v>
+        <v>1373</v>
       </c>
       <c r="L93" s="61" t="s">
-        <v>1593</v>
+        <v>1374</v>
       </c>
       <c r="M93" s="61" t="s">
-        <v>1593</v>
+        <v>1374</v>
       </c>
       <c r="N93" s="61" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="O93" s="61" t="s">
-        <v>1594</v>
+        <v>1375</v>
       </c>
       <c r="P93" s="61" t="s">
-        <v>1448</v>
+        <v>1297</v>
       </c>
       <c r="Q93" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R93" s="61"/>
       <c r="S93" s="20"/>
@@ -12799,41 +11845,41 @@
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
       <c r="D96" s="60" t="s">
-        <v>1608</v>
+        <v>1381</v>
       </c>
       <c r="E96" s="60" t="s">
-        <v>1609</v>
+        <v>1464</v>
       </c>
       <c r="F96" s="60" t="s">
-        <v>1610</v>
+        <v>1465</v>
       </c>
       <c r="G96" s="60" t="s">
-        <v>1270</v>
+        <v>1497</v>
       </c>
       <c r="H96" s="60" t="s">
-        <v>1611</v>
+        <v>1382</v>
       </c>
       <c r="I96" s="60" t="s">
-        <v>1460</v>
+        <v>1567</v>
       </c>
       <c r="J96" s="60"/>
       <c r="K96" s="60" t="s">
-        <v>1612</v>
+        <v>1383</v>
       </c>
       <c r="L96" s="60" t="s">
-        <v>1613</v>
+        <v>1400</v>
       </c>
       <c r="M96" s="60" t="s">
-        <v>1614</v>
+        <v>1466</v>
       </c>
       <c r="N96" s="60" t="s">
-        <v>1270</v>
+        <v>1497</v>
       </c>
       <c r="O96" s="60" t="s">
-        <v>1256</v>
+        <v>1190</v>
       </c>
       <c r="P96" s="60" t="s">
-        <v>1615</v>
+        <v>1478</v>
       </c>
       <c r="Q96" s="60"/>
       <c r="R96" s="60"/>
@@ -12846,46 +11892,46 @@
         <v>24</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>1599</v>
+        <v>1378</v>
       </c>
       <c r="E97" s="61" t="s">
-        <v>1600</v>
+        <v>134</v>
       </c>
       <c r="F97" s="61" t="s">
-        <v>1601</v>
+        <v>156</v>
       </c>
       <c r="G97" s="61" t="s">
-        <v>1262</v>
+        <v>108</v>
       </c>
       <c r="H97" s="61" t="s">
-        <v>1602</v>
+        <v>158</v>
       </c>
       <c r="I97" s="61" t="s">
-        <v>1450</v>
+        <v>285</v>
       </c>
       <c r="J97" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K97" s="61" t="s">
-        <v>1603</v>
+        <v>22</v>
       </c>
       <c r="L97" s="61" t="s">
-        <v>1604</v>
+        <v>297</v>
       </c>
       <c r="M97" s="61" t="s">
-        <v>1605</v>
+        <v>1379</v>
       </c>
       <c r="N97" s="61" t="s">
-        <v>1262</v>
+        <v>108</v>
       </c>
       <c r="O97" s="61" t="s">
-        <v>1606</v>
+        <v>185</v>
       </c>
       <c r="P97" s="61" t="s">
-        <v>1607</v>
+        <v>1380</v>
       </c>
       <c r="Q97" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R97" s="61"/>
       <c r="S97" s="20"/>
@@ -12934,35 +11980,35 @@
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
       <c r="D100" s="60" t="s">
-        <v>1620</v>
+        <v>1387</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="F100" s="60" t="s">
-        <v>1621</v>
+        <v>1485</v>
       </c>
       <c r="G100" s="60"/>
       <c r="H100" s="60" t="s">
-        <v>1622</v>
+        <v>1582</v>
       </c>
       <c r="I100" s="60" t="s">
-        <v>1256</v>
+        <v>1190</v>
       </c>
       <c r="J100" s="60" t="s">
-        <v>1341</v>
+        <v>1539</v>
       </c>
       <c r="K100" s="60" t="s">
-        <v>1623</v>
+        <v>1467</v>
       </c>
       <c r="L100" s="60" t="s">
-        <v>1516</v>
+        <v>1334</v>
       </c>
       <c r="M100" s="60" t="s">
-        <v>1624</v>
+        <v>1583</v>
       </c>
       <c r="N100" s="60" t="s">
-        <v>1460</v>
+        <v>1567</v>
       </c>
       <c r="O100" s="60"/>
       <c r="P100" s="60"/>
@@ -12977,40 +12023,40 @@
         <v>25</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>1260</v>
+        <v>1194</v>
       </c>
       <c r="E101" s="61" t="s">
-        <v>1616</v>
+        <v>142</v>
       </c>
       <c r="F101" s="61" t="s">
-        <v>1547</v>
+        <v>160</v>
       </c>
       <c r="G101" s="61" t="s">
-        <v>1222</v>
+        <v>267</v>
       </c>
       <c r="H101" s="61" t="s">
-        <v>1617</v>
+        <v>1384</v>
       </c>
       <c r="I101" s="61" t="s">
-        <v>1242</v>
+        <v>182</v>
       </c>
       <c r="J101" s="61" t="s">
-        <v>1335</v>
+        <v>1232</v>
       </c>
       <c r="K101" s="61" t="s">
-        <v>1618</v>
+        <v>1385</v>
       </c>
       <c r="L101" s="61" t="s">
-        <v>1508</v>
+        <v>1328</v>
       </c>
       <c r="M101" s="61" t="s">
-        <v>1619</v>
+        <v>1386</v>
       </c>
       <c r="N101" s="61" t="s">
-        <v>1450</v>
+        <v>285</v>
       </c>
       <c r="O101" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="P101" s="61"/>
       <c r="Q101" s="61"/>
@@ -13061,47 +12107,47 @@
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
       <c r="D104" s="60" t="s">
-        <v>1632</v>
+        <v>1394</v>
       </c>
       <c r="E104" s="60" t="s">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="F104" s="60" t="s">
-        <v>1633</v>
+        <v>1584</v>
       </c>
       <c r="G104" s="60" t="s">
-        <v>1254</v>
+        <v>1189</v>
       </c>
       <c r="H104" s="60" t="s">
-        <v>1634</v>
+        <v>1585</v>
       </c>
       <c r="I104" s="60" t="s">
-        <v>1635</v>
+        <v>1586</v>
       </c>
       <c r="J104" s="60" t="s">
-        <v>1458</v>
+        <v>1566</v>
       </c>
       <c r="K104" s="60"/>
       <c r="L104" s="60" t="s">
-        <v>1235</v>
+        <v>1180</v>
       </c>
       <c r="M104" s="60" t="s">
-        <v>1636</v>
+        <v>1587</v>
       </c>
       <c r="N104" s="60" t="s">
-        <v>1637</v>
+        <v>1468</v>
       </c>
       <c r="O104" s="60" t="s">
-        <v>1637</v>
+        <v>1468</v>
       </c>
       <c r="P104" s="60" t="s">
-        <v>1638</v>
+        <v>1532</v>
       </c>
       <c r="Q104" s="60" t="s">
-        <v>1235</v>
+        <v>1180</v>
       </c>
       <c r="R104" s="60" t="s">
-        <v>1270</v>
+        <v>1497</v>
       </c>
       <c r="S104" s="18"/>
       <c r="V104" s="7"/>
@@ -13112,52 +12158,52 @@
         <v>26</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>1625</v>
+        <v>1388</v>
       </c>
       <c r="E105" s="61" t="s">
-        <v>1228</v>
+        <v>168</v>
       </c>
       <c r="F105" s="61" t="s">
-        <v>1626</v>
+        <v>1389</v>
       </c>
       <c r="G105" s="61" t="s">
-        <v>1240</v>
+        <v>253</v>
       </c>
       <c r="H105" s="61" t="s">
-        <v>1627</v>
+        <v>1390</v>
       </c>
       <c r="I105" s="61" t="s">
-        <v>1219</v>
+        <v>199</v>
       </c>
       <c r="J105" s="61" t="s">
-        <v>1628</v>
+        <v>1391</v>
       </c>
       <c r="K105" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="L105" s="61" t="s">
-        <v>1227</v>
+        <v>1176</v>
       </c>
       <c r="M105" s="61" t="s">
-        <v>1241</v>
+        <v>273</v>
       </c>
       <c r="N105" s="61" t="s">
-        <v>1629</v>
+        <v>1392</v>
       </c>
       <c r="O105" s="61" t="s">
-        <v>1629</v>
+        <v>1392</v>
       </c>
       <c r="P105" s="61" t="s">
-        <v>1630</v>
+        <v>1393</v>
       </c>
       <c r="Q105" s="61" t="s">
-        <v>1631</v>
+        <v>252</v>
       </c>
       <c r="R105" s="61" t="s">
-        <v>1262</v>
+        <v>108</v>
       </c>
       <c r="S105" s="20" t="s">
-        <v>1171</v>
+        <v>1428</v>
       </c>
       <c r="V105" s="7"/>
     </row>
@@ -13204,35 +12250,35 @@
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
       <c r="D108" s="60" t="s">
-        <v>1645</v>
+        <v>1588</v>
       </c>
       <c r="E108" s="60" t="s">
-        <v>1646</v>
+        <v>1589</v>
       </c>
       <c r="F108" s="60" t="s">
-        <v>1479</v>
+        <v>1312</v>
       </c>
       <c r="G108" s="60" t="s">
-        <v>1613</v>
+        <v>1400</v>
       </c>
       <c r="H108" s="60" t="s">
-        <v>1647</v>
+        <v>1486</v>
       </c>
       <c r="I108" s="60"/>
       <c r="J108" s="60" t="s">
-        <v>1648</v>
+        <v>1469</v>
       </c>
       <c r="K108" s="60" t="s">
-        <v>1649</v>
+        <v>1470</v>
       </c>
       <c r="L108" s="60" t="s">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="M108" s="60" t="s">
-        <v>1272</v>
+        <v>1201</v>
       </c>
       <c r="N108" s="60" t="s">
-        <v>1288</v>
+        <v>1543</v>
       </c>
       <c r="O108" s="60"/>
       <c r="P108" s="60"/>
@@ -13247,40 +12293,40 @@
         <v>27</v>
       </c>
       <c r="D109" s="61" t="s">
-        <v>1639</v>
+        <v>1395</v>
       </c>
       <c r="E109" s="61" t="s">
-        <v>1640</v>
+        <v>1396</v>
       </c>
       <c r="F109" s="61" t="s">
-        <v>1283</v>
+        <v>1209</v>
       </c>
       <c r="G109" s="61" t="s">
-        <v>1604</v>
+        <v>297</v>
       </c>
       <c r="H109" s="61" t="s">
-        <v>1641</v>
+        <v>1397</v>
       </c>
       <c r="I109" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="J109" s="61" t="s">
-        <v>1642</v>
+        <v>1398</v>
       </c>
       <c r="K109" s="61" t="s">
-        <v>1643</v>
+        <v>202</v>
       </c>
       <c r="L109" s="61" t="s">
-        <v>1228</v>
+        <v>168</v>
       </c>
       <c r="M109" s="61" t="s">
-        <v>1266</v>
+        <v>1198</v>
       </c>
       <c r="N109" s="61" t="s">
-        <v>1644</v>
+        <v>1399</v>
       </c>
       <c r="O109" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="P109" s="61"/>
       <c r="Q109" s="61"/>
@@ -13331,41 +12377,41 @@
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
       <c r="D112" s="60" t="s">
-        <v>1657</v>
+        <v>1407</v>
       </c>
       <c r="E112" s="60" t="s">
-        <v>1658</v>
+        <v>1471</v>
       </c>
       <c r="F112" s="60" t="s">
-        <v>1328</v>
+        <v>1549</v>
       </c>
       <c r="G112" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H112" s="60" t="s">
-        <v>1570</v>
+        <v>1408</v>
       </c>
       <c r="I112" s="60" t="s">
-        <v>1269</v>
+        <v>1432</v>
       </c>
       <c r="J112" s="60"/>
       <c r="K112" s="60" t="s">
-        <v>1568</v>
+        <v>1579</v>
       </c>
       <c r="L112" s="60" t="s">
-        <v>1659</v>
+        <v>1409</v>
       </c>
       <c r="M112" s="60" t="s">
-        <v>1660</v>
+        <v>1410</v>
       </c>
       <c r="N112" s="60" t="s">
-        <v>1258</v>
+        <v>1542</v>
       </c>
       <c r="O112" s="60" t="s">
-        <v>1661</v>
+        <v>1590</v>
       </c>
       <c r="P112" s="60" t="s">
-        <v>1358</v>
+        <v>1552</v>
       </c>
       <c r="Q112" s="60"/>
       <c r="R112" s="60"/>
@@ -13378,46 +12424,46 @@
         <v>28</v>
       </c>
       <c r="D113" s="63" t="s">
-        <v>1650</v>
+        <v>201</v>
       </c>
       <c r="E113" s="63" t="s">
-        <v>1651</v>
+        <v>1401</v>
       </c>
       <c r="F113" s="63" t="s">
-        <v>1652</v>
+        <v>1402</v>
       </c>
       <c r="G113" s="63" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H113" s="63" t="s">
-        <v>1484</v>
+        <v>1315</v>
       </c>
       <c r="I113" s="63" t="s">
-        <v>1261</v>
+        <v>1195</v>
       </c>
       <c r="J113" s="63" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K113" s="63" t="s">
-        <v>1559</v>
+        <v>236</v>
       </c>
       <c r="L113" s="63" t="s">
-        <v>1653</v>
+        <v>1403</v>
       </c>
       <c r="M113" s="63" t="s">
-        <v>1654</v>
+        <v>1404</v>
       </c>
       <c r="N113" s="63" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="O113" s="63" t="s">
-        <v>1655</v>
+        <v>1405</v>
       </c>
       <c r="P113" s="63" t="s">
-        <v>1656</v>
+        <v>1406</v>
       </c>
       <c r="Q113" s="63" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="R113" s="63"/>
       <c r="S113" s="20"/>
@@ -13466,41 +12512,41 @@
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
       <c r="D116" s="60" t="s">
-        <v>1671</v>
+        <v>1415</v>
       </c>
       <c r="E116" s="60" t="s">
-        <v>1672</v>
+        <v>1472</v>
       </c>
       <c r="F116" s="60" t="s">
-        <v>1490</v>
+        <v>1451</v>
       </c>
       <c r="G116" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H116" s="60" t="s">
-        <v>1673</v>
+        <v>1473</v>
       </c>
       <c r="I116" s="60" t="s">
-        <v>1674</v>
+        <v>1495</v>
       </c>
       <c r="J116" s="60"/>
       <c r="K116" s="60" t="s">
-        <v>1675</v>
+        <v>1591</v>
       </c>
       <c r="L116" s="60" t="s">
-        <v>1676</v>
+        <v>1518</v>
       </c>
       <c r="M116" s="60" t="s">
-        <v>1458</v>
+        <v>1566</v>
       </c>
       <c r="N116" s="60" t="s">
-        <v>1258</v>
+        <v>1542</v>
       </c>
       <c r="O116" s="60" t="s">
-        <v>1677</v>
+        <v>1592</v>
       </c>
       <c r="P116" s="60" t="s">
-        <v>1678</v>
+        <v>1475</v>
       </c>
       <c r="Q116" s="60"/>
       <c r="R116" s="60"/>
@@ -13513,46 +12559,46 @@
         <v>29</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>1662</v>
+        <v>197</v>
       </c>
       <c r="E117" s="61" t="s">
-        <v>1663</v>
+        <v>1411</v>
       </c>
       <c r="F117" s="61" t="s">
-        <v>1664</v>
+        <v>1412</v>
       </c>
       <c r="G117" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H117" s="61" t="s">
-        <v>1665</v>
+        <v>1413</v>
       </c>
       <c r="I117" s="61" t="s">
-        <v>1666</v>
+        <v>194</v>
       </c>
       <c r="J117" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K117" s="61" t="s">
-        <v>1667</v>
+        <v>263</v>
       </c>
       <c r="L117" s="61" t="s">
-        <v>1668</v>
+        <v>1414</v>
       </c>
       <c r="M117" s="61" t="s">
-        <v>1448</v>
+        <v>1297</v>
       </c>
       <c r="N117" s="61" t="s">
-        <v>1248</v>
+        <v>210</v>
       </c>
       <c r="O117" s="61" t="s">
-        <v>1669</v>
+        <v>101</v>
       </c>
       <c r="P117" s="61" t="s">
-        <v>1670</v>
+        <v>100</v>
       </c>
       <c r="Q117" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="R117" s="61"/>
       <c r="S117" s="20"/>
@@ -13601,44 +12647,44 @@
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
       <c r="D120" s="60" t="s">
-        <v>1685</v>
+        <v>1421</v>
       </c>
       <c r="E120" s="60" t="s">
-        <v>1686</v>
+        <v>1422</v>
       </c>
       <c r="F120" s="60" t="s">
-        <v>1687</v>
+        <v>1423</v>
       </c>
       <c r="G120" s="60" t="s">
-        <v>1253</v>
+        <v>1539</v>
       </c>
       <c r="H120" s="60" t="s">
-        <v>1688</v>
+        <v>1424</v>
       </c>
       <c r="I120" s="60" t="s">
-        <v>1689</v>
+        <v>1593</v>
       </c>
       <c r="J120" s="60"/>
       <c r="K120" s="60" t="s">
-        <v>1535</v>
+        <v>1346</v>
       </c>
       <c r="L120" s="60" t="s">
-        <v>1324</v>
+        <v>1425</v>
       </c>
       <c r="M120" s="60" t="s">
-        <v>1690</v>
+        <v>1474</v>
       </c>
       <c r="N120" s="60" t="s">
-        <v>1565</v>
+        <v>1360</v>
       </c>
       <c r="O120" s="60" t="s">
-        <v>1516</v>
+        <v>1334</v>
       </c>
       <c r="P120" s="60" t="s">
-        <v>1691</v>
+        <v>1426</v>
       </c>
       <c r="Q120" s="60" t="s">
-        <v>1692</v>
+        <v>1594</v>
       </c>
       <c r="R120" s="60"/>
       <c r="S120" s="18"/>
@@ -13650,49 +12696,49 @@
         <v>30</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>1679</v>
+        <v>1416</v>
       </c>
       <c r="E121" s="61" t="s">
-        <v>1680</v>
+        <v>1417</v>
       </c>
       <c r="F121" s="61" t="s">
-        <v>1681</v>
+        <v>1418</v>
       </c>
       <c r="G121" s="61" t="s">
-        <v>1239</v>
+        <v>106</v>
       </c>
       <c r="H121" s="61" t="s">
-        <v>1218</v>
+        <v>299</v>
       </c>
       <c r="I121" s="61" t="s">
-        <v>1682</v>
+        <v>1419</v>
       </c>
       <c r="J121" s="61" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
       <c r="K121" s="61" t="s">
-        <v>1526</v>
+        <v>251</v>
       </c>
       <c r="L121" s="61" t="s">
-        <v>1314</v>
+        <v>110</v>
       </c>
       <c r="M121" s="61" t="s">
-        <v>1683</v>
+        <v>218</v>
       </c>
       <c r="N121" s="61" t="s">
-        <v>1560</v>
+        <v>1355</v>
       </c>
       <c r="O121" s="61" t="s">
-        <v>1508</v>
+        <v>1328</v>
       </c>
       <c r="P121" s="61" t="s">
-        <v>1245</v>
+        <v>1185</v>
       </c>
       <c r="Q121" s="61" t="s">
-        <v>1684</v>
+        <v>1420</v>
       </c>
       <c r="R121" s="61" t="s">
-        <v>1284</v>
+        <v>30</v>
       </c>
       <c r="S121" s="20"/>
       <c r="V121" s="7"/>
@@ -21289,7 +20335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -21458,7 +20504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -25521,7 +24567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V242"/>
   <sheetViews>

--- a/output7/【河洛文讀注音-閩拼調號】《歸去來辭》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《歸去來辭》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D474FFAE-F7E6-430F-A312-F55E186C2E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E111108A-B670-40A5-9253-1549F913EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1544">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4000,43 +4000,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4097,1628 +4061,1310 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>實</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phio5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ging5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siunn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ke5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ki3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ngoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gua2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ka3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tau3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ting1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ziu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hng5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjAYyXKzS3-hTmoA6Gwht0i0BYU2y91JyQ6g4NFnLaUSDpon8FNA5arPpsxuLowxOVbE3N5PGPSv3yDbXUKYJUn6BE0jXdD8KefKAz91DfWggZRMSAGm9HgBS2IWzdjiu1_UkaU9Kny6UuTOn3L4HQFtZB33RS3vAPxNrYWsjcomRZXf-bKrBziwZ8Us-M/s320/%E6%AD%B8%E5%8E%BB%E4%BE%86%E5%85%AE%E8%BE%AD.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歸去來辭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tai_Gi_Zu_Im_Bun.xlsx</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河洛話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閩拼調號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無預設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上及右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅俗通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方音符號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>兮</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>將</t>
+  </si>
+  <si>
+    <t>蕪</t>
+  </si>
+  <si>
+    <t>胡</t>
+  </si>
+  <si>
     <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役</t>
+  </si>
+  <si>
+    <t>奚</t>
+  </si>
+  <si>
+    <t>惆</t>
+  </si>
+  <si>
+    <t>悵</t>
+  </si>
+  <si>
+    <t>獨</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>諫</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>追</t>
   </si>
   <si>
     <t>迷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>昨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>輕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>揚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>飄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phio5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>恨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>熹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瞻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>載</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>僕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>歡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>迎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>稚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ging5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>荒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>猶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>幼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>樽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>壺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>觴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>酌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>眄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>柯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>顏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siunn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>傲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>審</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>膝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>涉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>趣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>憩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>矯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ke5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>役</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ki3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ngoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>岫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鳥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>倦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>飛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>還</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>翳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>撫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>孤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>King2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>請</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>絕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>與</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>複</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>駕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>焉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>親</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>戚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>書</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>憂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>餘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>及</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>疇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>棹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>窈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>窕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>壑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>崎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嶇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>經</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>榮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>涓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>內</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>幾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>委</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>欲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>貴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>東</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>舒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ting1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>疑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hng5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjAYyXKzS3-hTmoA6Gwht0i0BYU2y91JyQ6g4NFnLaUSDpon8FNA5arPpsxuLowxOVbE3N5PGPSv3yDbXUKYJUn6BE0jXdD8KefKAz91DfWggZRMSAGm9HgBS2IWzdjiu1_UkaU9Kny6UuTOn3L4HQFtZB33RS3vAPxNrYWsjcomRZXf-bKrBziwZ8Us-M/s320/%E6%AD%B8%E5%8E%BB%E4%BE%86%E5%85%AE%E8%BE%AD.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歸去來辭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tai_Gi_Zu_Im_Bun.xlsx</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河洛話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閩拼調號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無預設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上及右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅俗通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方音符號</t>
+  </si>
+  <si>
+    <t>φ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>歸去來兮！田園將蕪胡不歸？
-既自以心為形役，奚惆悵而獨悲？
-悟已往之不諫，知來者之可追；
+既自以心為形役，奚惆悵而獨悲？悟已往之不諫，知來者之可追；
 實迷途其未遠，覺今是而昨非。
 舟遙遙以輕揚，風飄飄而吹衣。
 問征夫以前路，恨晨光之熹微。
@@ -5735,13 +5381,17 @@
 歸去來兮！請息交以絕遊。
 世與我而相遺，複駕言兮焉求？
 悅親戚之情話，樂琴書以消憂。
-農人告餘以春及，將有事乎西疇。
-或命巾車，或棹孤舟。
+農人告餘以春及，將有事乎西疇。或命巾車，或棹孤舟。
 既窈窕以尋壑，亦崎嶇而經丘。
 木欣欣以向榮，泉涓涓而始流。
 羨萬物之得時，感吾生之行休。
 已矣乎！寓形宇內複幾時，
-曷不委心任去留，胡為遑遑欲何之？</t>
+曷不委心任去留，胡為遑遑欲何之？
+富貴非吾願，帝鄉不可期。
+懷良辰以孤往，或植杖而耘耔，
+登東臯以舒嘯，臨清流而賦詩。
+聊乘化以歸盡，樂夫天命複奚疑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6333,6 +5983,9 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -6347,9 +6000,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8759,8 +8409,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -8806,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1581</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -8814,7 +8464,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1580</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8822,7 +8472,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1579</v>
+        <v>1357</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -8846,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>1582</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8886,7 +8536,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>1583</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
@@ -8894,7 +8544,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1584</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -8902,7 +8552,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>1585</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -8910,7 +8560,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1586</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -8918,7 +8568,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1587</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -8926,7 +8576,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1588</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -8970,8 +8620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -9001,9 +8651,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D1" s="37">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="D1" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="E1" s="37">
         <f t="shared" si="0"/>
@@ -9081,36 +8730,36 @@
       <c r="S2" s="9"/>
       <c r="V2" s="10">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>368</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="14" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="52" t="s">
-        <v>1323</v>
+        <v>1221</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>599</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52" t="s">
-        <v>1330</v>
+        <v>1228</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>748</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>1551</v>
+        <v>1329</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>1331</v>
+        <v>1229</v>
       </c>
       <c r="M3" s="52" t="s">
         <v>543</v>
@@ -9119,14 +8768,14 @@
         <v>704</v>
       </c>
       <c r="O3" s="52" t="s">
-        <v>1332</v>
+        <v>1230</v>
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="15"/>
-      <c r="V3" s="57" t="s">
-        <v>1589</v>
+      <c r="V3" s="58" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -9147,7 +8796,7 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="17"/>
-      <c r="V4" s="58"/>
+      <c r="V4" s="59"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="18">
@@ -9157,40 +8806,40 @@
         <v>1163</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>1164</v>
+        <v>199</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>1165</v>
+        <v>1367</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1166</v>
+        <v>1368</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>1167</v>
+        <v>267</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>1168</v>
+        <v>1369</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>1169</v>
+        <v>1370</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>1170</v>
+        <v>1371</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>1171</v>
+        <v>1372</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>1172</v>
+        <v>1373</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>1173</v>
+        <v>168</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>1163</v>
+        <v>299</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>1162</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="38" t="str">
         <f>CHAR(10)</f>
@@ -9198,8 +8847,12 @@
 </v>
       </c>
       <c r="R5" s="38"/>
-      <c r="S5" s="19"/>
-      <c r="V5" s="58"/>
+      <c r="S5" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="20"/>
@@ -9220,16 +8873,16 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
       <c r="S6" s="22"/>
-      <c r="V6" s="58"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="52" t="s">
-        <v>1343</v>
+        <v>1232</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>1552</v>
+        <v>1330</v>
       </c>
       <c r="F7" s="52" t="s">
         <v>597</v>
@@ -9248,26 +8901,26 @@
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52" t="s">
-        <v>1344</v>
+        <v>1233</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>1345</v>
+        <v>1234</v>
       </c>
       <c r="N7" s="52" t="s">
-        <v>1346</v>
+        <v>1235</v>
       </c>
       <c r="O7" s="52" t="s">
         <v>878</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>1347</v>
+        <v>1236</v>
       </c>
       <c r="Q7" s="52" t="s">
         <v>780</v>
       </c>
       <c r="R7" s="52"/>
       <c r="S7" s="26"/>
-      <c r="V7" s="58"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="16"/>
@@ -9287,7 +8940,7 @@
       <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
       <c r="S8" s="17"/>
-      <c r="V8" s="58"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="18">
@@ -9295,53 +8948,57 @@
         <v>2</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1333</v>
+        <v>1231</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1184</v>
+        <v>1374</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1334</v>
+        <v>253</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>1335</v>
+        <v>273</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>1336</v>
+        <v>182</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>1337</v>
+        <v>1375</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>1338</v>
+        <v>1376</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>1339</v>
+        <v>1377</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>1340</v>
+        <v>1378</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>1341</v>
+        <v>1379</v>
       </c>
       <c r="Q9" s="38" t="s">
-        <v>1342</v>
+        <v>211</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>1162</v>
-      </c>
-      <c r="S9" s="19"/>
+        <v>161</v>
+      </c>
+      <c r="S9" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="T9" s="15"/>
-      <c r="V9" s="58"/>
+      <c r="V9" s="59"/>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="20"/>
@@ -9361,27 +9018,51 @@
       <c r="Q10" s="51"/>
       <c r="R10" s="51"/>
       <c r="S10" s="28"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" s="26" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>704</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>1241</v>
+      </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
+      <c r="K11" s="52" t="s">
+        <v>882</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>782</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>1242</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>1243</v>
+      </c>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="16"/>
@@ -9401,34 +9082,66 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="17"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="18">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="38" t="str">
+      <c r="D13" s="38" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>1384</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="19"/>
-      <c r="V13" s="58"/>
+      <c r="S13" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="20"/>
@@ -9448,51 +9161,51 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="28"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="59"/>
     </row>
     <row r="15" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="31"/>
       <c r="D15" s="52" t="s">
-        <v>1357</v>
+        <v>1244</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>597</v>
+        <v>1176</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>1358</v>
+        <v>1245</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>704</v>
+        <v>1177</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>1359</v>
+        <v>621</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="52" t="s">
-        <v>882</v>
+        <v>1178</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>782</v>
+        <v>896</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>601</v>
+        <v>878</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>1360</v>
+        <v>1331</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>1361</v>
+        <v>484</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="58"/>
+      <c r="V15" s="59"/>
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="16"/>
@@ -9512,7 +9225,7 @@
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
       <c r="S16" s="17"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="18">
@@ -9520,54 +9233,58 @@
         <v>4</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1348</v>
+        <v>1175</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1349</v>
+        <v>1386</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>1350</v>
+        <v>1387</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>1188</v>
+        <v>93</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>1173</v>
+        <v>1388</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>1351</v>
+        <v>118</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>1352</v>
+        <v>1389</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>1165</v>
+        <v>99</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>1353</v>
+        <v>33</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>1188</v>
+        <v>210</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>1354</v>
+        <v>1390</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>1355</v>
+        <v>1391</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>1356</v>
+        <v>30</v>
       </c>
       <c r="R17" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="S17" s="19"/>
-      <c r="V17" s="58"/>
+      <c r="S17" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="20"/>
@@ -9587,51 +9304,51 @@
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
       <c r="S18" s="28"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" s="31"/>
       <c r="D19" s="52" t="s">
-        <v>1362</v>
+        <v>1325</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>1363</v>
+        <v>1181</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>1202</v>
+        <v>734</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>621</v>
+        <v>1182</v>
       </c>
       <c r="J19" s="52"/>
       <c r="K19" s="52" t="s">
-        <v>1203</v>
+        <v>708</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>896</v>
+        <v>1183</v>
       </c>
       <c r="N19" s="52" t="s">
         <v>878</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>1553</v>
+        <v>738</v>
       </c>
       <c r="P19" s="52" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="59"/>
     </row>
     <row r="20" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="16"/>
@@ -9651,7 +9368,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="17"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="18">
@@ -9659,46 +9376,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1190</v>
+        <v>1393</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>1191</v>
+        <v>1393</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>1192</v>
+        <v>106</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>1193</v>
+        <v>1394</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>1194</v>
+        <v>1395</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>1195</v>
+        <v>170</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>1196</v>
+        <v>1396</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>1197</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>1198</v>
+        <v>1397</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>1199</v>
+        <v>1398</v>
       </c>
       <c r="Q21" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R21" s="38" t="str">
         <f>CHAR(10)</f>
@@ -9706,7 +9423,7 @@
 </v>
       </c>
       <c r="S21" s="19"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="59"/>
     </row>
     <row r="22" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="20"/>
@@ -9726,51 +9443,51 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="28"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="11"/>
       <c r="C23" s="31"/>
       <c r="D23" s="52" t="s">
-        <v>1547</v>
+        <v>1222</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>1213</v>
+        <v>565</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>1213</v>
+        <v>605</v>
       </c>
       <c r="G23" s="52" t="s">
         <v>597</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>734</v>
+        <v>691</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>1214</v>
+        <v>1246</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52" t="s">
-        <v>708</v>
+        <v>1185</v>
       </c>
       <c r="L23" s="52" t="s">
-        <v>1215</v>
+        <v>850</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>1215</v>
+        <v>798</v>
       </c>
       <c r="N23" s="52" t="s">
-        <v>878</v>
+        <v>601</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>738</v>
+        <v>1186</v>
       </c>
       <c r="P23" s="52" t="s">
-        <v>497</v>
+        <v>912</v>
       </c>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
-      <c r="V23" s="58"/>
+      <c r="V23" s="59"/>
     </row>
     <row r="24" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="16"/>
@@ -9790,7 +9507,7 @@
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
       <c r="S24" s="17"/>
-      <c r="V24" s="58"/>
+      <c r="V24" s="59"/>
     </row>
     <row r="25" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="18">
@@ -9798,46 +9515,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>1206</v>
+        <v>1399</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>1206</v>
+        <v>110</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>1207</v>
+        <v>139</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>1208</v>
+        <v>1400</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>1209</v>
+        <v>1401</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>1210</v>
+        <v>1402</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>1210</v>
+        <v>219</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>1187</v>
+        <v>108</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>1211</v>
+        <v>1403</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>1212</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R25" s="38" t="str">
         <f>CHAR(10)</f>
@@ -9845,7 +9562,7 @@
 </v>
       </c>
       <c r="S25" s="19"/>
-      <c r="V25" s="58"/>
+      <c r="V25" s="59"/>
     </row>
     <row r="26" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="20"/>
@@ -9865,55 +9582,47 @@
       <c r="Q26" s="51"/>
       <c r="R26" s="51"/>
       <c r="S26" s="28"/>
-      <c r="V26" s="58"/>
+      <c r="V26" s="59"/>
     </row>
     <row r="27" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="11"/>
       <c r="C27" s="31"/>
       <c r="D27" s="52" t="s">
-        <v>1324</v>
+        <v>1223</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>565</v>
+        <v>1327</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>691</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="H27" s="52"/>
       <c r="I27" s="52" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J27" s="52"/>
+        <v>1332</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>1188</v>
+      </c>
       <c r="K27" s="52" t="s">
-        <v>1226</v>
+        <v>1332</v>
       </c>
       <c r="L27" s="52" t="s">
-        <v>850</v>
-      </c>
-      <c r="M27" s="52" t="s">
-        <v>798</v>
-      </c>
-      <c r="N27" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="O27" s="52" t="s">
-        <v>1227</v>
-      </c>
-      <c r="P27" s="52" t="s">
-        <v>912</v>
-      </c>
+        <v>1189</v>
+      </c>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="U27" s="32" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="58"/>
+      <c r="V27" s="59"/>
     </row>
     <row r="28" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="16"/>
@@ -9937,7 +9646,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="58"/>
+      <c r="V28" s="59"/>
     </row>
     <row r="29" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="18">
@@ -9945,58 +9654,50 @@
         <v>7</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>1216</v>
+        <v>1187</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>1217</v>
+        <v>1404</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>1218</v>
+        <v>1405</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1185</v>
+        <v>1406</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>1219</v>
+        <v>23</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>1220</v>
+        <v>1407</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>1186</v>
+        <v>1408</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>1221</v>
+        <v>1407</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>1222</v>
+        <v>1409</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N29" s="38" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O29" s="38" t="s">
-        <v>1224</v>
-      </c>
-      <c r="P29" s="38" t="s">
-        <v>1225</v>
-      </c>
-      <c r="Q29" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R29" s="38" t="str">
+        <v>30</v>
+      </c>
+      <c r="N29" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
       <c r="S29" s="19"/>
       <c r="U29" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="58"/>
+      <c r="V29" s="59"/>
     </row>
     <row r="30" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="20"/>
@@ -10020,35 +9721,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="58"/>
+      <c r="V30" s="59"/>
     </row>
     <row r="31" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="11"/>
       <c r="C31" s="31"/>
       <c r="D31" s="52" t="s">
-        <v>1325</v>
+        <v>1224</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>1549</v>
+        <v>740</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>633</v>
+        <v>1191</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>591</v>
+        <v>1192</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52" t="s">
-        <v>1554</v>
+        <v>1193</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>1235</v>
+        <v>519</v>
       </c>
       <c r="K31" s="52" t="s">
-        <v>1554</v>
+        <v>1194</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
@@ -10060,7 +9761,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="58"/>
+      <c r="V31" s="59"/>
     </row>
     <row r="32" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="16"/>
@@ -10084,7 +9785,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="58"/>
+      <c r="V32" s="59"/>
     </row>
     <row r="33" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="18">
@@ -10092,34 +9793,34 @@
         <v>8</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>1228</v>
+        <v>1190</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>1229</v>
+        <v>1410</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>1230</v>
+        <v>1411</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>1231</v>
+        <v>1412</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>1232</v>
+        <v>1413</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>1233</v>
+        <v>32</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>1232</v>
+        <v>1414</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>1234</v>
+        <v>1415</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="N33" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10131,7 +9832,7 @@
       <c r="Q33" s="38"/>
       <c r="R33" s="38"/>
       <c r="S33" s="19"/>
-      <c r="V33" s="58"/>
+      <c r="V33" s="59"/>
     </row>
     <row r="34" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="20"/>
@@ -10151,35 +9852,35 @@
       <c r="Q34" s="51"/>
       <c r="R34" s="51"/>
       <c r="S34" s="28"/>
-      <c r="V34" s="58"/>
+      <c r="V34" s="59"/>
     </row>
     <row r="35" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="52" t="s">
-        <v>1326</v>
+        <v>1225</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>740</v>
+        <v>1196</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>1245</v>
+        <v>1333</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>1246</v>
+        <v>708</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="52" t="s">
-        <v>1247</v>
+        <v>489</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>519</v>
+        <v>1197</v>
       </c>
       <c r="K35" s="52" t="s">
-        <v>1248</v>
+        <v>814</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>1365</v>
+        <v>1334</v>
       </c>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
@@ -10187,7 +9888,7 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="V35" s="58"/>
+      <c r="V35" s="59"/>
     </row>
     <row r="36" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="16"/>
@@ -10207,7 +9908,7 @@
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
       <c r="S36" s="17"/>
-      <c r="V36" s="58"/>
+      <c r="V36" s="59"/>
     </row>
     <row r="37" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="18">
@@ -10215,34 +9916,34 @@
         <v>9</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>1237</v>
+        <v>1195</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>1238</v>
+        <v>1416</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>1239</v>
+        <v>1417</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>1240</v>
+        <v>1418</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>1241</v>
+        <v>1419</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>1242</v>
+        <v>1420</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>1243</v>
+        <v>1421</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>1244</v>
+        <v>1422</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="N37" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10254,7 +9955,7 @@
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="19"/>
-      <c r="V37" s="58"/>
+      <c r="V37" s="59"/>
     </row>
     <row r="38" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="20"/>
@@ -10274,35 +9975,35 @@
       <c r="Q38" s="51"/>
       <c r="R38" s="51"/>
       <c r="S38" s="28"/>
-      <c r="V38" s="58"/>
+      <c r="V38" s="59"/>
     </row>
     <row r="39" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="11"/>
       <c r="C39" s="31"/>
       <c r="D39" s="52" t="s">
-        <v>1327</v>
+        <v>1226</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>1257</v>
+        <v>1199</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1555</v>
+        <v>1248</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>708</v>
+        <v>1200</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="52" t="s">
-        <v>489</v>
+        <v>1201</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>1258</v>
+        <v>862</v>
       </c>
       <c r="K39" s="52" t="s">
-        <v>814</v>
+        <v>1202</v>
       </c>
       <c r="L39" s="52" t="s">
-        <v>1556</v>
+        <v>1335</v>
       </c>
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
@@ -10310,7 +10011,7 @@
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52"/>
-      <c r="V39" s="58"/>
+      <c r="V39" s="59"/>
     </row>
     <row r="40" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="16"/>
@@ -10330,7 +10031,7 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="50"/>
       <c r="S40" s="17"/>
-      <c r="V40" s="58"/>
+      <c r="V40" s="59"/>
     </row>
     <row r="41" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="18">
@@ -10338,34 +10039,34 @@
         <v>10</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>1249</v>
+        <v>1198</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>1250</v>
+        <v>1423</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>1251</v>
+        <v>1424</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>1252</v>
+        <v>1425</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>1253</v>
+        <v>19</v>
       </c>
       <c r="J41" s="38" t="s">
-        <v>1254</v>
+        <v>262</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>1255</v>
+        <v>1426</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>1256</v>
+        <v>1427</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="N41" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10377,7 +10078,7 @@
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="19"/>
-      <c r="V41" s="58"/>
+      <c r="V41" s="59"/>
     </row>
     <row r="42" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="20"/>
@@ -10397,43 +10098,51 @@
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
       <c r="S42" s="28"/>
-      <c r="V42" s="58"/>
+      <c r="V42" s="59"/>
     </row>
     <row r="43" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="11"/>
       <c r="C43" s="31"/>
       <c r="D43" s="52" t="s">
-        <v>1328</v>
+        <v>1227</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>1267</v>
+        <v>543</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1366</v>
+        <v>1204</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H43" s="52"/>
+        <v>597</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>1330</v>
+      </c>
       <c r="I43" s="52" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J43" s="52" t="s">
-        <v>862</v>
-      </c>
+        <v>1336</v>
+      </c>
+      <c r="J43" s="52"/>
       <c r="K43" s="52" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="L43" s="52" t="s">
-        <v>1557</v>
-      </c>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
+        <v>517</v>
+      </c>
+      <c r="M43" s="52" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N43" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="O43" s="52" t="s">
+        <v>852</v>
+      </c>
+      <c r="P43" s="52" t="s">
+        <v>1206</v>
+      </c>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="V43" s="58"/>
+      <c r="V43" s="59"/>
     </row>
     <row r="44" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="16"/>
@@ -10453,7 +10162,7 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
       <c r="S44" s="17"/>
-      <c r="V44" s="58"/>
+      <c r="V44" s="59"/>
     </row>
     <row r="45" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="18">
@@ -10461,46 +10170,54 @@
         <v>11</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>1259</v>
+        <v>1203</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>1260</v>
+        <v>1428</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>1261</v>
+        <v>1429</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>1262</v>
+        <v>106</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>1186</v>
+        <v>1374</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>1263</v>
+        <v>1430</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>1264</v>
+        <v>23</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>1265</v>
+        <v>1431</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>1266</v>
+        <v>115</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="N45" s="38" t="str">
+        <v>1432</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
       <c r="S45" s="19"/>
-      <c r="V45" s="58"/>
+      <c r="V45" s="59"/>
     </row>
     <row r="46" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="20"/>
@@ -10520,51 +10237,51 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="51"/>
       <c r="S46" s="28"/>
-      <c r="V46" s="58"/>
+      <c r="V46" s="59"/>
     </row>
     <row r="47" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="11"/>
       <c r="C47" s="31"/>
       <c r="D47" s="52" t="s">
-        <v>1329</v>
+        <v>1250</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>543</v>
+        <v>671</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>1280</v>
+        <v>1328</v>
       </c>
       <c r="G47" s="52" t="s">
         <v>597</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>1552</v>
+        <v>599</v>
       </c>
       <c r="I47" s="52" t="s">
-        <v>1558</v>
+        <v>1208</v>
       </c>
       <c r="J47" s="52"/>
       <c r="K47" s="52" t="s">
-        <v>1367</v>
+        <v>1209</v>
       </c>
       <c r="L47" s="52" t="s">
-        <v>517</v>
+        <v>1182</v>
       </c>
       <c r="M47" s="52" t="s">
-        <v>1281</v>
+        <v>1210</v>
       </c>
       <c r="N47" s="52" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>852</v>
+        <v>900</v>
       </c>
       <c r="P47" s="52" t="s">
-        <v>1282</v>
+        <v>1211</v>
       </c>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
-      <c r="V47" s="58"/>
+      <c r="V47" s="59"/>
     </row>
     <row r="48" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="16"/>
@@ -10584,7 +10301,7 @@
       <c r="Q48" s="50"/>
       <c r="R48" s="50"/>
       <c r="S48" s="17"/>
-      <c r="V48" s="58"/>
+      <c r="V48" s="59"/>
     </row>
     <row r="49" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="18">
@@ -10592,46 +10309,46 @@
         <v>12</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>1271</v>
+        <v>1207</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>1272</v>
+        <v>147</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>1273</v>
+        <v>1434</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>1184</v>
+        <v>1435</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>1274</v>
+        <v>1436</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>1275</v>
+        <v>1437</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>1276</v>
+        <v>1438</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>1277</v>
+        <v>1439</v>
       </c>
       <c r="N49" s="38" t="s">
-        <v>1185</v>
+        <v>108</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>1278</v>
+        <v>1440</v>
       </c>
       <c r="P49" s="38" t="s">
-        <v>1279</v>
+        <v>1441</v>
       </c>
       <c r="Q49" s="38" t="s">
-        <v>1186</v>
+        <v>30</v>
       </c>
       <c r="R49" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10639,7 +10356,7 @@
 </v>
       </c>
       <c r="S49" s="19"/>
-      <c r="V49" s="58"/>
+      <c r="V49" s="59"/>
     </row>
     <row r="50" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="20"/>
@@ -10659,51 +10376,51 @@
       <c r="Q50" s="51"/>
       <c r="R50" s="51"/>
       <c r="S50" s="28"/>
-      <c r="V50" s="58"/>
+      <c r="V50" s="59"/>
     </row>
     <row r="51" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="11"/>
       <c r="C51" s="31"/>
       <c r="D51" s="52" t="s">
-        <v>1368</v>
+        <v>1337</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>1550</v>
+        <v>1251</v>
       </c>
       <c r="G51" s="52" t="s">
         <v>597</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>599</v>
+        <v>1338</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>1293</v>
+        <v>1339</v>
       </c>
       <c r="J51" s="52"/>
       <c r="K51" s="52" t="s">
-        <v>1294</v>
+        <v>1247</v>
       </c>
       <c r="L51" s="52" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M51" s="52" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N51" s="52" t="s">
+        <v>878</v>
+      </c>
+      <c r="O51" s="52" t="s">
+        <v>872</v>
+      </c>
+      <c r="P51" s="52" t="s">
         <v>1214</v>
-      </c>
-      <c r="M51" s="52" t="s">
-        <v>1295</v>
-      </c>
-      <c r="N51" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="O51" s="52" t="s">
-        <v>900</v>
-      </c>
-      <c r="P51" s="52" t="s">
-        <v>1296</v>
       </c>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="V51" s="58"/>
+      <c r="V51" s="59"/>
     </row>
     <row r="52" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="16"/>
@@ -10723,7 +10440,7 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
       <c r="S52" s="17"/>
-      <c r="V52" s="58"/>
+      <c r="V52" s="59"/>
     </row>
     <row r="53" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="18">
@@ -10731,46 +10448,46 @@
         <v>13</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>1283</v>
+        <v>1164</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>1284</v>
+        <v>20</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>1285</v>
+        <v>1442</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>1286</v>
+        <v>1443</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>1287</v>
+        <v>1444</v>
       </c>
       <c r="J53" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K53" s="38" t="s">
-        <v>1288</v>
+        <v>1415</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>1289</v>
+        <v>1445</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>1290</v>
+        <v>1446</v>
       </c>
       <c r="N53" s="38" t="s">
-        <v>1188</v>
+        <v>210</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>1291</v>
+        <v>1447</v>
       </c>
       <c r="P53" s="38" t="s">
-        <v>1292</v>
+        <v>1448</v>
       </c>
       <c r="Q53" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R53" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10778,7 +10495,7 @@
 </v>
       </c>
       <c r="S53" s="19"/>
-      <c r="V53" s="58"/>
+      <c r="V53" s="59"/>
     </row>
     <row r="54" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="20"/>
@@ -10798,51 +10515,51 @@
       <c r="Q54" s="51"/>
       <c r="R54" s="51"/>
       <c r="S54" s="28"/>
-      <c r="V54" s="58"/>
+      <c r="V54" s="59"/>
     </row>
     <row r="55" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="11"/>
       <c r="C55" s="31"/>
       <c r="D55" s="52" t="s">
-        <v>1559</v>
+        <v>1340</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>720</v>
+        <v>1216</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>1369</v>
+        <v>1217</v>
       </c>
       <c r="G55" s="52" t="s">
         <v>597</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>1560</v>
+        <v>1218</v>
       </c>
       <c r="I55" s="52" t="s">
-        <v>1561</v>
+        <v>1219</v>
       </c>
       <c r="J55" s="52"/>
       <c r="K55" s="52" t="s">
-        <v>1365</v>
+        <v>904</v>
       </c>
       <c r="L55" s="52" t="s">
-        <v>1305</v>
+        <v>1252</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>1306</v>
+        <v>525</v>
       </c>
       <c r="N55" s="52" t="s">
         <v>878</v>
       </c>
       <c r="O55" s="52" t="s">
-        <v>872</v>
+        <v>1220</v>
       </c>
       <c r="P55" s="52" t="s">
-        <v>1307</v>
+        <v>603</v>
       </c>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="V55" s="58"/>
+      <c r="V55" s="59"/>
     </row>
     <row r="56" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="16"/>
@@ -10862,7 +10579,7 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
       <c r="S56" s="17"/>
-      <c r="V56" s="58"/>
+      <c r="V56" s="59"/>
     </row>
     <row r="57" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="18">
@@ -10870,46 +10587,46 @@
         <v>14</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>1169</v>
+        <v>1215</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>1297</v>
+        <v>1449</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>1298</v>
+        <v>1450</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>1299</v>
+        <v>1451</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>1300</v>
+        <v>1452</v>
       </c>
       <c r="J57" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>1244</v>
+        <v>285</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>1301</v>
+        <v>1453</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>1302</v>
+        <v>1454</v>
       </c>
       <c r="N57" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>1303</v>
+        <v>1455</v>
       </c>
       <c r="P57" s="38" t="s">
-        <v>1304</v>
+        <v>109</v>
       </c>
       <c r="Q57" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R57" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10917,7 +10634,7 @@
 </v>
       </c>
       <c r="S57" s="19"/>
-      <c r="V57" s="58"/>
+      <c r="V57" s="59"/>
     </row>
     <row r="58" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="20"/>
@@ -10937,51 +10654,51 @@
       <c r="Q58" s="51"/>
       <c r="R58" s="51"/>
       <c r="S58" s="28"/>
-      <c r="V58" s="58"/>
+      <c r="V58" s="59"/>
     </row>
     <row r="59" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="11"/>
       <c r="C59" s="31"/>
       <c r="D59" s="52" t="s">
-        <v>1562</v>
+        <v>1254</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>1318</v>
+        <v>1255</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>1319</v>
+        <v>846</v>
       </c>
       <c r="G59" s="52" t="s">
         <v>597</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>1320</v>
+        <v>1341</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>1321</v>
+        <v>1256</v>
       </c>
       <c r="J59" s="52"/>
       <c r="K59" s="52" t="s">
-        <v>904</v>
+        <v>1342</v>
       </c>
       <c r="L59" s="52" t="s">
-        <v>1370</v>
+        <v>1257</v>
       </c>
       <c r="M59" s="52" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="N59" s="52" t="s">
         <v>878</v>
       </c>
       <c r="O59" s="52" t="s">
-        <v>1322</v>
+        <v>882</v>
       </c>
       <c r="P59" s="52" t="s">
-        <v>603</v>
+        <v>1258</v>
       </c>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="V59" s="58"/>
+      <c r="V59" s="59"/>
     </row>
     <row r="60" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="16"/>
@@ -11001,7 +10718,7 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="17"/>
-      <c r="V60" s="58"/>
+      <c r="V60" s="59"/>
     </row>
     <row r="61" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="18">
@@ -11009,46 +10726,46 @@
         <v>15</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>1308</v>
+        <v>1253</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>1309</v>
+        <v>26</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>1310</v>
+        <v>253</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>1311</v>
+        <v>1456</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>1312</v>
+        <v>1457</v>
       </c>
       <c r="J61" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>1313</v>
+        <v>1458</v>
       </c>
       <c r="L61" s="38" t="s">
-        <v>1314</v>
+        <v>1459</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>1315</v>
+        <v>1460</v>
       </c>
       <c r="N61" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>1316</v>
+        <v>1383</v>
       </c>
       <c r="P61" s="38" t="s">
-        <v>1317</v>
+        <v>1461</v>
       </c>
       <c r="Q61" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R61" s="38" t="str">
         <f>CHAR(10)</f>
@@ -11056,7 +10773,7 @@
 </v>
       </c>
       <c r="S61" s="19"/>
-      <c r="V61" s="58"/>
+      <c r="V61" s="59"/>
     </row>
     <row r="62" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="20"/>
@@ -11076,51 +10793,51 @@
       <c r="Q62" s="51"/>
       <c r="R62" s="51"/>
       <c r="S62" s="28"/>
-      <c r="V62" s="58"/>
+      <c r="V62" s="59"/>
     </row>
     <row r="63" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="11"/>
       <c r="C63" s="31"/>
       <c r="D63" s="52" t="s">
-        <v>1379</v>
+        <v>1260</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>1380</v>
+        <v>1261</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>846</v>
+        <v>1261</v>
       </c>
       <c r="G63" s="52" t="s">
         <v>597</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>1563</v>
+        <v>1329</v>
       </c>
       <c r="I63" s="52" t="s">
-        <v>1381</v>
+        <v>1248</v>
       </c>
       <c r="J63" s="52"/>
       <c r="K63" s="52" t="s">
-        <v>1564</v>
+        <v>744</v>
       </c>
       <c r="L63" s="52" t="s">
-        <v>1382</v>
+        <v>890</v>
       </c>
       <c r="M63" s="52" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="N63" s="52" t="s">
         <v>878</v>
       </c>
       <c r="O63" s="52" t="s">
-        <v>882</v>
+        <v>1343</v>
       </c>
       <c r="P63" s="52" t="s">
-        <v>1383</v>
+        <v>1262</v>
       </c>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="V63" s="58"/>
+      <c r="V63" s="59"/>
     </row>
     <row r="64" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="16"/>
@@ -11140,7 +10857,7 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="17"/>
-      <c r="V64" s="58"/>
+      <c r="V64" s="59"/>
     </row>
     <row r="65" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="18">
@@ -11148,46 +10865,46 @@
         <v>16</v>
       </c>
       <c r="D65" s="38" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="38" t="s">
         <v>1371</v>
       </c>
-      <c r="E65" s="38" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F65" s="38" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G65" s="38" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H65" s="38" t="s">
-        <v>1373</v>
-      </c>
       <c r="I65" s="38" t="s">
-        <v>1374</v>
+        <v>1424</v>
       </c>
       <c r="J65" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>1375</v>
+        <v>1463</v>
       </c>
       <c r="L65" s="38" t="s">
-        <v>1376</v>
+        <v>1464</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>1377</v>
+        <v>1419</v>
       </c>
       <c r="N65" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>1352</v>
+        <v>1465</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>1378</v>
+        <v>1466</v>
       </c>
       <c r="Q65" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R65" s="38" t="str">
         <f>CHAR(10)</f>
@@ -11195,7 +10912,7 @@
 </v>
       </c>
       <c r="S65" s="19"/>
-      <c r="V65" s="58"/>
+      <c r="V65" s="59"/>
     </row>
     <row r="66" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="20"/>
@@ -11215,51 +10932,47 @@
       <c r="Q66" s="51"/>
       <c r="R66" s="51"/>
       <c r="S66" s="28"/>
-      <c r="V66" s="58"/>
+      <c r="V66" s="59"/>
     </row>
     <row r="67" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="11"/>
       <c r="C67" s="31"/>
       <c r="D67" s="52" t="s">
-        <v>1390</v>
+        <v>1221</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>1391</v>
+        <v>599</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>1391</v>
+        <v>1173</v>
       </c>
       <c r="G67" s="52" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J67" s="52" t="s">
+        <v>641</v>
+      </c>
+      <c r="K67" s="52" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L67" s="52" t="s">
         <v>597</v>
       </c>
-      <c r="H67" s="52" t="s">
-        <v>1551</v>
-      </c>
-      <c r="I67" s="52" t="s">
-        <v>1366</v>
-      </c>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52" t="s">
-        <v>744</v>
-      </c>
-      <c r="L67" s="52" t="s">
-        <v>890</v>
-      </c>
       <c r="M67" s="52" t="s">
-        <v>489</v>
+        <v>1345</v>
       </c>
       <c r="N67" s="52" t="s">
-        <v>878</v>
-      </c>
-      <c r="O67" s="52" t="s">
-        <v>1565</v>
-      </c>
-      <c r="P67" s="52" t="s">
-        <v>1392</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
       <c r="Q67" s="52"/>
       <c r="R67" s="52"/>
-      <c r="V67" s="58"/>
+      <c r="V67" s="59"/>
     </row>
     <row r="68" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="16"/>
@@ -11279,7 +10992,7 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
       <c r="S68" s="17"/>
-      <c r="V68" s="58"/>
+      <c r="V68" s="59"/>
     </row>
     <row r="69" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="18">
@@ -11287,54 +11000,50 @@
         <v>17</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>1384</v>
+        <v>1163</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>1385</v>
+        <v>199</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>1385</v>
+        <v>1367</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>1185</v>
+        <v>1368</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>1170</v>
+        <v>267</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>1261</v>
+        <v>1467</v>
       </c>
       <c r="J69" s="38" t="s">
-        <v>1186</v>
+        <v>1468</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>1386</v>
+        <v>1469</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>1387</v>
+        <v>106</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>1253</v>
+        <v>1470</v>
       </c>
       <c r="N69" s="38" t="s">
-        <v>1187</v>
+        <v>1471</v>
       </c>
       <c r="O69" s="38" t="s">
-        <v>1388</v>
-      </c>
-      <c r="P69" s="38" t="s">
-        <v>1389</v>
-      </c>
-      <c r="Q69" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R69" s="38" t="str">
+        <v>30</v>
+      </c>
+      <c r="P69" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
       <c r="S69" s="19"/>
-      <c r="V69" s="58"/>
+      <c r="V69" s="59"/>
     </row>
     <row r="70" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="20"/>
@@ -11354,47 +11063,51 @@
       <c r="Q70" s="51"/>
       <c r="R70" s="51"/>
       <c r="S70" s="28"/>
-      <c r="V70" s="58"/>
+      <c r="V70" s="59"/>
     </row>
     <row r="71" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="11"/>
       <c r="C71" s="31"/>
       <c r="D71" s="52" t="s">
-        <v>1323</v>
+        <v>1265</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>599</v>
+        <v>1201</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>1182</v>
+        <v>1266</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H71" s="52"/>
+        <v>878</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>1346</v>
+      </c>
       <c r="I71" s="52" t="s">
-        <v>1566</v>
-      </c>
-      <c r="J71" s="52" t="s">
-        <v>641</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="J71" s="52"/>
       <c r="K71" s="52" t="s">
-        <v>1398</v>
+        <v>1267</v>
       </c>
       <c r="L71" s="52" t="s">
-        <v>597</v>
+        <v>1268</v>
       </c>
       <c r="M71" s="52" t="s">
-        <v>1567</v>
+        <v>1269</v>
       </c>
       <c r="N71" s="52" t="s">
-        <v>814</v>
-      </c>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
+        <v>1174</v>
+      </c>
+      <c r="O71" s="52" t="s">
+        <v>826</v>
+      </c>
+      <c r="P71" s="52" t="s">
+        <v>874</v>
+      </c>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
-      <c r="V71" s="58"/>
+      <c r="V71" s="59"/>
     </row>
     <row r="72" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="16"/>
@@ -11414,7 +11127,7 @@
       <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
       <c r="S72" s="17"/>
-      <c r="V72" s="58"/>
+      <c r="V72" s="59"/>
     </row>
     <row r="73" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="18">
@@ -11422,50 +11135,54 @@
         <v>18</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>1163</v>
+        <v>1264</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>1164</v>
+        <v>28</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>1165</v>
+        <v>1472</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>1166</v>
+        <v>210</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>1167</v>
+        <v>1473</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>1393</v>
+        <v>1474</v>
       </c>
       <c r="J73" s="38" t="s">
-        <v>1394</v>
+        <v>23</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>1395</v>
+        <v>1475</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>1185</v>
+        <v>1476</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>1396</v>
+        <v>1477</v>
       </c>
       <c r="N73" s="38" t="s">
-        <v>1397</v>
+        <v>1368</v>
       </c>
       <c r="O73" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="P73" s="38" t="str">
+        <v>1478</v>
+      </c>
+      <c r="P73" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q73" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="R73" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
       <c r="S73" s="19"/>
-      <c r="V73" s="58"/>
+      <c r="V73" s="59"/>
     </row>
     <row r="74" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="20"/>
@@ -11485,51 +11202,51 @@
       <c r="Q74" s="51"/>
       <c r="R74" s="51"/>
       <c r="S74" s="28"/>
-      <c r="V74" s="58"/>
+      <c r="V74" s="59"/>
     </row>
     <row r="75" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="11"/>
       <c r="C75" s="31"/>
       <c r="D75" s="52" t="s">
-        <v>1409</v>
+        <v>1347</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>1269</v>
+        <v>1348</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>1410</v>
+        <v>1349</v>
       </c>
       <c r="G75" s="52" t="s">
-        <v>878</v>
+        <v>601</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>1568</v>
+        <v>1338</v>
       </c>
       <c r="I75" s="52" t="s">
-        <v>880</v>
+        <v>1271</v>
       </c>
       <c r="J75" s="52"/>
       <c r="K75" s="52" t="s">
-        <v>1411</v>
+        <v>1272</v>
       </c>
       <c r="L75" s="52" t="s">
-        <v>1412</v>
+        <v>1273</v>
       </c>
       <c r="M75" s="52" t="s">
-        <v>1413</v>
+        <v>1350</v>
       </c>
       <c r="N75" s="52" t="s">
-        <v>1183</v>
+        <v>597</v>
       </c>
       <c r="O75" s="52" t="s">
-        <v>826</v>
+        <v>675</v>
       </c>
       <c r="P75" s="52" t="s">
-        <v>874</v>
+        <v>766</v>
       </c>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
-      <c r="V75" s="58"/>
+      <c r="V75" s="59"/>
     </row>
     <row r="76" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="16"/>
@@ -11549,7 +11266,7 @@
       <c r="Q76" s="50"/>
       <c r="R76" s="50"/>
       <c r="S76" s="17"/>
-      <c r="V76" s="58"/>
+      <c r="V76" s="59"/>
     </row>
     <row r="77" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="18">
@@ -11557,46 +11274,46 @@
         <v>19</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>1399</v>
+        <v>1270</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>1400</v>
+        <v>1479</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>1401</v>
+        <v>1480</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>1187</v>
+        <v>108</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>1402</v>
+        <v>157</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>1403</v>
+        <v>1481</v>
       </c>
       <c r="J77" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K77" s="38" t="s">
-        <v>1404</v>
+        <v>251</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>1405</v>
+        <v>1482</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>1406</v>
+        <v>1483</v>
       </c>
       <c r="N77" s="38" t="s">
-        <v>1166</v>
+        <v>106</v>
       </c>
       <c r="O77" s="38" t="s">
-        <v>1407</v>
+        <v>1484</v>
       </c>
       <c r="P77" s="38" t="s">
-        <v>1408</v>
+        <v>203</v>
       </c>
       <c r="Q77" s="38" t="s">
-        <v>1162</v>
+        <v>30</v>
       </c>
       <c r="R77" s="38" t="str">
         <f>CHAR(10)</f>
@@ -11604,7 +11321,7 @@
 </v>
       </c>
       <c r="S77" s="19"/>
-      <c r="V77" s="58"/>
+      <c r="V77" s="59"/>
     </row>
     <row r="78" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="20"/>
@@ -11624,51 +11341,53 @@
       <c r="Q78" s="51"/>
       <c r="R78" s="51"/>
       <c r="S78" s="28"/>
-      <c r="V78" s="58"/>
+      <c r="V78" s="59"/>
     </row>
     <row r="79" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="11"/>
       <c r="C79" s="31"/>
       <c r="D79" s="52" t="s">
-        <v>1569</v>
+        <v>1275</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>1570</v>
+        <v>541</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>1571</v>
+        <v>1276</v>
       </c>
       <c r="G79" s="52" t="s">
-        <v>601</v>
+        <v>1229</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>1560</v>
+        <v>597</v>
       </c>
       <c r="I79" s="52" t="s">
-        <v>1424</v>
-      </c>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52" t="s">
-        <v>1425</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="J79" s="52" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K79" s="52"/>
       <c r="L79" s="52" t="s">
-        <v>1426</v>
+        <v>1329</v>
       </c>
       <c r="M79" s="52" t="s">
-        <v>1572</v>
+        <v>1201</v>
       </c>
       <c r="N79" s="52" t="s">
-        <v>597</v>
+        <v>1278</v>
       </c>
       <c r="O79" s="52" t="s">
-        <v>675</v>
+        <v>1279</v>
       </c>
       <c r="P79" s="52" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q79" s="52"/>
+        <v>1280</v>
+      </c>
+      <c r="Q79" s="52" t="s">
+        <v>1281</v>
+      </c>
       <c r="R79" s="52"/>
-      <c r="V79" s="58"/>
+      <c r="V79" s="59"/>
     </row>
     <row r="80" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="16"/>
@@ -11688,7 +11407,7 @@
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
       <c r="S80" s="17"/>
-      <c r="V80" s="58"/>
+      <c r="V80" s="59"/>
     </row>
     <row r="81" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="18">
@@ -11696,54 +11415,56 @@
         <v>20</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>1414</v>
+        <v>1274</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>1415</v>
+        <v>37</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>1416</v>
+        <v>1485</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>1188</v>
+        <v>1486</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>1417</v>
+        <v>106</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>1418</v>
+        <v>71</v>
       </c>
       <c r="J81" s="38" t="s">
-        <v>1186</v>
+        <v>1487</v>
       </c>
       <c r="K81" s="38" t="s">
-        <v>1419</v>
+        <v>23</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>1420</v>
+        <v>1371</v>
       </c>
       <c r="M81" s="38" t="s">
-        <v>1421</v>
+        <v>19</v>
       </c>
       <c r="N81" s="38" t="s">
-        <v>1185</v>
+        <v>1488</v>
       </c>
       <c r="O81" s="38" t="s">
-        <v>1422</v>
+        <v>160</v>
       </c>
       <c r="P81" s="38" t="s">
-        <v>1423</v>
+        <v>1489</v>
       </c>
       <c r="Q81" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R81" s="38" t="str">
+        <v>1490</v>
+      </c>
+      <c r="R81" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S81" s="19" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="S81" s="19"/>
-      <c r="V81" s="58"/>
+      <c r="V81" s="59"/>
     </row>
     <row r="82" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="20"/>
@@ -11763,51 +11484,41 @@
       <c r="Q82" s="51"/>
       <c r="R82" s="51"/>
       <c r="S82" s="28"/>
-      <c r="V82" s="59"/>
+      <c r="V82" s="60"/>
     </row>
     <row r="83" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="11"/>
       <c r="C83" s="31"/>
       <c r="D83" s="52" t="s">
-        <v>1437</v>
+        <v>1283</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>541</v>
+        <v>1284</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>1438</v>
+        <v>894</v>
       </c>
       <c r="G83" s="52" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H83" s="52" t="s">
-        <v>597</v>
-      </c>
+        <v>1351</v>
+      </c>
+      <c r="H83" s="52"/>
       <c r="I83" s="52" t="s">
-        <v>515</v>
+        <v>1285</v>
       </c>
       <c r="J83" s="52" t="s">
-        <v>1439</v>
-      </c>
-      <c r="K83" s="52"/>
+        <v>1286</v>
+      </c>
+      <c r="K83" s="52" t="s">
+        <v>1287</v>
+      </c>
       <c r="L83" s="52" t="s">
-        <v>1551</v>
-      </c>
-      <c r="M83" s="52" t="s">
-        <v>1269</v>
-      </c>
-      <c r="N83" s="52" t="s">
-        <v>1440</v>
-      </c>
-      <c r="O83" s="52" t="s">
-        <v>1441</v>
-      </c>
-      <c r="P83" s="52" t="s">
-        <v>1442</v>
-      </c>
-      <c r="Q83" s="52" t="s">
-        <v>1443</v>
-      </c>
+        <v>1352</v>
+      </c>
+      <c r="M83" s="52"/>
+      <c r="N83" s="52"/>
+      <c r="O83" s="52"/>
+      <c r="P83" s="52"/>
+      <c r="Q83" s="52"/>
       <c r="R83" s="52"/>
       <c r="V83" s="33"/>
     </row>
@@ -11837,51 +11548,49 @@
         <v>21</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>1427</v>
+        <v>1282</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>1428</v>
+        <v>1491</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1429</v>
+        <v>1492</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>1430</v>
+        <v>1493</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>1185</v>
+        <v>23</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>1431</v>
+        <v>236</v>
       </c>
       <c r="J85" s="38" t="s">
-        <v>1432</v>
+        <v>1494</v>
       </c>
       <c r="K85" s="38" t="s">
-        <v>1186</v>
+        <v>1464</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>1170</v>
+        <v>1392</v>
       </c>
       <c r="M85" s="38" t="s">
-        <v>1263</v>
-      </c>
-      <c r="N85" s="38" t="s">
-        <v>1433</v>
-      </c>
-      <c r="O85" s="38" t="s">
-        <v>1434</v>
-      </c>
-      <c r="P85" s="38" t="s">
-        <v>1435</v>
-      </c>
-      <c r="Q85" s="38" t="s">
-        <v>1436</v>
-      </c>
-      <c r="R85" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="S85" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="N85" s="38" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="V85" s="6"/>
     </row>
     <row r="86" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -11907,19 +11616,43 @@
     <row r="87" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="11"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
+      <c r="D87" s="52" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F87" s="52" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G87" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="H87" s="52" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I87" s="52" t="s">
+        <v>1290</v>
+      </c>
       <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="52"/>
+      <c r="K87" s="52" t="s">
+        <v>900</v>
+      </c>
+      <c r="L87" s="52" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M87" s="52" t="s">
+        <v>1292</v>
+      </c>
+      <c r="N87" s="52" t="s">
+        <v>878</v>
+      </c>
+      <c r="O87" s="52" t="s">
+        <v>792</v>
+      </c>
+      <c r="P87" s="52" t="s">
+        <v>1293</v>
+      </c>
       <c r="Q87" s="52"/>
       <c r="R87" s="52"/>
       <c r="V87" s="33"/>
@@ -11949,25 +11682,53 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="38" t="str">
+      <c r="D89" s="38" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I89" s="38" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J89" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="L89" s="38" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M89" s="38" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N89" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O89" s="38" t="s">
+        <v>1501</v>
+      </c>
+      <c r="P89" s="38" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Q89" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R89" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
       <c r="S89" s="19"/>
       <c r="V89" s="6"/>
     </row>
@@ -11995,34 +11756,42 @@
       <c r="B91" s="11"/>
       <c r="C91" s="31"/>
       <c r="D91" s="52" t="s">
-        <v>1449</v>
+        <v>1295</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>1450</v>
+        <v>1188</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>894</v>
+        <v>1188</v>
       </c>
       <c r="G91" s="52" t="s">
-        <v>1573</v>
-      </c>
-      <c r="H91" s="52"/>
+        <v>597</v>
+      </c>
+      <c r="H91" s="52" t="s">
+        <v>1296</v>
+      </c>
       <c r="I91" s="52" t="s">
-        <v>1451</v>
-      </c>
-      <c r="J91" s="52" t="s">
-        <v>1452</v>
-      </c>
+        <v>1202</v>
+      </c>
+      <c r="J91" s="52"/>
       <c r="K91" s="52" t="s">
-        <v>1453</v>
+        <v>1355</v>
       </c>
       <c r="L91" s="52" t="s">
-        <v>1574</v>
-      </c>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
+        <v>603</v>
+      </c>
+      <c r="M91" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="N91" s="52" t="s">
+        <v>778</v>
+      </c>
+      <c r="O91" s="52" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P91" s="52" t="s">
+        <v>563</v>
+      </c>
       <c r="Q91" s="52"/>
       <c r="R91" s="52"/>
       <c r="V91" s="33"/>
@@ -12053,44 +11822,52 @@
         <v>23</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>1444</v>
+        <v>1294</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>1445</v>
+        <v>1408</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>1446</v>
+        <v>1408</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>1447</v>
+        <v>106</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>1186</v>
+        <v>1503</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>1444</v>
+        <v>1504</v>
       </c>
       <c r="J93" s="38" t="s">
-        <v>1448</v>
+        <v>23</v>
       </c>
       <c r="K93" s="38" t="s">
-        <v>1387</v>
+        <v>1505</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>1205</v>
+        <v>1506</v>
       </c>
       <c r="M93" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="N93" s="38" t="str">
+        <v>1506</v>
+      </c>
+      <c r="N93" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O93" s="38" t="s">
+        <v>1507</v>
+      </c>
+      <c r="P93" s="38" t="s">
+        <v>1451</v>
+      </c>
+      <c r="Q93" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R93" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
       <c r="S93" s="19"/>
       <c r="V93" s="6"/>
     </row>
@@ -12118,41 +11895,41 @@
       <c r="B95" s="11"/>
       <c r="C95" s="31"/>
       <c r="D95" s="52" t="s">
-        <v>1343</v>
+        <v>1298</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>1463</v>
+        <v>647</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>1464</v>
+        <v>689</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>1575</v>
+        <v>523</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>1465</v>
+        <v>904</v>
       </c>
       <c r="J95" s="52"/>
       <c r="K95" s="52" t="s">
-        <v>900</v>
+        <v>776</v>
       </c>
       <c r="L95" s="52" t="s">
-        <v>1466</v>
+        <v>914</v>
       </c>
       <c r="M95" s="52" t="s">
-        <v>1467</v>
+        <v>722</v>
       </c>
       <c r="N95" s="52" t="s">
-        <v>878</v>
+        <v>601</v>
       </c>
       <c r="O95" s="52" t="s">
-        <v>792</v>
+        <v>633</v>
       </c>
       <c r="P95" s="52" t="s">
-        <v>1468</v>
+        <v>1299</v>
       </c>
       <c r="Q95" s="52"/>
       <c r="R95" s="52"/>
@@ -12184,46 +11961,46 @@
         <v>24</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1333</v>
+        <v>1297</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>1454</v>
+        <v>134</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>1455</v>
+        <v>156</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>1185</v>
+        <v>108</v>
       </c>
       <c r="H97" s="38" t="s">
-        <v>1456</v>
+        <v>158</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>1457</v>
+        <v>285</v>
       </c>
       <c r="J97" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K97" s="38" t="s">
-        <v>1458</v>
+        <v>22</v>
       </c>
       <c r="L97" s="38" t="s">
-        <v>1459</v>
+        <v>297</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>1460</v>
+        <v>1508</v>
       </c>
       <c r="N97" s="38" t="s">
-        <v>1187</v>
+        <v>108</v>
       </c>
       <c r="O97" s="38" t="s">
-        <v>1461</v>
+        <v>185</v>
       </c>
       <c r="P97" s="38" t="s">
-        <v>1462</v>
+        <v>1509</v>
       </c>
       <c r="Q97" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R97" s="38" t="str">
         <f>CHAR(10)</f>
@@ -12257,42 +12034,38 @@
       <c r="B99" s="11"/>
       <c r="C99" s="31"/>
       <c r="D99" s="52" t="s">
-        <v>1475</v>
+        <v>1300</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>1235</v>
+        <v>597</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G99" s="52" t="s">
-        <v>597</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="G99" s="52"/>
       <c r="H99" s="52" t="s">
-        <v>1476</v>
+        <v>1301</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J99" s="52"/>
+        <v>633</v>
+      </c>
+      <c r="J99" s="52" t="s">
+        <v>591</v>
+      </c>
       <c r="K99" s="52" t="s">
-        <v>1577</v>
+        <v>1302</v>
       </c>
       <c r="L99" s="52" t="s">
-        <v>603</v>
+        <v>1267</v>
       </c>
       <c r="M99" s="52" t="s">
-        <v>603</v>
+        <v>1303</v>
       </c>
       <c r="N99" s="52" t="s">
-        <v>778</v>
-      </c>
-      <c r="O99" s="52" t="s">
-        <v>1578</v>
-      </c>
-      <c r="P99" s="52" t="s">
-        <v>563</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="O99" s="52"/>
+      <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
       <c r="R99" s="52"/>
       <c r="V99" s="33"/>
@@ -12323,52 +12096,48 @@
         <v>25</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>1469</v>
+        <v>1238</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>1233</v>
+        <v>142</v>
       </c>
       <c r="F101" s="38" t="s">
-        <v>1233</v>
+        <v>160</v>
       </c>
       <c r="G101" s="38" t="s">
-        <v>1185</v>
+        <v>267</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>1470</v>
+        <v>1510</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>1471</v>
+        <v>182</v>
       </c>
       <c r="J101" s="38" t="s">
-        <v>1186</v>
+        <v>1406</v>
       </c>
       <c r="K101" s="38" t="s">
-        <v>1472</v>
+        <v>1511</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="M101" s="38" t="s">
-        <v>1473</v>
+        <v>1512</v>
       </c>
       <c r="N101" s="38" t="s">
-        <v>1187</v>
+        <v>285</v>
       </c>
       <c r="O101" s="38" t="s">
-        <v>1474</v>
-      </c>
-      <c r="P101" s="38" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Q101" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R101" s="38" t="str">
+        <v>23</v>
+      </c>
+      <c r="P101" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="Q101" s="38"/>
+      <c r="R101" s="38"/>
       <c r="S101" s="19"/>
       <c r="V101" s="6"/>
     </row>
@@ -12396,44 +12165,48 @@
       <c r="B103" s="11"/>
       <c r="C103" s="31"/>
       <c r="D103" s="52" t="s">
-        <v>1486</v>
+        <v>1537</v>
       </c>
       <c r="E103" s="52" t="s">
-        <v>647</v>
+        <v>704</v>
       </c>
       <c r="F103" s="52" t="s">
-        <v>689</v>
+        <v>1538</v>
       </c>
       <c r="G103" s="52" t="s">
+        <v>846</v>
+      </c>
+      <c r="H103" s="52" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I103" s="52" t="s">
+        <v>645</v>
+      </c>
+      <c r="J103" s="52" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="M103" s="52" t="s">
+        <v>1540</v>
+      </c>
+      <c r="N103" s="52" t="s">
+        <v>1541</v>
+      </c>
+      <c r="O103" s="52" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P103" s="52" t="s">
+        <v>1542</v>
+      </c>
+      <c r="Q103" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="R103" s="52" t="s">
         <v>601</v>
       </c>
-      <c r="H103" s="52" t="s">
-        <v>523</v>
-      </c>
-      <c r="I103" s="52" t="s">
-        <v>904</v>
-      </c>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52" t="s">
-        <v>776</v>
-      </c>
-      <c r="L103" s="52" t="s">
-        <v>914</v>
-      </c>
-      <c r="M103" s="52" t="s">
-        <v>722</v>
-      </c>
-      <c r="N103" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="O103" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="P103" s="52" t="s">
-        <v>1487</v>
-      </c>
-      <c r="Q103" s="52"/>
-      <c r="R103" s="52"/>
       <c r="V103" s="33"/>
     </row>
     <row r="104" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -12462,53 +12235,55 @@
         <v>26</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>1477</v>
+        <v>1304</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>1478</v>
+        <v>168</v>
       </c>
       <c r="F105" s="38" t="s">
-        <v>1479</v>
+        <v>1513</v>
       </c>
       <c r="G105" s="38" t="s">
-        <v>1188</v>
+        <v>253</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>1480</v>
+        <v>1514</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>1313</v>
+        <v>199</v>
       </c>
       <c r="J105" s="38" t="s">
-        <v>1186</v>
+        <v>1515</v>
       </c>
       <c r="K105" s="38" t="s">
-        <v>1481</v>
+        <v>23</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>1482</v>
+        <v>1373</v>
       </c>
       <c r="M105" s="38" t="s">
-        <v>1483</v>
+        <v>273</v>
       </c>
       <c r="N105" s="38" t="s">
-        <v>1188</v>
+        <v>1516</v>
       </c>
       <c r="O105" s="38" t="s">
-        <v>1484</v>
+        <v>1516</v>
       </c>
       <c r="P105" s="38" t="s">
-        <v>1485</v>
+        <v>1517</v>
       </c>
       <c r="Q105" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R105" s="38" t="str">
+        <v>252</v>
+      </c>
+      <c r="R105" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S105" s="19" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="S105" s="19"/>
       <c r="V105" s="6"/>
     </row>
     <row r="106" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -12534,37 +12309,17 @@
     <row r="107" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="11"/>
       <c r="C107" s="31"/>
-      <c r="D107" s="52" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E107" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="F107" s="52" t="s">
-        <v>695</v>
-      </c>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
       <c r="G107" s="52"/>
-      <c r="H107" s="52" t="s">
-        <v>1493</v>
-      </c>
-      <c r="I107" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="J107" s="52" t="s">
-        <v>591</v>
-      </c>
-      <c r="K107" s="52" t="s">
-        <v>1494</v>
-      </c>
-      <c r="L107" s="52" t="s">
-        <v>1411</v>
-      </c>
-      <c r="M107" s="52" t="s">
-        <v>1495</v>
-      </c>
-      <c r="N107" s="52" t="s">
-        <v>904</v>
-      </c>
+      <c r="H107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
       <c r="O107" s="52"/>
       <c r="P107" s="52"/>
       <c r="Q107" s="52"/>
@@ -12597,46 +12352,24 @@
         <v>27</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E109" s="38" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F109" s="38" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G109" s="38" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H109" s="38" t="s">
-        <v>1489</v>
-      </c>
-      <c r="I109" s="38" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J109" s="38" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K109" s="38" t="s">
-        <v>1490</v>
-      </c>
-      <c r="L109" s="38" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M109" s="38" t="s">
-        <v>1491</v>
-      </c>
-      <c r="N109" s="38" t="s">
-        <v>1313</v>
-      </c>
-      <c r="O109" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="P109" s="38" t="str">
+        <v>1162</v>
+      </c>
+      <c r="E109" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
       <c r="Q109" s="38"/>
       <c r="R109" s="38"/>
       <c r="S109" s="19"/>
@@ -12665,17 +12398,37 @@
     <row r="111" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B111" s="11"/>
       <c r="C111" s="31"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
+      <c r="D111" s="52" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E111" s="52" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F111" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="G111" s="52" t="s">
+        <v>914</v>
+      </c>
+      <c r="H111" s="52" t="s">
+        <v>1308</v>
+      </c>
       <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
-      <c r="K111" s="52"/>
-      <c r="L111" s="52"/>
-      <c r="M111" s="52"/>
-      <c r="N111" s="52"/>
+      <c r="J111" s="52" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K111" s="52" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L111" s="52" t="s">
+        <v>704</v>
+      </c>
+      <c r="M111" s="52" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N111" s="52" t="s">
+        <v>567</v>
+      </c>
       <c r="O111" s="52"/>
       <c r="P111" s="52"/>
       <c r="Q111" s="52"/>
@@ -12708,51 +12461,53 @@
         <v>28</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>1496</v>
+        <v>1305</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>1173</v>
+        <v>1518</v>
       </c>
       <c r="F113" s="49" t="s">
-        <v>1497</v>
+        <v>1391</v>
       </c>
       <c r="G113" s="49" t="s">
-        <v>1334</v>
+        <v>297</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>1498</v>
+        <v>1519</v>
       </c>
       <c r="I113" s="49" t="s">
-        <v>1164</v>
+        <v>23</v>
       </c>
       <c r="J113" s="49" t="s">
-        <v>1499</v>
+        <v>1520</v>
       </c>
       <c r="K113" s="49" t="s">
-        <v>1186</v>
+        <v>202</v>
       </c>
       <c r="L113" s="49" t="s">
-        <v>1172</v>
+        <v>168</v>
       </c>
       <c r="M113" s="49" t="s">
-        <v>1335</v>
+        <v>1384</v>
       </c>
       <c r="N113" s="49" t="s">
-        <v>1500</v>
+        <v>1521</v>
       </c>
       <c r="O113" s="49" t="s">
-        <v>1500</v>
-      </c>
-      <c r="P113" s="49" t="s">
-        <v>1501</v>
-      </c>
-      <c r="Q113" s="49" t="s">
-        <v>1502</v>
-      </c>
-      <c r="R113" s="49" t="s">
-        <v>1188</v>
-      </c>
-      <c r="S113" s="62"/>
+        <v>30</v>
+      </c>
+      <c r="P113" s="49" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="Q113" s="49"/>
+      <c r="R113" s="49"/>
+      <c r="S113" s="57" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="V113" s="6"/>
     </row>
     <row r="114" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -12778,19 +12533,43 @@
     <row r="115" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B115" s="11"/>
       <c r="C115" s="31"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="52"/>
+      <c r="D115" s="52" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E115" s="52" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F115" s="52" t="s">
+        <v>850</v>
+      </c>
+      <c r="G115" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="H115" s="52" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I115" s="52" t="s">
+        <v>1240</v>
+      </c>
       <c r="J115" s="52"/>
-      <c r="K115" s="52"/>
-      <c r="L115" s="52"/>
-      <c r="M115" s="52"/>
-      <c r="N115" s="52"/>
-      <c r="O115" s="52"/>
-      <c r="P115" s="52"/>
+      <c r="K115" s="52" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L115" s="52" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M115" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="N115" s="52" t="s">
+        <v>878</v>
+      </c>
+      <c r="O115" s="52" t="s">
+        <v>1315</v>
+      </c>
+      <c r="P115" s="52" t="s">
+        <v>519</v>
+      </c>
       <c r="Q115" s="52"/>
       <c r="R115" s="52"/>
       <c r="V115" s="33"/>
@@ -12821,22 +12600,52 @@
         <v>29</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="38"/>
-      <c r="P117" s="38"/>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="38"/>
+        <v>1311</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G117" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I117" s="38" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J117" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="L117" s="38" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M117" s="38" t="s">
+        <v>1525</v>
+      </c>
+      <c r="N117" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O117" s="38" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P117" s="38" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q117" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="R117" s="38" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S117" s="19"/>
       <c r="V117" s="6"/>
     </row>
@@ -12863,19 +12672,43 @@
     <row r="119" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="11"/>
       <c r="C119" s="31"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="52"/>
+      <c r="D119" s="52" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E119" s="52" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F119" s="52" t="s">
+        <v>890</v>
+      </c>
+      <c r="G119" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="H119" s="52" t="s">
+        <v>754</v>
+      </c>
+      <c r="I119" s="52" t="s">
+        <v>746</v>
+      </c>
       <c r="J119" s="52"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="52"/>
-      <c r="M119" s="52"/>
-      <c r="N119" s="52"/>
-      <c r="O119" s="52"/>
-      <c r="P119" s="52"/>
+      <c r="K119" s="52" t="s">
+        <v>864</v>
+      </c>
+      <c r="L119" s="52" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M119" s="52" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N119" s="52" t="s">
+        <v>878</v>
+      </c>
+      <c r="O119" s="52" t="s">
+        <v>583</v>
+      </c>
+      <c r="P119" s="52" t="s">
+        <v>581</v>
+      </c>
       <c r="Q119" s="52"/>
       <c r="R119" s="52"/>
       <c r="V119" s="33"/>
@@ -12905,25 +12738,53 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38" t="str">
+      <c r="D121" s="38" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G121" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H121" s="38" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I121" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="J121" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="L121" s="38" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M121" s="38" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N121" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O121" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="P121" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q121" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R121" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="38"/>
-      <c r="N121" s="38"/>
-      <c r="O121" s="38"/>
-      <c r="P121" s="38"/>
-      <c r="Q121" s="38"/>
-      <c r="R121" s="38"/>
       <c r="S121" s="19"/>
       <c r="V121" s="6"/>
     </row>
@@ -12951,39 +12812,45 @@
       <c r="B123" s="11"/>
       <c r="C123" s="31"/>
       <c r="D123" s="52" t="s">
-        <v>1509</v>
+        <v>1320</v>
       </c>
       <c r="E123" s="52" t="s">
-        <v>1510</v>
+        <v>1321</v>
       </c>
       <c r="F123" s="52" t="s">
-        <v>484</v>
+        <v>1322</v>
       </c>
       <c r="G123" s="52" t="s">
-        <v>914</v>
+        <v>597</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>1511</v>
-      </c>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52" t="s">
-        <v>1512</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="I123" s="52" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J123" s="52"/>
       <c r="K123" s="52" t="s">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="L123" s="52" t="s">
-        <v>704</v>
+        <v>605</v>
       </c>
       <c r="M123" s="52" t="s">
-        <v>1360</v>
+        <v>796</v>
       </c>
       <c r="N123" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="O123" s="52"/>
-      <c r="P123" s="52"/>
-      <c r="Q123" s="52"/>
+        <v>1284</v>
+      </c>
+      <c r="O123" s="52" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P123" s="52" t="s">
+        <v>1323</v>
+      </c>
+      <c r="Q123" s="52" t="s">
+        <v>1324</v>
+      </c>
       <c r="R123" s="52"/>
       <c r="V123" s="33"/>
     </row>
@@ -13013,49 +12880,55 @@
         <v>31</v>
       </c>
       <c r="D125" s="38" t="s">
-        <v>1503</v>
+        <v>1319</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>1504</v>
+        <v>1532</v>
       </c>
       <c r="F125" s="38" t="s">
-        <v>1199</v>
+        <v>1533</v>
       </c>
       <c r="G125" s="38" t="s">
-        <v>1482</v>
+        <v>106</v>
       </c>
       <c r="H125" s="38" t="s">
-        <v>1505</v>
+        <v>299</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>1186</v>
+        <v>1534</v>
       </c>
       <c r="J125" s="38" t="s">
-        <v>1506</v>
+        <v>23</v>
       </c>
       <c r="K125" s="38" t="s">
-        <v>1507</v>
+        <v>251</v>
       </c>
       <c r="L125" s="38" t="s">
-        <v>1173</v>
+        <v>110</v>
       </c>
       <c r="M125" s="38" t="s">
-        <v>1354</v>
+        <v>218</v>
       </c>
       <c r="N125" s="38" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="P125" s="38" t="str">
+        <v>1475</v>
+      </c>
+      <c r="P125" s="38" t="s">
+        <v>1376</v>
+      </c>
+      <c r="Q125" s="38" t="s">
+        <v>1535</v>
+      </c>
+      <c r="R125" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S125" s="19" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q125" s="38"/>
-      <c r="R125" s="38"/>
-      <c r="S125" s="19"/>
       <c r="V125" s="6"/>
     </row>
     <row r="126" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -13081,43 +12954,19 @@
     <row r="127" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B127" s="11"/>
       <c r="C127" s="31"/>
-      <c r="D127" s="52" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E127" s="52" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F127" s="52" t="s">
-        <v>850</v>
-      </c>
-      <c r="G127" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H127" s="52" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I127" s="52" t="s">
-        <v>1358</v>
-      </c>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="52"/>
       <c r="J127" s="52"/>
-      <c r="K127" s="52" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L127" s="52" t="s">
-        <v>1523</v>
-      </c>
-      <c r="M127" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="N127" s="52" t="s">
-        <v>878</v>
-      </c>
-      <c r="O127" s="52" t="s">
-        <v>1524</v>
-      </c>
-      <c r="P127" s="52" t="s">
-        <v>519</v>
-      </c>
+      <c r="K127" s="52"/>
+      <c r="L127" s="52"/>
+      <c r="M127" s="52"/>
+      <c r="N127" s="52"/>
+      <c r="O127" s="52"/>
+      <c r="P127" s="52"/>
       <c r="Q127" s="52"/>
       <c r="R127" s="52"/>
       <c r="V127" s="33"/>
@@ -13148,53 +12997,27 @@
         <v>32</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E129" s="38" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F129" s="38" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G129" s="38" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H129" s="38" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I129" s="38" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J129" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K129" s="38" t="s">
-        <v>1444</v>
-      </c>
-      <c r="L129" s="38" t="s">
-        <v>1517</v>
-      </c>
-      <c r="M129" s="38" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N129" s="38" t="s">
-        <v>1187</v>
-      </c>
-      <c r="O129" s="38" t="s">
-        <v>1519</v>
-      </c>
-      <c r="P129" s="38" t="s">
-        <v>1520</v>
-      </c>
-      <c r="Q129" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="R129" s="38" t="str">
+        <v>1536</v>
+      </c>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="38"/>
+      <c r="L129" s="38"/>
+      <c r="M129" s="38"/>
+      <c r="N129" s="38"/>
+      <c r="O129" s="38"/>
+      <c r="P129" s="38"/>
+      <c r="Q129" s="38"/>
+      <c r="R129" s="38"/>
+      <c r="S129" s="19" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="S129" s="19"/>
       <c r="V129" s="6"/>
     </row>
     <row r="130" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -13220,43 +13043,19 @@
     <row r="131" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B131" s="11"/>
       <c r="C131" s="31"/>
-      <c r="D131" s="52" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E131" s="52" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F131" s="52" t="s">
-        <v>890</v>
-      </c>
-      <c r="G131" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H131" s="52" t="s">
-        <v>754</v>
-      </c>
-      <c r="I131" s="52" t="s">
-        <v>746</v>
-      </c>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="52"/>
       <c r="J131" s="52"/>
-      <c r="K131" s="52" t="s">
-        <v>864</v>
-      </c>
-      <c r="L131" s="52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="M131" s="52" t="s">
-        <v>1320</v>
-      </c>
-      <c r="N131" s="52" t="s">
-        <v>878</v>
-      </c>
-      <c r="O131" s="52" t="s">
-        <v>583</v>
-      </c>
-      <c r="P131" s="52" t="s">
-        <v>581</v>
-      </c>
+      <c r="K131" s="52"/>
+      <c r="L131" s="52"/>
+      <c r="M131" s="52"/>
+      <c r="N131" s="52"/>
+      <c r="O131" s="52"/>
+      <c r="P131" s="52"/>
       <c r="Q131" s="52"/>
       <c r="R131" s="52"/>
       <c r="V131" s="33"/>
@@ -13286,53 +13085,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="38" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E133" s="38" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F133" s="38" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G133" s="38" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H133" s="38" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I133" s="38" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J133" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K133" s="38" t="s">
-        <v>1530</v>
-      </c>
-      <c r="L133" s="38" t="s">
-        <v>1531</v>
-      </c>
-      <c r="M133" s="38" t="s">
-        <v>1311</v>
-      </c>
-      <c r="N133" s="38" t="s">
-        <v>1187</v>
-      </c>
-      <c r="O133" s="38" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P133" s="38" t="s">
-        <v>1533</v>
-      </c>
-      <c r="Q133" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R133" s="38" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="38"/>
+      <c r="P133" s="38"/>
+      <c r="Q133" s="38"/>
+      <c r="R133" s="38"/>
       <c r="S133" s="19"/>
       <c r="V133" s="6"/>
     </row>
@@ -13359,46 +13126,20 @@
     <row r="135" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B135" s="11"/>
       <c r="C135" s="31"/>
-      <c r="D135" s="52" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E135" s="52" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F135" s="52" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G135" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H135" s="52" t="s">
-        <v>916</v>
-      </c>
-      <c r="I135" s="52" t="s">
-        <v>1576</v>
-      </c>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="52"/>
       <c r="J135" s="52"/>
-      <c r="K135" s="52" t="s">
-        <v>1425</v>
-      </c>
-      <c r="L135" s="52" t="s">
-        <v>605</v>
-      </c>
-      <c r="M135" s="52" t="s">
-        <v>796</v>
-      </c>
-      <c r="N135" s="52" t="s">
-        <v>1450</v>
-      </c>
-      <c r="O135" s="52" t="s">
-        <v>1411</v>
-      </c>
-      <c r="P135" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="Q135" s="52" t="s">
-        <v>1546</v>
-      </c>
+      <c r="K135" s="52"/>
+      <c r="L135" s="52"/>
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
+      <c r="O135" s="52"/>
+      <c r="P135" s="52"/>
+      <c r="Q135" s="52"/>
       <c r="R135" s="52"/>
       <c r="V135" s="33"/>
     </row>
@@ -13427,52 +13168,26 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="38" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E137" s="38" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F137" s="38" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G137" s="38" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H137" s="38" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I137" s="38" t="s">
-        <v>1539</v>
-      </c>
-      <c r="J137" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K137" s="38" t="s">
-        <v>1419</v>
-      </c>
-      <c r="L137" s="38" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M137" s="38" t="s">
-        <v>1540</v>
-      </c>
-      <c r="N137" s="38" t="s">
-        <v>1445</v>
-      </c>
-      <c r="O137" s="38" t="s">
-        <v>1404</v>
-      </c>
-      <c r="P137" s="38" t="s">
-        <v>1338</v>
-      </c>
-      <c r="Q137" s="38" t="s">
-        <v>1541</v>
-      </c>
-      <c r="R137" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="S137" s="19"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="38"/>
+      <c r="J137" s="38"/>
+      <c r="K137" s="38"/>
+      <c r="L137" s="38"/>
+      <c r="M137" s="38"/>
+      <c r="N137" s="38"/>
+      <c r="O137" s="38"/>
+      <c r="P137" s="38"/>
+      <c r="Q137" s="38"/>
+      <c r="R137" s="38"/>
+      <c r="S137" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="V137" s="6"/>
     </row>
     <row r="138" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -13540,9 +13255,7 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="38" t="s">
-        <v>38</v>
-      </c>
+      <c r="D141" s="38"/>
       <c r="E141" s="38"/>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -20755,42 +20468,42 @@
   <sheetData>
     <row r="2" spans="2:2" ht="46.5">
       <c r="B2" s="54" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="46.5">
       <c r="B3" s="55" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="46.5">
       <c r="B4" s="55" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="50.25">
       <c r="B5" s="55" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="46.5">
       <c r="B6" s="55" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="46.5">
       <c r="B7" s="55" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="50.25">
       <c r="B8" s="55" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="46.5">
       <c r="B9" s="55" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -25168,7 +24881,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="15"/>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="58" t="s">
         <v>66</v>
       </c>
     </row>
@@ -25216,7 +24929,7 @@
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="17"/>
-      <c r="V4" s="60"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="18">
@@ -25268,7 +24981,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="19"/>
-      <c r="V5" s="60"/>
+      <c r="V5" s="61"/>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="20"/>
@@ -25315,7 +25028,7 @@
       </c>
       <c r="R6" s="51"/>
       <c r="S6" s="22"/>
-      <c r="V6" s="60"/>
+      <c r="V6" s="61"/>
     </row>
     <row r="7" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="24"/>
@@ -25336,7 +25049,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="26"/>
-      <c r="V7" s="60"/>
+      <c r="V7" s="61"/>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="16"/>
@@ -25380,7 +25093,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="17"/>
-      <c r="V8" s="60"/>
+      <c r="V8" s="61"/>
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="18">
@@ -25434,7 +25147,7 @@
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="15"/>
-      <c r="V9" s="60"/>
+      <c r="V9" s="61"/>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="20"/>
@@ -25478,7 +25191,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="28"/>
-      <c r="V10" s="60"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" s="26" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="29"/>
@@ -25498,7 +25211,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="60"/>
+      <c r="V11" s="61"/>
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="16"/>
@@ -25544,7 +25257,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="17"/>
-      <c r="V12" s="60"/>
+      <c r="V12" s="61"/>
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="18">
@@ -25597,7 +25310,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="19"/>
-      <c r="V13" s="60"/>
+      <c r="V13" s="61"/>
     </row>
     <row r="14" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="20"/>
@@ -25643,7 +25356,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="28"/>
-      <c r="V14" s="60"/>
+      <c r="V14" s="61"/>
     </row>
     <row r="15" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="11"/>
@@ -25663,7 +25376,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="60"/>
+      <c r="V15" s="61"/>
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="16"/>
@@ -25709,7 +25422,7 @@
       </c>
       <c r="R16" s="50"/>
       <c r="S16" s="17"/>
-      <c r="V16" s="60"/>
+      <c r="V16" s="61"/>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="18">
@@ -25762,7 +25475,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="19"/>
-      <c r="V17" s="60"/>
+      <c r="V17" s="61"/>
     </row>
     <row r="18" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="20"/>
@@ -25808,7 +25521,7 @@
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="28"/>
-      <c r="V18" s="60"/>
+      <c r="V18" s="61"/>
     </row>
     <row r="19" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="11"/>
@@ -25828,7 +25541,7 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="60"/>
+      <c r="V19" s="61"/>
     </row>
     <row r="20" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="16"/>
@@ -25848,7 +25561,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="17"/>
-      <c r="V20" s="60"/>
+      <c r="V20" s="61"/>
     </row>
     <row r="21" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="18">
@@ -25875,7 +25588,7 @@
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="19"/>
-      <c r="V21" s="60"/>
+      <c r="V21" s="61"/>
     </row>
     <row r="22" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="20"/>
@@ -25895,7 +25608,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="28"/>
-      <c r="V22" s="61"/>
+      <c r="V22" s="62"/>
     </row>
     <row r="23" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="11"/>

--- a/output7/【河洛文讀注音-閩拼調號】《歸去來辭》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《歸去來辭》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E111108A-B670-40A5-9253-1549F913EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE96838F-D6F4-4C6D-99A5-6E440E019983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1613">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4053,262 +4053,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>實</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>be5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>舟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phio5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>問</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>僮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>huan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ging5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>king3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siunn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>倚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ke5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>既</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ki3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>悟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4317,266 +4105,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ngoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>King2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>世</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>悅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>農</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Long5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>或</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>羨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4585,202 +4145,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>懷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Huai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ting1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hng5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zuann5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5336,30 +4712,6 @@
   </si>
   <si>
     <t>φ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jim7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5391,6 +4743,930 @@
 懷良辰以孤往，或植杖而耘耔，
 登東臯以舒嘯，臨清流而賦詩。
 聊乘化以歸盡，樂夫天命複奚疑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lâi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tîan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ûan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>û</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hô</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>í</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ûi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tîu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tìong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N̄goo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>óng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kàn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zía</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khó</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si̍t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tôo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kî</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>úan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>za̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ziu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>îo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>îong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phîo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M̄un</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lōo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hūn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sîn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bî</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ńai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ú</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zài</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tông</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zú</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hāu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m̄ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kìng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zīu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cîong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>îu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zûn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ìu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji̍p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sît</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zíu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>îng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ín</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siunn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m̄ia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>î</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gân</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ía</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lâm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n̄go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sím</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hn̂g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji̍t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si̍p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zîann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cù</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sîong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hû</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lō</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lîu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khè</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sî</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kíau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>síu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hûn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bô</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sīu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zíau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kūan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hûan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kíng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>è</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hóo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pûann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kûan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cíng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu̍at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sè</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gúa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kà</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gūa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kîu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ūe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khîm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lông</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jîn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kòo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki̍p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tíu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O̍h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bīng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o̍h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tàu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>íau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tíau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cîm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bo̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hìong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sīan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bān</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu̍t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kám</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n̂goo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Í</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hôo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lāi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>úi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jīm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ūi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hông</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i̍ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hù</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kùi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gūan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tè</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hûai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lîong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti̍t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tīong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hûn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sìau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lîm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hù</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lîau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hùa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zīn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gî</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8456,7 +8732,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1359</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -8464,7 +8740,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1358</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8472,7 +8748,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1357</v>
+        <v>1201</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -8496,7 +8772,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>1360</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8536,7 +8812,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>1361</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
@@ -8544,7 +8820,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1362</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -8552,7 +8828,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>1363</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -8560,7 +8836,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1364</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -8568,7 +8844,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1365</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -8576,7 +8852,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1366</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -8620,7 +8896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
@@ -8737,45 +9013,45 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="52" t="s">
-        <v>1221</v>
+        <v>1382</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>599</v>
+        <v>1383</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>1173</v>
+        <v>1384</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>1174</v>
+        <v>1385</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52" t="s">
-        <v>1228</v>
+        <v>1386</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>748</v>
+        <v>1387</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>1329</v>
+        <v>1388</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>1229</v>
+        <v>1389</v>
       </c>
       <c r="M3" s="52" t="s">
-        <v>543</v>
+        <v>1390</v>
       </c>
       <c r="N3" s="52" t="s">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="O3" s="52" t="s">
-        <v>1230</v>
+        <v>1392</v>
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="15"/>
       <c r="V3" s="58" t="s">
-        <v>1543</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -8809,28 +9085,28 @@
         <v>199</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>1367</v>
+        <v>1211</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1368</v>
+        <v>1212</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>267</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>1369</v>
+        <v>1213</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>1370</v>
+        <v>1214</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>1371</v>
+        <v>1215</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>1372</v>
+        <v>1216</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>1373</v>
+        <v>1217</v>
       </c>
       <c r="N5" s="38" t="s">
         <v>168</v>
@@ -8879,44 +9155,44 @@
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="52" t="s">
-        <v>1232</v>
+        <v>1393</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>1330</v>
+        <v>1394</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>846</v>
+        <v>1396</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>880</v>
+        <v>1397</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>633</v>
+        <v>1398</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>900</v>
+        <v>1399</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52" t="s">
-        <v>1233</v>
+        <v>1400</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>1234</v>
+        <v>1401</v>
       </c>
       <c r="N7" s="52" t="s">
-        <v>1235</v>
+        <v>1402</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>1236</v>
+        <v>1404</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>780</v>
+        <v>1405</v>
       </c>
       <c r="R7" s="52"/>
       <c r="S7" s="26"/>
@@ -8948,10 +9224,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1231</v>
+        <v>1183</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1374</v>
+        <v>1218</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>106</v>
@@ -8966,25 +9242,25 @@
         <v>182</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>1375</v>
+        <v>1219</v>
       </c>
       <c r="K9" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>1377</v>
+        <v>1221</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>1378</v>
+        <v>1222</v>
       </c>
       <c r="O9" s="38" t="s">
         <v>210</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>1379</v>
+        <v>1223</v>
       </c>
       <c r="Q9" s="38" t="s">
         <v>211</v>
@@ -9024,41 +9300,41 @@
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="52" t="s">
-        <v>1239</v>
+        <v>1406</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>1240</v>
+        <v>1407</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>1241</v>
+        <v>1409</v>
       </c>
       <c r="J11" s="52"/>
       <c r="K11" s="52" t="s">
-        <v>882</v>
+        <v>1410</v>
       </c>
       <c r="L11" s="52" t="s">
-        <v>1173</v>
+        <v>1384</v>
       </c>
       <c r="M11" s="52" t="s">
-        <v>782</v>
+        <v>1411</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>1242</v>
+        <v>1412</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>1243</v>
+        <v>1413</v>
       </c>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
@@ -9090,13 +9366,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>1237</v>
+        <v>1184</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>1380</v>
+        <v>1224</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>1381</v>
+        <v>1225</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>108</v>
@@ -9105,16 +9381,16 @@
         <v>168</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>1382</v>
+        <v>1226</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>1383</v>
+        <v>1227</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>1367</v>
+        <v>1211</v>
       </c>
       <c r="M13" s="38" t="s">
         <v>212</v>
@@ -9123,10 +9399,10 @@
         <v>108</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>1384</v>
+        <v>1228</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>1385</v>
+        <v>1229</v>
       </c>
       <c r="Q13" s="38" t="s">
         <v>103</v>
@@ -9167,41 +9443,41 @@
       <c r="B15" s="11"/>
       <c r="C15" s="31"/>
       <c r="D15" s="52" t="s">
-        <v>1244</v>
+        <v>1414</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>1176</v>
+        <v>1415</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>1245</v>
+        <v>1416</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>567</v>
+        <v>1417</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>1177</v>
+        <v>1418</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>621</v>
+        <v>1419</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="52" t="s">
-        <v>1178</v>
+        <v>1420</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>1179</v>
+        <v>1421</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>896</v>
+        <v>1422</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>1331</v>
+        <v>1423</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>484</v>
+        <v>1424</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
@@ -9233,19 +9509,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1386</v>
+        <v>1230</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>1387</v>
+        <v>1231</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>1388</v>
+        <v>1232</v>
       </c>
       <c r="I17" s="38" t="s">
         <v>118</v>
@@ -9254,7 +9530,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>1389</v>
+        <v>1233</v>
       </c>
       <c r="L17" s="38" t="s">
         <v>99</v>
@@ -9266,10 +9542,10 @@
         <v>210</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>1390</v>
+        <v>1234</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>1391</v>
+        <v>1235</v>
       </c>
       <c r="Q17" s="38" t="s">
         <v>30</v>
@@ -9310,41 +9586,41 @@
       <c r="B19" s="11"/>
       <c r="C19" s="31"/>
       <c r="D19" s="52" t="s">
-        <v>1325</v>
+        <v>1425</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>1181</v>
+        <v>1426</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>1181</v>
+        <v>1426</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>734</v>
+        <v>1427</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>1182</v>
+        <v>1428</v>
       </c>
       <c r="J19" s="52"/>
       <c r="K19" s="52" t="s">
-        <v>708</v>
+        <v>1429</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>1183</v>
+        <v>1430</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>1183</v>
+        <v>1430</v>
       </c>
       <c r="N19" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>738</v>
+        <v>1431</v>
       </c>
       <c r="P19" s="52" t="s">
-        <v>497</v>
+        <v>1432</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
@@ -9376,22 +9652,22 @@
         <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1393</v>
+        <v>1237</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>1393</v>
+        <v>1237</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>1394</v>
+        <v>1238</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>1395</v>
+        <v>1239</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>23</v>
@@ -9400,19 +9676,19 @@
         <v>170</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>1396</v>
+        <v>1240</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>1396</v>
+        <v>1240</v>
       </c>
       <c r="N21" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>1397</v>
+        <v>1241</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>1398</v>
+        <v>1242</v>
       </c>
       <c r="Q21" s="38" t="s">
         <v>30</v>
@@ -9449,41 +9725,41 @@
       <c r="B23" s="11"/>
       <c r="C23" s="31"/>
       <c r="D23" s="52" t="s">
-        <v>1222</v>
+        <v>1433</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>565</v>
+        <v>1434</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>605</v>
+        <v>1435</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>691</v>
+        <v>1436</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>1246</v>
+        <v>1437</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52" t="s">
-        <v>1185</v>
+        <v>1438</v>
       </c>
       <c r="L23" s="52" t="s">
-        <v>850</v>
+        <v>1439</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>798</v>
+        <v>1440</v>
       </c>
       <c r="N23" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>1186</v>
+        <v>1441</v>
       </c>
       <c r="P23" s="52" t="s">
-        <v>912</v>
+        <v>1442</v>
       </c>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
@@ -9515,10 +9791,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>1399</v>
+        <v>1243</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>110</v>
@@ -9530,16 +9806,16 @@
         <v>139</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>1400</v>
+        <v>1244</v>
       </c>
       <c r="J25" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>1401</v>
+        <v>1245</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>1402</v>
+        <v>1246</v>
       </c>
       <c r="M25" s="38" t="s">
         <v>219</v>
@@ -9548,7 +9824,7 @@
         <v>108</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>1403</v>
+        <v>1247</v>
       </c>
       <c r="P25" s="38" t="s">
         <v>296</v>
@@ -9588,29 +9864,29 @@
       <c r="B27" s="11"/>
       <c r="C27" s="31"/>
       <c r="D27" s="52" t="s">
-        <v>1223</v>
+        <v>1443</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>1327</v>
+        <v>1444</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>633</v>
+        <v>1398</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>591</v>
+        <v>1445</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="52" t="s">
-        <v>1332</v>
+        <v>1446</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>1188</v>
+        <v>1447</v>
       </c>
       <c r="K27" s="52" t="s">
-        <v>1332</v>
+        <v>1446</v>
       </c>
       <c r="L27" s="52" t="s">
-        <v>1189</v>
+        <v>1448</v>
       </c>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
@@ -9654,31 +9930,31 @@
         <v>7</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>1404</v>
+        <v>1248</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>1405</v>
+        <v>1249</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1406</v>
+        <v>1250</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>1407</v>
+        <v>1251</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>1408</v>
+        <v>1252</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>1407</v>
+        <v>1251</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>1409</v>
+        <v>1253</v>
       </c>
       <c r="M29" s="38" t="s">
         <v>30</v>
@@ -9727,29 +10003,29 @@
       <c r="B31" s="11"/>
       <c r="C31" s="31"/>
       <c r="D31" s="52" t="s">
-        <v>1224</v>
+        <v>1449</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>740</v>
+        <v>1450</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>1191</v>
+        <v>1451</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>1192</v>
+        <v>1452</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52" t="s">
-        <v>1193</v>
+        <v>1453</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>519</v>
+        <v>1454</v>
       </c>
       <c r="K31" s="52" t="s">
-        <v>1194</v>
+        <v>1455</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>1247</v>
+        <v>1456</v>
       </c>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
@@ -9793,31 +10069,31 @@
         <v>8</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>1410</v>
+        <v>1254</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>1411</v>
+        <v>1255</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>1412</v>
+        <v>1256</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>1413</v>
+        <v>1257</v>
       </c>
       <c r="J33" s="38" t="s">
         <v>32</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>1414</v>
+        <v>1258</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>1415</v>
+        <v>1259</v>
       </c>
       <c r="M33" s="38" t="s">
         <v>30</v>
@@ -9858,29 +10134,29 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="52" t="s">
-        <v>1225</v>
+        <v>1457</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>1196</v>
+        <v>1458</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>1333</v>
+        <v>1459</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>708</v>
+        <v>1429</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="52" t="s">
-        <v>489</v>
+        <v>1460</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>1197</v>
+        <v>1461</v>
       </c>
       <c r="K35" s="52" t="s">
-        <v>814</v>
+        <v>1462</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>1334</v>
+        <v>1463</v>
       </c>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
@@ -9916,31 +10192,31 @@
         <v>9</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>1416</v>
+        <v>1260</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>1417</v>
+        <v>1261</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>1418</v>
+        <v>1262</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>1419</v>
+        <v>1263</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>1420</v>
+        <v>1264</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>1421</v>
+        <v>1265</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>1422</v>
+        <v>1266</v>
       </c>
       <c r="M37" s="38" t="s">
         <v>30</v>
@@ -9981,29 +10257,29 @@
       <c r="B39" s="11"/>
       <c r="C39" s="31"/>
       <c r="D39" s="52" t="s">
-        <v>1226</v>
+        <v>1464</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>1199</v>
+        <v>1465</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1248</v>
+        <v>1466</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="52" t="s">
-        <v>1201</v>
+        <v>1468</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>862</v>
+        <v>1469</v>
       </c>
       <c r="K39" s="52" t="s">
-        <v>1202</v>
+        <v>1470</v>
       </c>
       <c r="L39" s="52" t="s">
-        <v>1335</v>
+        <v>1471</v>
       </c>
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
@@ -10039,16 +10315,16 @@
         <v>10</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>1423</v>
+        <v>1267</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>1424</v>
+        <v>1268</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>1425</v>
+        <v>1269</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>23</v>
@@ -10060,10 +10336,10 @@
         <v>262</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>1426</v>
+        <v>1270</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>1427</v>
+        <v>1271</v>
       </c>
       <c r="M41" s="38" t="s">
         <v>30</v>
@@ -10104,41 +10380,41 @@
       <c r="B43" s="11"/>
       <c r="C43" s="31"/>
       <c r="D43" s="52" t="s">
-        <v>1227</v>
+        <v>1472</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>543</v>
+        <v>1390</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1204</v>
+        <v>1473</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>1330</v>
+        <v>1394</v>
       </c>
       <c r="I43" s="52" t="s">
-        <v>1336</v>
+        <v>1474</v>
       </c>
       <c r="J43" s="52"/>
       <c r="K43" s="52" t="s">
-        <v>1249</v>
+        <v>1475</v>
       </c>
       <c r="L43" s="52" t="s">
-        <v>517</v>
+        <v>1476</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>1205</v>
+        <v>1477</v>
       </c>
       <c r="N43" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="O43" s="52" t="s">
-        <v>852</v>
+        <v>1478</v>
       </c>
       <c r="P43" s="52" t="s">
-        <v>1206</v>
+        <v>1479</v>
       </c>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
@@ -10170,34 +10446,34 @@
         <v>11</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>1428</v>
+        <v>1272</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>1429</v>
+        <v>1273</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>1374</v>
+        <v>1218</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>1430</v>
+        <v>1274</v>
       </c>
       <c r="J45" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>1431</v>
+        <v>1275</v>
       </c>
       <c r="L45" s="38" t="s">
         <v>115</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>1432</v>
+        <v>1276</v>
       </c>
       <c r="N45" s="38" t="s">
         <v>106</v>
@@ -10206,7 +10482,7 @@
         <v>256</v>
       </c>
       <c r="P45" s="38" t="s">
-        <v>1433</v>
+        <v>1277</v>
       </c>
       <c r="Q45" s="38" t="s">
         <v>23</v>
@@ -10243,41 +10519,41 @@
       <c r="B47" s="11"/>
       <c r="C47" s="31"/>
       <c r="D47" s="52" t="s">
-        <v>1250</v>
+        <v>1480</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>671</v>
+        <v>1481</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>1328</v>
+        <v>1482</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>599</v>
+        <v>1383</v>
       </c>
       <c r="I47" s="52" t="s">
-        <v>1208</v>
+        <v>1483</v>
       </c>
       <c r="J47" s="52"/>
       <c r="K47" s="52" t="s">
-        <v>1209</v>
+        <v>1484</v>
       </c>
       <c r="L47" s="52" t="s">
-        <v>1182</v>
+        <v>1428</v>
       </c>
       <c r="M47" s="52" t="s">
-        <v>1210</v>
+        <v>1485</v>
       </c>
       <c r="N47" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>900</v>
+        <v>1399</v>
       </c>
       <c r="P47" s="52" t="s">
-        <v>1211</v>
+        <v>1486</v>
       </c>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
@@ -10309,43 +10585,43 @@
         <v>12</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
       <c r="E49" s="38" t="s">
         <v>147</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>1434</v>
+        <v>1278</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>1435</v>
+        <v>1279</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>1436</v>
+        <v>1280</v>
       </c>
       <c r="J49" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>1437</v>
+        <v>1281</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>1438</v>
+        <v>1282</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>1439</v>
+        <v>1283</v>
       </c>
       <c r="N49" s="38" t="s">
         <v>108</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>1440</v>
+        <v>1284</v>
       </c>
       <c r="P49" s="38" t="s">
-        <v>1441</v>
+        <v>1285</v>
       </c>
       <c r="Q49" s="38" t="s">
         <v>30</v>
@@ -10382,41 +10658,41 @@
       <c r="B51" s="11"/>
       <c r="C51" s="31"/>
       <c r="D51" s="52" t="s">
-        <v>1337</v>
+        <v>1487</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>720</v>
+        <v>1488</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>1251</v>
+        <v>1489</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>1338</v>
+        <v>1490</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>1339</v>
+        <v>1491</v>
       </c>
       <c r="J51" s="52"/>
       <c r="K51" s="52" t="s">
-        <v>1247</v>
+        <v>1456</v>
       </c>
       <c r="L51" s="52" t="s">
-        <v>1212</v>
+        <v>1492</v>
       </c>
       <c r="M51" s="52" t="s">
-        <v>1213</v>
+        <v>1493</v>
       </c>
       <c r="N51" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O51" s="52" t="s">
-        <v>872</v>
+        <v>1494</v>
       </c>
       <c r="P51" s="52" t="s">
-        <v>1214</v>
+        <v>1495</v>
       </c>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
@@ -10454,37 +10730,37 @@
         <v>20</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>1442</v>
+        <v>1286</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>1443</v>
+        <v>1287</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>1444</v>
+        <v>1288</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="38" t="s">
-        <v>1415</v>
+        <v>1259</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>1445</v>
+        <v>1289</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>1446</v>
+        <v>1290</v>
       </c>
       <c r="N53" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>1447</v>
+        <v>1291</v>
       </c>
       <c r="P53" s="38" t="s">
-        <v>1448</v>
+        <v>1292</v>
       </c>
       <c r="Q53" s="38" t="s">
         <v>30</v>
@@ -10521,41 +10797,41 @@
       <c r="B55" s="11"/>
       <c r="C55" s="31"/>
       <c r="D55" s="52" t="s">
-        <v>1340</v>
+        <v>1496</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>1216</v>
+        <v>1497</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>1217</v>
+        <v>1498</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>1218</v>
+        <v>1499</v>
       </c>
       <c r="I55" s="52" t="s">
-        <v>1219</v>
+        <v>1500</v>
       </c>
       <c r="J55" s="52"/>
       <c r="K55" s="52" t="s">
-        <v>904</v>
+        <v>1501</v>
       </c>
       <c r="L55" s="52" t="s">
-        <v>1252</v>
+        <v>1502</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>525</v>
+        <v>1503</v>
       </c>
       <c r="N55" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O55" s="52" t="s">
-        <v>1220</v>
+        <v>1504</v>
       </c>
       <c r="P55" s="52" t="s">
-        <v>603</v>
+        <v>1505</v>
       </c>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
@@ -10587,22 +10863,22 @@
         <v>14</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>1215</v>
+        <v>1182</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>1449</v>
+        <v>1293</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>1450</v>
+        <v>1294</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>1451</v>
+        <v>1295</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>1452</v>
+        <v>1296</v>
       </c>
       <c r="J57" s="38" t="s">
         <v>23</v>
@@ -10611,16 +10887,16 @@
         <v>285</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>1453</v>
+        <v>1297</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>1454</v>
+        <v>1298</v>
       </c>
       <c r="N57" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>1455</v>
+        <v>1299</v>
       </c>
       <c r="P57" s="38" t="s">
         <v>109</v>
@@ -10660,41 +10936,41 @@
       <c r="B59" s="11"/>
       <c r="C59" s="31"/>
       <c r="D59" s="52" t="s">
-        <v>1254</v>
+        <v>1506</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>1255</v>
+        <v>1507</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>846</v>
+        <v>1396</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>1341</v>
+        <v>1508</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>1256</v>
+        <v>1509</v>
       </c>
       <c r="J59" s="52"/>
       <c r="K59" s="52" t="s">
-        <v>1342</v>
+        <v>1510</v>
       </c>
       <c r="L59" s="52" t="s">
-        <v>1257</v>
+        <v>1511</v>
       </c>
       <c r="M59" s="52" t="s">
-        <v>484</v>
+        <v>1424</v>
       </c>
       <c r="N59" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O59" s="52" t="s">
-        <v>882</v>
+        <v>1410</v>
       </c>
       <c r="P59" s="52" t="s">
-        <v>1258</v>
+        <v>1512</v>
       </c>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
@@ -10726,7 +11002,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>1253</v>
+        <v>1186</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>26</v>
@@ -10738,31 +11014,31 @@
         <v>106</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>1456</v>
+        <v>1300</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>1457</v>
+        <v>1301</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>1458</v>
+        <v>1302</v>
       </c>
       <c r="L61" s="38" t="s">
-        <v>1459</v>
+        <v>1303</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>1460</v>
+        <v>1304</v>
       </c>
       <c r="N61" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>1383</v>
+        <v>1227</v>
       </c>
       <c r="P61" s="38" t="s">
-        <v>1461</v>
+        <v>1305</v>
       </c>
       <c r="Q61" s="38" t="s">
         <v>30</v>
@@ -10799,41 +11075,41 @@
       <c r="B63" s="11"/>
       <c r="C63" s="31"/>
       <c r="D63" s="52" t="s">
-        <v>1260</v>
+        <v>1513</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>1261</v>
+        <v>1514</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>1261</v>
+        <v>1514</v>
       </c>
       <c r="G63" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>1329</v>
+        <v>1388</v>
       </c>
       <c r="I63" s="52" t="s">
-        <v>1248</v>
+        <v>1466</v>
       </c>
       <c r="J63" s="52"/>
       <c r="K63" s="52" t="s">
-        <v>744</v>
+        <v>1515</v>
       </c>
       <c r="L63" s="52" t="s">
-        <v>890</v>
+        <v>1516</v>
       </c>
       <c r="M63" s="52" t="s">
-        <v>489</v>
+        <v>1460</v>
       </c>
       <c r="N63" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O63" s="52" t="s">
-        <v>1343</v>
+        <v>1517</v>
       </c>
       <c r="P63" s="52" t="s">
-        <v>1262</v>
+        <v>1518</v>
       </c>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
@@ -10865,43 +11141,43 @@
         <v>16</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>1259</v>
+        <v>1187</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>1462</v>
+        <v>1306</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>1462</v>
+        <v>1306</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>1371</v>
+        <v>1215</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>1424</v>
+        <v>1268</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>1463</v>
+        <v>1307</v>
       </c>
       <c r="L65" s="38" t="s">
-        <v>1464</v>
+        <v>1308</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>1419</v>
+        <v>1263</v>
       </c>
       <c r="N65" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>1465</v>
+        <v>1309</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>1466</v>
+        <v>1310</v>
       </c>
       <c r="Q65" s="38" t="s">
         <v>30</v>
@@ -10938,35 +11214,35 @@
       <c r="B67" s="11"/>
       <c r="C67" s="31"/>
       <c r="D67" s="52" t="s">
-        <v>1221</v>
+        <v>1382</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>599</v>
+        <v>1383</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>1173</v>
+        <v>1384</v>
       </c>
       <c r="G67" s="52" t="s">
-        <v>1174</v>
+        <v>1385</v>
       </c>
       <c r="H67" s="52"/>
       <c r="I67" s="52" t="s">
-        <v>1344</v>
+        <v>1519</v>
       </c>
       <c r="J67" s="52" t="s">
-        <v>641</v>
+        <v>1520</v>
       </c>
       <c r="K67" s="52" t="s">
-        <v>1263</v>
+        <v>1521</v>
       </c>
       <c r="L67" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="M67" s="52" t="s">
-        <v>1345</v>
+        <v>1522</v>
       </c>
       <c r="N67" s="52" t="s">
-        <v>814</v>
+        <v>1462</v>
       </c>
       <c r="O67" s="52"/>
       <c r="P67" s="52"/>
@@ -11006,31 +11282,31 @@
         <v>199</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>1367</v>
+        <v>1211</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>1368</v>
+        <v>1212</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>267</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>1467</v>
+        <v>1311</v>
       </c>
       <c r="J69" s="38" t="s">
-        <v>1468</v>
+        <v>1312</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>1469</v>
+        <v>1313</v>
       </c>
       <c r="L69" s="38" t="s">
         <v>106</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>1470</v>
+        <v>1314</v>
       </c>
       <c r="N69" s="38" t="s">
-        <v>1471</v>
+        <v>1315</v>
       </c>
       <c r="O69" s="38" t="s">
         <v>30</v>
@@ -11069,41 +11345,41 @@
       <c r="B71" s="11"/>
       <c r="C71" s="31"/>
       <c r="D71" s="52" t="s">
-        <v>1265</v>
+        <v>1523</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>1201</v>
+        <v>1468</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>1266</v>
+        <v>1524</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>1346</v>
+        <v>1525</v>
       </c>
       <c r="I71" s="52" t="s">
-        <v>880</v>
+        <v>1397</v>
       </c>
       <c r="J71" s="52"/>
       <c r="K71" s="52" t="s">
-        <v>1267</v>
+        <v>1526</v>
       </c>
       <c r="L71" s="52" t="s">
-        <v>1268</v>
+        <v>1527</v>
       </c>
       <c r="M71" s="52" t="s">
-        <v>1269</v>
+        <v>1528</v>
       </c>
       <c r="N71" s="52" t="s">
-        <v>1174</v>
+        <v>1385</v>
       </c>
       <c r="O71" s="52" t="s">
-        <v>826</v>
+        <v>1529</v>
       </c>
       <c r="P71" s="52" t="s">
-        <v>874</v>
+        <v>1530</v>
       </c>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
@@ -11135,40 +11411,40 @@
         <v>18</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>1264</v>
+        <v>1188</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>1472</v>
+        <v>1316</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>210</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>1473</v>
+        <v>1317</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>1474</v>
+        <v>1318</v>
       </c>
       <c r="J73" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>1475</v>
+        <v>1319</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>1476</v>
+        <v>1320</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>1477</v>
+        <v>1321</v>
       </c>
       <c r="N73" s="38" t="s">
-        <v>1368</v>
+        <v>1212</v>
       </c>
       <c r="O73" s="38" t="s">
-        <v>1478</v>
+        <v>1322</v>
       </c>
       <c r="P73" s="38" t="s">
         <v>269</v>
@@ -11208,41 +11484,41 @@
       <c r="B75" s="11"/>
       <c r="C75" s="31"/>
       <c r="D75" s="52" t="s">
-        <v>1347</v>
+        <v>1531</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>1348</v>
+        <v>1532</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>1349</v>
+        <v>1533</v>
       </c>
       <c r="G75" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>1338</v>
+        <v>1490</v>
       </c>
       <c r="I75" s="52" t="s">
-        <v>1271</v>
+        <v>1534</v>
       </c>
       <c r="J75" s="52"/>
       <c r="K75" s="52" t="s">
-        <v>1272</v>
+        <v>1535</v>
       </c>
       <c r="L75" s="52" t="s">
-        <v>1273</v>
+        <v>1536</v>
       </c>
       <c r="M75" s="52" t="s">
-        <v>1350</v>
+        <v>1537</v>
       </c>
       <c r="N75" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="O75" s="52" t="s">
-        <v>675</v>
+        <v>1538</v>
       </c>
       <c r="P75" s="52" t="s">
-        <v>766</v>
+        <v>1539</v>
       </c>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
@@ -11274,13 +11550,13 @@
         <v>19</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>1270</v>
+        <v>1189</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>1479</v>
+        <v>1323</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>1480</v>
+        <v>1324</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>108</v>
@@ -11289,7 +11565,7 @@
         <v>157</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>1481</v>
+        <v>1325</v>
       </c>
       <c r="J77" s="38" t="s">
         <v>23</v>
@@ -11298,16 +11574,16 @@
         <v>251</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>1482</v>
+        <v>1326</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>1483</v>
+        <v>1327</v>
       </c>
       <c r="N77" s="38" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="38" t="s">
-        <v>1484</v>
+        <v>1328</v>
       </c>
       <c r="P77" s="38" t="s">
         <v>203</v>
@@ -11347,44 +11623,44 @@
       <c r="B79" s="11"/>
       <c r="C79" s="31"/>
       <c r="D79" s="52" t="s">
-        <v>1275</v>
+        <v>1540</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>541</v>
+        <v>1541</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>1276</v>
+        <v>1542</v>
       </c>
       <c r="G79" s="52" t="s">
-        <v>1229</v>
+        <v>1389</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="I79" s="52" t="s">
-        <v>515</v>
+        <v>1543</v>
       </c>
       <c r="J79" s="52" t="s">
-        <v>1277</v>
+        <v>1544</v>
       </c>
       <c r="K79" s="52"/>
       <c r="L79" s="52" t="s">
-        <v>1329</v>
+        <v>1388</v>
       </c>
       <c r="M79" s="52" t="s">
-        <v>1201</v>
+        <v>1468</v>
       </c>
       <c r="N79" s="52" t="s">
-        <v>1278</v>
+        <v>1545</v>
       </c>
       <c r="O79" s="52" t="s">
-        <v>1279</v>
+        <v>1546</v>
       </c>
       <c r="P79" s="52" t="s">
-        <v>1280</v>
+        <v>1547</v>
       </c>
       <c r="Q79" s="52" t="s">
-        <v>1281</v>
+        <v>1548</v>
       </c>
       <c r="R79" s="52"/>
       <c r="V79" s="59"/>
@@ -11415,16 +11691,16 @@
         <v>20</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>1274</v>
+        <v>1190</v>
       </c>
       <c r="E81" s="38" t="s">
         <v>37</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>1485</v>
+        <v>1329</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>1486</v>
+        <v>1330</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>106</v>
@@ -11433,28 +11709,28 @@
         <v>71</v>
       </c>
       <c r="J81" s="38" t="s">
-        <v>1487</v>
+        <v>1331</v>
       </c>
       <c r="K81" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>1371</v>
+        <v>1215</v>
       </c>
       <c r="M81" s="38" t="s">
         <v>19</v>
       </c>
       <c r="N81" s="38" t="s">
-        <v>1488</v>
+        <v>1332</v>
       </c>
       <c r="O81" s="38" t="s">
         <v>160</v>
       </c>
       <c r="P81" s="38" t="s">
-        <v>1489</v>
+        <v>1333</v>
       </c>
       <c r="Q81" s="38" t="s">
-        <v>1490</v>
+        <v>1334</v>
       </c>
       <c r="R81" s="38" t="s">
         <v>30</v>
@@ -11490,29 +11766,29 @@
       <c r="B83" s="11"/>
       <c r="C83" s="31"/>
       <c r="D83" s="52" t="s">
-        <v>1283</v>
+        <v>1549</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>1284</v>
+        <v>1550</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>894</v>
+        <v>1551</v>
       </c>
       <c r="G83" s="52" t="s">
-        <v>1351</v>
+        <v>1552</v>
       </c>
       <c r="H83" s="52"/>
       <c r="I83" s="52" t="s">
-        <v>1285</v>
+        <v>1553</v>
       </c>
       <c r="J83" s="52" t="s">
-        <v>1286</v>
+        <v>1554</v>
       </c>
       <c r="K83" s="52" t="s">
-        <v>1287</v>
+        <v>1555</v>
       </c>
       <c r="L83" s="52" t="s">
-        <v>1352</v>
+        <v>1556</v>
       </c>
       <c r="M83" s="52"/>
       <c r="N83" s="52"/>
@@ -11548,16 +11824,16 @@
         <v>21</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>1282</v>
+        <v>1191</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>1491</v>
+        <v>1335</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1492</v>
+        <v>1336</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>1493</v>
+        <v>1337</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>23</v>
@@ -11566,13 +11842,13 @@
         <v>236</v>
       </c>
       <c r="J85" s="38" t="s">
-        <v>1494</v>
+        <v>1338</v>
       </c>
       <c r="K85" s="38" t="s">
-        <v>1464</v>
+        <v>1308</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>1392</v>
+        <v>1236</v>
       </c>
       <c r="M85" s="38" t="s">
         <v>30</v>
@@ -11617,41 +11893,41 @@
       <c r="B87" s="11"/>
       <c r="C87" s="31"/>
       <c r="D87" s="52" t="s">
-        <v>1232</v>
+        <v>1393</v>
       </c>
       <c r="E87" s="52" t="s">
-        <v>1288</v>
+        <v>1557</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>1289</v>
+        <v>1558</v>
       </c>
       <c r="G87" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H87" s="52" t="s">
-        <v>1353</v>
+        <v>1559</v>
       </c>
       <c r="I87" s="52" t="s">
-        <v>1290</v>
+        <v>1560</v>
       </c>
       <c r="J87" s="52"/>
       <c r="K87" s="52" t="s">
-        <v>900</v>
+        <v>1399</v>
       </c>
       <c r="L87" s="52" t="s">
-        <v>1291</v>
+        <v>1561</v>
       </c>
       <c r="M87" s="52" t="s">
-        <v>1292</v>
+        <v>1562</v>
       </c>
       <c r="N87" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O87" s="52" t="s">
-        <v>792</v>
+        <v>1563</v>
       </c>
       <c r="P87" s="52" t="s">
-        <v>1293</v>
+        <v>1564</v>
       </c>
       <c r="Q87" s="52"/>
       <c r="R87" s="52"/>
@@ -11683,22 +11959,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>1231</v>
+        <v>1183</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>1495</v>
+        <v>1339</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>1496</v>
+        <v>1340</v>
       </c>
       <c r="G89" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H89" s="38" t="s">
-        <v>1497</v>
+        <v>1341</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>1498</v>
+        <v>1342</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>23</v>
@@ -11707,19 +11983,19 @@
         <v>283</v>
       </c>
       <c r="L89" s="38" t="s">
-        <v>1499</v>
+        <v>1343</v>
       </c>
       <c r="M89" s="38" t="s">
-        <v>1500</v>
+        <v>1344</v>
       </c>
       <c r="N89" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O89" s="38" t="s">
-        <v>1501</v>
+        <v>1345</v>
       </c>
       <c r="P89" s="38" t="s">
-        <v>1502</v>
+        <v>1346</v>
       </c>
       <c r="Q89" s="38" t="s">
         <v>30</v>
@@ -11756,26 +12032,26 @@
       <c r="B91" s="11"/>
       <c r="C91" s="31"/>
       <c r="D91" s="52" t="s">
-        <v>1295</v>
+        <v>1565</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>1188</v>
+        <v>1447</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>1188</v>
+        <v>1447</v>
       </c>
       <c r="G91" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H91" s="52" t="s">
-        <v>1296</v>
+        <v>1566</v>
       </c>
       <c r="I91" s="52" t="s">
-        <v>1202</v>
+        <v>1470</v>
       </c>
       <c r="J91" s="52"/>
       <c r="K91" s="52" t="s">
-        <v>1355</v>
+        <v>1199</v>
       </c>
       <c r="L91" s="52" t="s">
         <v>603</v>
@@ -11787,7 +12063,7 @@
         <v>778</v>
       </c>
       <c r="O91" s="52" t="s">
-        <v>1356</v>
+        <v>1200</v>
       </c>
       <c r="P91" s="52" t="s">
         <v>563</v>
@@ -11822,43 +12098,43 @@
         <v>23</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>1294</v>
+        <v>1192</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>1408</v>
+        <v>1252</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>1408</v>
+        <v>1252</v>
       </c>
       <c r="G93" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>1503</v>
+        <v>1347</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>1504</v>
+        <v>1348</v>
       </c>
       <c r="J93" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K93" s="38" t="s">
-        <v>1505</v>
+        <v>1349</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>1506</v>
+        <v>1350</v>
       </c>
       <c r="M93" s="38" t="s">
-        <v>1506</v>
+        <v>1350</v>
       </c>
       <c r="N93" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O93" s="38" t="s">
-        <v>1507</v>
+        <v>1351</v>
       </c>
       <c r="P93" s="38" t="s">
-        <v>1451</v>
+        <v>1295</v>
       </c>
       <c r="Q93" s="38" t="s">
         <v>30</v>
@@ -11895,41 +12171,41 @@
       <c r="B95" s="11"/>
       <c r="C95" s="31"/>
       <c r="D95" s="52" t="s">
-        <v>1298</v>
+        <v>1567</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>647</v>
+        <v>1568</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>689</v>
+        <v>1569</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>523</v>
+        <v>1570</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>904</v>
+        <v>1501</v>
       </c>
       <c r="J95" s="52"/>
       <c r="K95" s="52" t="s">
-        <v>776</v>
+        <v>1571</v>
       </c>
       <c r="L95" s="52" t="s">
-        <v>914</v>
+        <v>1572</v>
       </c>
       <c r="M95" s="52" t="s">
-        <v>722</v>
+        <v>1573</v>
       </c>
       <c r="N95" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="O95" s="52" t="s">
-        <v>633</v>
+        <v>1398</v>
       </c>
       <c r="P95" s="52" t="s">
-        <v>1299</v>
+        <v>1574</v>
       </c>
       <c r="Q95" s="52"/>
       <c r="R95" s="52"/>
@@ -11961,7 +12237,7 @@
         <v>24</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1297</v>
+        <v>1193</v>
       </c>
       <c r="E97" s="38" t="s">
         <v>134</v>
@@ -11988,7 +12264,7 @@
         <v>297</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>1508</v>
+        <v>1352</v>
       </c>
       <c r="N97" s="38" t="s">
         <v>108</v>
@@ -11997,7 +12273,7 @@
         <v>185</v>
       </c>
       <c r="P97" s="38" t="s">
-        <v>1509</v>
+        <v>1353</v>
       </c>
       <c r="Q97" s="38" t="s">
         <v>30</v>
@@ -12034,35 +12310,35 @@
       <c r="B99" s="11"/>
       <c r="C99" s="31"/>
       <c r="D99" s="52" t="s">
-        <v>1300</v>
+        <v>1575</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>695</v>
+        <v>1576</v>
       </c>
       <c r="G99" s="52"/>
       <c r="H99" s="52" t="s">
-        <v>1301</v>
+        <v>1577</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>633</v>
+        <v>1398</v>
       </c>
       <c r="J99" s="52" t="s">
-        <v>591</v>
+        <v>1445</v>
       </c>
       <c r="K99" s="52" t="s">
-        <v>1302</v>
+        <v>1578</v>
       </c>
       <c r="L99" s="52" t="s">
-        <v>1267</v>
+        <v>1526</v>
       </c>
       <c r="M99" s="52" t="s">
-        <v>1303</v>
+        <v>1579</v>
       </c>
       <c r="N99" s="52" t="s">
-        <v>904</v>
+        <v>1501</v>
       </c>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
@@ -12096,7 +12372,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>1238</v>
+        <v>1185</v>
       </c>
       <c r="E101" s="38" t="s">
         <v>142</v>
@@ -12108,22 +12384,22 @@
         <v>267</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>1510</v>
+        <v>1354</v>
       </c>
       <c r="I101" s="38" t="s">
         <v>182</v>
       </c>
       <c r="J101" s="38" t="s">
-        <v>1406</v>
+        <v>1250</v>
       </c>
       <c r="K101" s="38" t="s">
-        <v>1511</v>
+        <v>1355</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>1475</v>
+        <v>1319</v>
       </c>
       <c r="M101" s="38" t="s">
-        <v>1512</v>
+        <v>1356</v>
       </c>
       <c r="N101" s="38" t="s">
         <v>285</v>
@@ -12165,47 +12441,47 @@
       <c r="B103" s="11"/>
       <c r="C103" s="31"/>
       <c r="D103" s="52" t="s">
-        <v>1537</v>
+        <v>1580</v>
       </c>
       <c r="E103" s="52" t="s">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="F103" s="52" t="s">
-        <v>1538</v>
+        <v>1581</v>
       </c>
       <c r="G103" s="52" t="s">
-        <v>846</v>
+        <v>1396</v>
       </c>
       <c r="H103" s="52" t="s">
-        <v>1539</v>
+        <v>1582</v>
       </c>
       <c r="I103" s="52" t="s">
-        <v>645</v>
+        <v>1583</v>
       </c>
       <c r="J103" s="52" t="s">
-        <v>1218</v>
+        <v>1499</v>
       </c>
       <c r="K103" s="52"/>
       <c r="L103" s="52" t="s">
-        <v>543</v>
+        <v>1390</v>
       </c>
       <c r="M103" s="52" t="s">
-        <v>1540</v>
+        <v>1584</v>
       </c>
       <c r="N103" s="52" t="s">
-        <v>1541</v>
+        <v>1585</v>
       </c>
       <c r="O103" s="52" t="s">
-        <v>1541</v>
+        <v>1585</v>
       </c>
       <c r="P103" s="52" t="s">
-        <v>1542</v>
+        <v>1586</v>
       </c>
       <c r="Q103" s="52" t="s">
-        <v>543</v>
+        <v>1390</v>
       </c>
       <c r="R103" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="V103" s="33"/>
     </row>
@@ -12235,43 +12511,43 @@
         <v>26</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>1304</v>
+        <v>1194</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>168</v>
       </c>
       <c r="F105" s="38" t="s">
-        <v>1513</v>
+        <v>1357</v>
       </c>
       <c r="G105" s="38" t="s">
         <v>253</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>1514</v>
+        <v>1358</v>
       </c>
       <c r="I105" s="38" t="s">
         <v>199</v>
       </c>
       <c r="J105" s="38" t="s">
-        <v>1515</v>
+        <v>1359</v>
       </c>
       <c r="K105" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>1373</v>
+        <v>1217</v>
       </c>
       <c r="M105" s="38" t="s">
         <v>273</v>
       </c>
       <c r="N105" s="38" t="s">
-        <v>1516</v>
+        <v>1360</v>
       </c>
       <c r="O105" s="38" t="s">
-        <v>1516</v>
+        <v>1360</v>
       </c>
       <c r="P105" s="38" t="s">
-        <v>1517</v>
+        <v>1361</v>
       </c>
       <c r="Q105" s="38" t="s">
         <v>252</v>
@@ -12399,35 +12675,35 @@
       <c r="B111" s="11"/>
       <c r="C111" s="31"/>
       <c r="D111" s="52" t="s">
-        <v>1306</v>
+        <v>1587</v>
       </c>
       <c r="E111" s="52" t="s">
-        <v>1307</v>
+        <v>1588</v>
       </c>
       <c r="F111" s="52" t="s">
-        <v>484</v>
+        <v>1424</v>
       </c>
       <c r="G111" s="52" t="s">
-        <v>914</v>
+        <v>1572</v>
       </c>
       <c r="H111" s="52" t="s">
-        <v>1308</v>
+        <v>1589</v>
       </c>
       <c r="I111" s="52"/>
       <c r="J111" s="52" t="s">
-        <v>1309</v>
+        <v>1590</v>
       </c>
       <c r="K111" s="52" t="s">
-        <v>1310</v>
+        <v>1591</v>
       </c>
       <c r="L111" s="52" t="s">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="M111" s="52" t="s">
-        <v>1242</v>
+        <v>1412</v>
       </c>
       <c r="N111" s="52" t="s">
-        <v>567</v>
+        <v>1417</v>
       </c>
       <c r="O111" s="52"/>
       <c r="P111" s="52"/>
@@ -12461,25 +12737,25 @@
         <v>28</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>1305</v>
+        <v>1195</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>1518</v>
+        <v>1362</v>
       </c>
       <c r="F113" s="49" t="s">
-        <v>1391</v>
+        <v>1235</v>
       </c>
       <c r="G113" s="49" t="s">
         <v>297</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>1519</v>
+        <v>1363</v>
       </c>
       <c r="I113" s="49" t="s">
         <v>23</v>
       </c>
       <c r="J113" s="49" t="s">
-        <v>1520</v>
+        <v>1364</v>
       </c>
       <c r="K113" s="49" t="s">
         <v>202</v>
@@ -12488,10 +12764,10 @@
         <v>168</v>
       </c>
       <c r="M113" s="49" t="s">
-        <v>1384</v>
+        <v>1228</v>
       </c>
       <c r="N113" s="49" t="s">
-        <v>1521</v>
+        <v>1365</v>
       </c>
       <c r="O113" s="49" t="s">
         <v>30</v>
@@ -12534,41 +12810,41 @@
       <c r="B115" s="11"/>
       <c r="C115" s="31"/>
       <c r="D115" s="52" t="s">
-        <v>1312</v>
+        <v>1592</v>
       </c>
       <c r="E115" s="52" t="s">
-        <v>1313</v>
+        <v>1593</v>
       </c>
       <c r="F115" s="52" t="s">
-        <v>850</v>
+        <v>1439</v>
       </c>
       <c r="G115" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H115" s="52" t="s">
-        <v>1287</v>
+        <v>1555</v>
       </c>
       <c r="I115" s="52" t="s">
-        <v>1240</v>
+        <v>1407</v>
       </c>
       <c r="J115" s="52"/>
       <c r="K115" s="52" t="s">
-        <v>1285</v>
+        <v>1553</v>
       </c>
       <c r="L115" s="52" t="s">
-        <v>1314</v>
+        <v>1594</v>
       </c>
       <c r="M115" s="52" t="s">
-        <v>555</v>
+        <v>1595</v>
       </c>
       <c r="N115" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O115" s="52" t="s">
-        <v>1315</v>
+        <v>1596</v>
       </c>
       <c r="P115" s="52" t="s">
-        <v>519</v>
+        <v>1454</v>
       </c>
       <c r="Q115" s="52"/>
       <c r="R115" s="52"/>
@@ -12600,22 +12876,22 @@
         <v>29</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>1311</v>
+        <v>1196</v>
       </c>
       <c r="E117" s="38" t="s">
-        <v>1522</v>
+        <v>1366</v>
       </c>
       <c r="F117" s="38" t="s">
-        <v>1523</v>
+        <v>1367</v>
       </c>
       <c r="G117" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H117" s="38" t="s">
-        <v>1464</v>
+        <v>1308</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>1381</v>
+        <v>1225</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>23</v>
@@ -12624,19 +12900,19 @@
         <v>236</v>
       </c>
       <c r="L117" s="38" t="s">
-        <v>1524</v>
+        <v>1368</v>
       </c>
       <c r="M117" s="38" t="s">
-        <v>1525</v>
+        <v>1369</v>
       </c>
       <c r="N117" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>1526</v>
+        <v>1370</v>
       </c>
       <c r="P117" s="38" t="s">
-        <v>1527</v>
+        <v>1371</v>
       </c>
       <c r="Q117" s="38" t="s">
         <v>23</v>
@@ -12673,41 +12949,41 @@
       <c r="B119" s="11"/>
       <c r="C119" s="31"/>
       <c r="D119" s="52" t="s">
-        <v>1317</v>
+        <v>1597</v>
       </c>
       <c r="E119" s="52" t="s">
-        <v>1318</v>
+        <v>1598</v>
       </c>
       <c r="F119" s="52" t="s">
-        <v>890</v>
+        <v>1516</v>
       </c>
       <c r="G119" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H119" s="52" t="s">
-        <v>754</v>
+        <v>1599</v>
       </c>
       <c r="I119" s="52" t="s">
-        <v>746</v>
+        <v>1600</v>
       </c>
       <c r="J119" s="52"/>
       <c r="K119" s="52" t="s">
-        <v>864</v>
+        <v>1601</v>
       </c>
       <c r="L119" s="52" t="s">
-        <v>1326</v>
+        <v>1602</v>
       </c>
       <c r="M119" s="52" t="s">
-        <v>1218</v>
+        <v>1499</v>
       </c>
       <c r="N119" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O119" s="52" t="s">
-        <v>583</v>
+        <v>1603</v>
       </c>
       <c r="P119" s="52" t="s">
-        <v>581</v>
+        <v>1604</v>
       </c>
       <c r="Q119" s="52"/>
       <c r="R119" s="52"/>
@@ -12739,19 +13015,19 @@
         <v>30</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>1316</v>
+        <v>1197</v>
       </c>
       <c r="E121" s="38" t="s">
-        <v>1528</v>
+        <v>1372</v>
       </c>
       <c r="F121" s="38" t="s">
-        <v>1529</v>
+        <v>1373</v>
       </c>
       <c r="G121" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H121" s="38" t="s">
-        <v>1530</v>
+        <v>1374</v>
       </c>
       <c r="I121" s="38" t="s">
         <v>194</v>
@@ -12763,10 +13039,10 @@
         <v>263</v>
       </c>
       <c r="L121" s="38" t="s">
-        <v>1531</v>
+        <v>1375</v>
       </c>
       <c r="M121" s="38" t="s">
-        <v>1451</v>
+        <v>1295</v>
       </c>
       <c r="N121" s="38" t="s">
         <v>210</v>
@@ -12812,44 +13088,44 @@
       <c r="B123" s="11"/>
       <c r="C123" s="31"/>
       <c r="D123" s="52" t="s">
-        <v>1320</v>
+        <v>1605</v>
       </c>
       <c r="E123" s="52" t="s">
-        <v>1321</v>
+        <v>1606</v>
       </c>
       <c r="F123" s="52" t="s">
-        <v>1322</v>
+        <v>1607</v>
       </c>
       <c r="G123" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>916</v>
+        <v>1608</v>
       </c>
       <c r="I123" s="52" t="s">
-        <v>1354</v>
+        <v>1609</v>
       </c>
       <c r="J123" s="52"/>
       <c r="K123" s="52" t="s">
-        <v>1272</v>
+        <v>1535</v>
       </c>
       <c r="L123" s="52" t="s">
-        <v>605</v>
+        <v>1435</v>
       </c>
       <c r="M123" s="52" t="s">
-        <v>796</v>
+        <v>1610</v>
       </c>
       <c r="N123" s="52" t="s">
-        <v>1284</v>
+        <v>1550</v>
       </c>
       <c r="O123" s="52" t="s">
-        <v>1267</v>
+        <v>1526</v>
       </c>
       <c r="P123" s="52" t="s">
-        <v>1323</v>
+        <v>1611</v>
       </c>
       <c r="Q123" s="52" t="s">
-        <v>1324</v>
+        <v>1612</v>
       </c>
       <c r="R123" s="52"/>
       <c r="V123" s="33"/>
@@ -12880,13 +13156,13 @@
         <v>31</v>
       </c>
       <c r="D125" s="38" t="s">
-        <v>1319</v>
+        <v>1198</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>1532</v>
+        <v>1376</v>
       </c>
       <c r="F125" s="38" t="s">
-        <v>1533</v>
+        <v>1377</v>
       </c>
       <c r="G125" s="38" t="s">
         <v>106</v>
@@ -12895,7 +13171,7 @@
         <v>299</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>1534</v>
+        <v>1378</v>
       </c>
       <c r="J125" s="38" t="s">
         <v>23</v>
@@ -12910,16 +13186,16 @@
         <v>218</v>
       </c>
       <c r="N125" s="38" t="s">
-        <v>1491</v>
+        <v>1335</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>1475</v>
+        <v>1319</v>
       </c>
       <c r="P125" s="38" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
       <c r="Q125" s="38" t="s">
-        <v>1535</v>
+        <v>1379</v>
       </c>
       <c r="R125" s="38" t="s">
         <v>30</v>
@@ -12997,7 +13273,7 @@
         <v>32</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>1536</v>
+        <v>1380</v>
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38"/>

--- a/output7/【河洛文讀注音-閩拼調號】《歸去來辭》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《歸去來辭》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A7B2CA-9C5A-4C1A-81A2-290DAF64DD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E0AE13-0530-496A-935A-6F589BFFC9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11135" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11135" uniqueCount="1397">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1269,9 +1269,6 @@
     <t>(121, 5)</t>
   </si>
   <si>
-    <t>Tho57-Hua17-Guan57-Ki2.jpg</t>
-  </si>
-  <si>
     <t>tian5</t>
   </si>
   <si>
@@ -1280,14 +1277,6 @@
   </si>
   <si>
     <t>dian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wu6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2854,17 +2843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ziang3</t>
-  </si>
-  <si>
-    <t>ziang3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bu5</t>
   </si>
   <si>
@@ -3317,17 +3295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zainn2</t>
-  </si>
-  <si>
-    <t>zainn2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>znai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phun1</t>
   </si>
   <si>
@@ -3975,9 +3942,6 @@
     <t>se3</t>
   </si>
   <si>
-    <t>u7</t>
-  </si>
-  <si>
     <t>ngoo2</t>
   </si>
   <si>
@@ -4055,17 +4019,6 @@
     <t>(77, 16)</t>
   </si>
   <si>
-    <t>iat8</t>
-  </si>
-  <si>
-    <t>iat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cin1</t>
   </si>
   <si>
@@ -4956,6 +4909,43 @@
   </si>
   <si>
     <t>雅俗通</t>
+  </si>
+  <si>
+    <t>Gui-Ku-Lai-Su.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai7</t>
+  </si>
+  <si>
+    <t>zai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong3</t>
+  </si>
+  <si>
+    <t>ziong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uat8</t>
+  </si>
+  <si>
+    <t>uat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5339,7 +5329,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5501,6 +5491,17 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5855,7 +5856,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -5903,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -5911,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5919,7 +5920,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>323</v>
+        <v>1387</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -6015,7 +6016,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -6070,16 +6071,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="B1" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="C1" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="D1" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
@@ -6098,21 +6099,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="B1" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="C1" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="D1" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -6121,7 +6122,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6129,69 +6130,69 @@
         <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6224,30 +6225,30 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6255,49 +6256,49 @@
         <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>1391</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -6308,35 +6309,35 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -6345,68 +6346,68 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B19" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B22" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -6415,113 +6416,113 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B24" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B25" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B27" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B29" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B30" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B31" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -6532,128 +6533,128 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B32" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B33" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B34" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B39" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6672,10 +6673,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -6686,10 +6687,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -6700,38 +6701,38 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -6742,10 +6743,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -6756,142 +6757,142 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6905,7 +6906,7 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6919,141 +6920,141 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -7064,10 +7065,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -7078,7 +7079,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -7087,35 +7088,35 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s">
-        <v>911</v>
+        <v>1388</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7129,43 +7130,43 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B76" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7176,94 +7177,94 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B78" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B79" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B80" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B81" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B82" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B83" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B84" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7274,10 +7275,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B85" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7288,77 +7289,77 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B86" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B87" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B88" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B89" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B90" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B91" t="s">
         <v>84</v>
@@ -7367,15 +7368,15 @@
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B92" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -7386,35 +7387,35 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B93" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B94" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B95" t="s">
         <v>65</v>
@@ -7423,21 +7424,21 @@
         <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B96" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7451,29 +7452,29 @@
         <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B98" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -7484,66 +7485,66 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B100" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B101" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B102" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B103" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B104" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -7554,30 +7555,30 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B105" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B106" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7596,10 +7597,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B108" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -7610,10 +7611,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B109" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -7624,7 +7625,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
@@ -7633,26 +7634,26 @@
         <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B111" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B112" t="s">
         <v>18</v>
@@ -7661,29 +7662,29 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B113" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B114" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -7694,10 +7695,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B115" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -7708,24 +7709,24 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B116" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B117" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -7736,86 +7737,86 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B118" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B119" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B120" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B121" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B122" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B123" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -7829,211 +7830,211 @@
         <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B125" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B126" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B127" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
       </c>
       <c r="D127" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B128" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B129" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
       </c>
       <c r="D129" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B130" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B131" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B132" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B133" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B134" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B135" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B136" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B137" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
       </c>
       <c r="D137" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B138" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B139" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -8044,24 +8045,24 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B140" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
       </c>
       <c r="D140" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B141" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -8072,30 +8073,30 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B142" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
       </c>
       <c r="D142" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B143" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
       </c>
       <c r="D143" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8109,12 +8110,12 @@
         <v>27</v>
       </c>
       <c r="D144" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B145" t="s">
         <v>21</v>
@@ -8123,68 +8124,68 @@
         <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B146" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
       </c>
       <c r="D146" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B147" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B148" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B149" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B150" t="s">
         <v>280</v>
@@ -8193,26 +8194,26 @@
         <v>27</v>
       </c>
       <c r="D150" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B151" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B152" t="s">
         <v>65</v>
@@ -8226,16 +8227,16 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B153" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8249,138 +8250,138 @@
         <v>27</v>
       </c>
       <c r="D154" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B155" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
       </c>
       <c r="D155" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B156" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B157" t="s">
-        <v>1107</v>
+        <v>902</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B158" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B159" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B160" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B161" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B162" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B163" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
@@ -8389,253 +8390,253 @@
         <v>27</v>
       </c>
       <c r="D164" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B165" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B166" t="s">
-        <v>1131</v>
+        <v>1394</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
       </c>
       <c r="D166" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B167" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B168" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B169" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="C169" t="s">
         <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B170" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
       </c>
       <c r="D170" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B171" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
       </c>
       <c r="D171" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B172" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
       </c>
       <c r="D172" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B173" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
       </c>
       <c r="D173" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B174" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
       </c>
       <c r="D174" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B175" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B176" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
       </c>
       <c r="D176" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B177" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
       </c>
       <c r="D177" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B178" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B179" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
       </c>
       <c r="D179" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B180" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
       </c>
       <c r="D180" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B181" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B182" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -8646,80 +8647,80 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B183" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B184" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
       </c>
       <c r="D184" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B185" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
       </c>
       <c r="D185" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B186" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
       </c>
       <c r="D186" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B187" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
       </c>
       <c r="D187" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B188" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -8730,52 +8731,52 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B189" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
       </c>
       <c r="D189" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B190" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
       </c>
       <c r="D190" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B191" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
       </c>
       <c r="D191" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B192" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="C192" t="s">
         <v>27</v>
@@ -8795,29 +8796,29 @@
         <v>27</v>
       </c>
       <c r="D193" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B194" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
       </c>
       <c r="D194" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B195" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -8828,72 +8829,72 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B196" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
       </c>
       <c r="D196" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B197" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
       </c>
       <c r="D197" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B198" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C198" t="s">
         <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B199" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
       </c>
       <c r="D199" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B200" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
       </c>
       <c r="D200" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -8901,167 +8902,167 @@
         <v>249</v>
       </c>
       <c r="B201" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
       </c>
       <c r="D201" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B202" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
       </c>
       <c r="D202" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B203" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
       </c>
       <c r="D203" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B204" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
       </c>
       <c r="D204" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B205" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
       </c>
       <c r="D205" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B206" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
       </c>
       <c r="D206" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B207" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
       </c>
       <c r="D207" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B208" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
       </c>
       <c r="D208" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B209" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
       </c>
       <c r="D209" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B210" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
       </c>
       <c r="D210" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B211" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
       </c>
       <c r="D211" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B212" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
       </c>
       <c r="D212" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -9075,82 +9076,82 @@
         <v>27</v>
       </c>
       <c r="D213" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B214" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
       </c>
       <c r="D214" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B215" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
       </c>
       <c r="D215" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B216" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
       </c>
       <c r="D216" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B217" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
       </c>
       <c r="D217" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B218" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
       </c>
       <c r="D218" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B219" t="s">
         <v>268</v>
@@ -9159,15 +9160,15 @@
         <v>27</v>
       </c>
       <c r="D219" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B220" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -9178,10 +9179,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B221" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -9192,94 +9193,94 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B222" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
       </c>
       <c r="D222" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B223" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
       </c>
       <c r="D223" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B224" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
       </c>
       <c r="D224" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B225" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
       </c>
       <c r="D225" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B226" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="C226" t="s">
         <v>27</v>
       </c>
       <c r="D226" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B227" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
       <c r="C227" t="s">
         <v>27</v>
       </c>
       <c r="D227" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B228" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="C228" t="s">
         <v>27</v>
@@ -9290,66 +9291,66 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B229" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
       </c>
       <c r="D229" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B230" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
       </c>
       <c r="D230" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B231" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C231" t="s">
         <v>27</v>
       </c>
       <c r="D231" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B232" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
       <c r="C232" t="s">
         <v>27</v>
       </c>
       <c r="D232" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B233" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="C233" t="s">
         <v>27</v>
@@ -9360,133 +9361,133 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B234" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
       </c>
       <c r="D234" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B235" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
       </c>
       <c r="D235" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B236" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
       </c>
       <c r="D236" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B237" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="C237" t="s">
         <v>27</v>
       </c>
       <c r="D237" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B238" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="C238" t="s">
         <v>27</v>
       </c>
       <c r="D238" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B239" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="C239" t="s">
         <v>27</v>
       </c>
       <c r="D239" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B240" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
       <c r="C240" t="s">
         <v>27</v>
       </c>
       <c r="D240" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B241" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
       </c>
       <c r="D241" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B242" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="C242" t="s">
         <v>27</v>
       </c>
       <c r="D242" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B243" t="s">
         <v>24</v>
@@ -9495,133 +9496,133 @@
         <v>27</v>
       </c>
       <c r="D243" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B244" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
       </c>
       <c r="D244" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B245" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
       </c>
       <c r="D245" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B246" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
       </c>
       <c r="D246" t="s">
-        <v>1357</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B247" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="C247" t="s">
         <v>27</v>
       </c>
       <c r="D247" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B248" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
       </c>
       <c r="D248" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B249" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
       </c>
       <c r="D249" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B250" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
       </c>
       <c r="D250" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B251" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
       </c>
       <c r="D251" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B252" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
       </c>
       <c r="D252" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
     </row>
   </sheetData>
@@ -9640,16 +9641,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="B1" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="C1" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="D1" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
@@ -9663,8 +9664,8 @@
   <dimension ref="A1:V803"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -9830,7 +9831,7 @@
       </c>
       <c r="T3" s="13"/>
       <c r="V3" s="51" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9842,7 +9843,7 @@
         <v>300</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>126</v>
@@ -9893,7 +9894,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>248</v>
@@ -9914,7 +9915,7 @@
         <v>102</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M5" s="45" t="s">
         <v>212</v>
@@ -9969,7 +9970,7 @@
         <v>99</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="M6" s="43" t="s">
         <v>260</v>
@@ -10053,31 +10054,31 @@
         <v>300</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>126</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>99</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>775</v>
+        <v>1392</v>
       </c>
       <c r="L8" s="43" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="N8" s="43" t="s">
         <v>43</v>
@@ -10105,7 +10106,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>248</v>
@@ -10114,34 +10115,34 @@
         <v>108</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I9" s="45" t="s">
         <v>226</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N9" s="45" t="s">
         <v>103</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P9" s="45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="45" t="str">
         <f>CHAR(10)</f>
@@ -10169,25 +10170,25 @@
         <v>127</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>99</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>776</v>
+        <v>1393</v>
       </c>
       <c r="L10" s="43" t="s">
         <v>128</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N10" s="43" t="s">
         <v>117</v>
@@ -10271,10 +10272,10 @@
         <v>196</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>55</v>
@@ -10283,28 +10284,28 @@
         <v>39</v>
       </c>
       <c r="J12" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="M12" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="K12" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" s="43" t="s">
+      <c r="N12" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="O12" s="43" t="s">
         <v>798</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="P12" s="43" t="s">
         <v>801</v>
       </c>
-      <c r="O12" s="43" t="s">
+      <c r="Q12" s="43" t="s">
         <v>804</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q12" s="43" t="s">
-        <v>810</v>
       </c>
       <c r="R12" s="43" t="s">
         <v>99</v>
@@ -10326,43 +10327,43 @@
         <v>160</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>218</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>104</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P13" s="45" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="45" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="R13" s="45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S13" s="48" t="s">
         <v>99</v>
@@ -10378,10 +10379,10 @@
         <v>197</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>122</v>
@@ -10390,28 +10391,28 @@
         <v>131</v>
       </c>
       <c r="J14" s="43" t="s">
+        <v>787</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="M14" s="43" t="s">
         <v>793</v>
       </c>
-      <c r="K14" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="43" t="s">
+      <c r="N14" s="43" t="s">
         <v>796</v>
       </c>
-      <c r="M14" s="43" t="s">
+      <c r="O14" s="43" t="s">
         <v>799</v>
       </c>
-      <c r="N14" s="43" t="s">
+      <c r="P14" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="O14" s="43" t="s">
+      <c r="Q14" s="44" t="s">
         <v>805</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q14" s="44" t="s">
-        <v>811</v>
       </c>
       <c r="R14" s="44" t="s">
         <v>99</v>
@@ -10477,10 +10478,10 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="14"/>
       <c r="D16" s="43" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>140</v>
@@ -10492,7 +10493,7 @@
         <v>43</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>99</v>
@@ -10510,10 +10511,10 @@
         <v>37</v>
       </c>
       <c r="O16" s="43" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="P16" s="43" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="Q16" s="43" t="s">
         <v>99</v>
@@ -10532,10 +10533,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>227</v>
@@ -10547,7 +10548,7 @@
         <v>103</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J17" s="45" t="s">
         <v>104</v>
@@ -10565,13 +10566,13 @@
         <v>110</v>
       </c>
       <c r="O17" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q17" s="45" t="s">
         <v>386</v>
-      </c>
-      <c r="P17" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q17" s="45" t="s">
-        <v>389</v>
       </c>
       <c r="R17" s="45" t="str">
         <f>CHAR(10)</f>
@@ -10586,10 +10587,10 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="16"/>
       <c r="D18" s="43" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>272</v>
@@ -10601,7 +10602,7 @@
         <v>117</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>99</v>
@@ -10619,10 +10620,10 @@
         <v>37</v>
       </c>
       <c r="O18" s="43" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="P18" s="43" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>99</v>
@@ -10697,7 +10698,7 @@
         <v>296</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>33</v>
@@ -10712,7 +10713,7 @@
         <v>99</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="L20" s="43" t="s">
         <v>34</v>
@@ -10721,13 +10722,13 @@
         <v>58</v>
       </c>
       <c r="N20" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="P20" s="43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="Q20" s="43" t="s">
         <v>99</v>
@@ -10746,13 +10747,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>255</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>151</v>
@@ -10767,7 +10768,7 @@
         <v>104</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L21" s="45" t="s">
         <v>159</v>
@@ -10776,13 +10777,13 @@
         <v>107</v>
       </c>
       <c r="N21" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O21" s="45" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q21" s="45" t="s">
         <v>106</v>
@@ -10806,7 +10807,7 @@
         <v>297</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>93</v>
@@ -10821,7 +10822,7 @@
         <v>99</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="L22" s="43" t="s">
         <v>129</v>
@@ -10830,13 +10831,13 @@
         <v>94</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="P22" s="43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="Q22" s="44" t="s">
         <v>99</v>
@@ -10905,19 +10906,19 @@
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="14"/>
       <c r="D24" s="43" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="I24" s="43" t="s">
         <v>97</v>
@@ -10929,16 +10930,16 @@
         <v>44</v>
       </c>
       <c r="L24" s="43" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="N24" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O24" s="43" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="P24" s="43" t="s">
         <v>273</v>
@@ -10960,40 +10961,40 @@
         <v>6</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J25" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M25" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N25" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P25" s="45" t="s">
         <v>229</v>
@@ -11014,16 +11015,16 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="16"/>
       <c r="D26" s="43" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H26" s="43" t="s">
         <v>49</v>
@@ -11038,16 +11039,16 @@
         <v>44</v>
       </c>
       <c r="L26" s="43" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="N26" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="P26" s="43" t="s">
         <v>274</v>
@@ -11122,13 +11123,13 @@
         <v>278</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>261</v>
@@ -11140,7 +11141,7 @@
         <v>99</v>
       </c>
       <c r="K28" s="43" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="L28" s="43" t="s">
         <v>52</v>
@@ -11152,10 +11153,10 @@
         <v>37</v>
       </c>
       <c r="O28" s="43" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="P28" s="43" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q28" s="43" t="s">
         <v>99</v>
@@ -11178,13 +11179,13 @@
         <v>235</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H29" s="45" t="s">
         <v>221</v>
@@ -11196,10 +11197,10 @@
         <v>104</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M29" s="45" t="s">
         <v>142</v>
@@ -11208,10 +11209,10 @@
         <v>110</v>
       </c>
       <c r="O29" s="45" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P29" s="45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q29" s="45" t="s">
         <v>106</v>
@@ -11233,13 +11234,13 @@
         <v>279</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H30" s="43" t="s">
         <v>262</v>
@@ -11251,10 +11252,10 @@
         <v>99</v>
       </c>
       <c r="K30" s="43" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="L30" s="43" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="M30" s="43" t="s">
         <v>164</v>
@@ -11263,10 +11264,10 @@
         <v>37</v>
       </c>
       <c r="O30" s="43" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="P30" s="43" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="Q30" s="44" t="s">
         <v>99</v>
@@ -11298,7 +11299,7 @@
       <c r="H31" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="55" t="s">
         <v>99</v>
       </c>
       <c r="J31" s="41" t="s">
@@ -11307,7 +11308,7 @@
       <c r="K31" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="55" t="s">
         <v>99</v>
       </c>
       <c r="M31" s="41" t="s">
@@ -11339,28 +11340,28 @@
         <v>275</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F32" s="43" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="H32" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="43" t="s">
-        <v>912</v>
+      <c r="I32" s="56" t="s">
+        <v>1389</v>
       </c>
       <c r="J32" s="43" t="s">
         <v>299</v>
       </c>
       <c r="K32" s="43" t="s">
-        <v>912</v>
-      </c>
-      <c r="L32" s="43" t="s">
-        <v>915</v>
+        <v>1389</v>
+      </c>
+      <c r="L32" s="56" t="s">
+        <v>906</v>
       </c>
       <c r="M32" s="43" t="s">
         <v>99</v>
@@ -11395,28 +11396,28 @@
         <v>233</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H33" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="45" t="s">
-        <v>442</v>
+      <c r="I33" s="54" t="s">
+        <v>439</v>
       </c>
       <c r="J33" s="45" t="s">
         <v>257</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>442</v>
-      </c>
-      <c r="L33" s="45" t="s">
-        <v>444</v>
+        <v>439</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>441</v>
       </c>
       <c r="M33" s="45" t="s">
         <v>106</v>
@@ -11449,28 +11450,28 @@
         <v>276</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>131</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="H34" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="43" t="s">
-        <v>913</v>
+      <c r="I34" s="56" t="s">
+        <v>1390</v>
       </c>
       <c r="J34" s="43" t="s">
         <v>299</v>
       </c>
       <c r="K34" s="43" t="s">
-        <v>913</v>
-      </c>
-      <c r="L34" s="43" t="s">
-        <v>916</v>
+        <v>1390</v>
+      </c>
+      <c r="L34" s="56" t="s">
+        <v>907</v>
       </c>
       <c r="M34" s="43" t="s">
         <v>99</v>
@@ -11551,28 +11552,28 @@
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="14"/>
       <c r="D36" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="G36" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="H36" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="43" t="s">
         <v>924</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>928</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>930</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>933</v>
       </c>
       <c r="J36" s="43" t="s">
         <v>28</v>
       </c>
       <c r="K36" s="43" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="L36" s="43" t="s">
         <v>35</v>
@@ -11606,31 +11607,31 @@
         <v>9</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H37" s="45" t="s">
         <v>104</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J37" s="45" t="s">
         <v>112</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L37" s="45" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M37" s="45" t="s">
         <v>106</v>
@@ -11660,28 +11661,28 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="16"/>
       <c r="D38" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>917</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="G38" s="43" t="s">
         <v>922</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>926</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>928</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>931</v>
-      </c>
       <c r="H38" s="43" t="s">
         <v>99</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="J38" s="43" t="s">
         <v>132</v>
       </c>
       <c r="K38" s="43" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="L38" s="43" t="s">
         <v>174</v>
@@ -11765,13 +11766,13 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="14"/>
       <c r="D40" s="43" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
       <c r="G40" s="43" t="s">
         <v>44</v>
@@ -11780,13 +11781,13 @@
         <v>99</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="K40" s="43" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="L40" s="43" t="s">
         <v>167</v>
@@ -11820,31 +11821,31 @@
         <v>10</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H41" s="45" t="s">
         <v>104</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J41" s="45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L41" s="45" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M41" s="45" t="s">
         <v>106</v>
@@ -11874,13 +11875,13 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="16"/>
       <c r="D42" s="43" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
       <c r="G42" s="43" t="s">
         <v>44</v>
@@ -11889,13 +11890,13 @@
         <v>99</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="J42" s="43" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="K42" s="43" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="L42" s="43" t="s">
         <v>265</v>
@@ -11979,10 +11980,10 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="14"/>
       <c r="D44" s="43" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="F44" s="43" t="s">
         <v>266</v>
@@ -12000,10 +12001,10 @@
         <v>286</v>
       </c>
       <c r="K44" s="43" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="L44" s="43" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="M44" s="43" t="s">
         <v>99</v>
@@ -12034,16 +12035,16 @@
         <v>11</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F45" s="45" t="s">
         <v>223</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H45" s="45" t="s">
         <v>104</v>
@@ -12055,10 +12056,10 @@
         <v>241</v>
       </c>
       <c r="K45" s="45" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L45" s="45" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M45" s="45" t="s">
         <v>106</v>
@@ -12088,10 +12089,10 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="16"/>
       <c r="D46" s="43" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="F46" s="43" t="s">
         <v>267</v>
@@ -12109,10 +12110,10 @@
         <v>287</v>
       </c>
       <c r="K46" s="43" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="L46" s="43" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="M46" s="43" t="s">
         <v>99</v>
@@ -12193,16 +12194,16 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="14"/>
       <c r="D48" s="43" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="F48" s="43" t="s">
         <v>199</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H48" s="43" t="s">
         <v>196</v>
@@ -12214,22 +12215,22 @@
         <v>99</v>
       </c>
       <c r="K48" s="43" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="L48" s="43" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="M48" s="43" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
       <c r="N48" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="O48" s="43" t="s">
         <v>53</v>
       </c>
       <c r="P48" s="43" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="Q48" s="43" t="s">
         <v>99</v>
@@ -12248,43 +12249,43 @@
         <v>12</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H49" s="45" t="s">
         <v>160</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J49" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K49" s="45" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L49" s="45" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M49" s="45" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="N49" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O49" s="45" t="s">
         <v>231</v>
       </c>
       <c r="P49" s="45" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="45" t="s">
         <v>104</v>
@@ -12302,16 +12303,16 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="16"/>
       <c r="D50" s="43" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="F50" s="43" t="s">
         <v>199</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H50" s="43" t="s">
         <v>197</v>
@@ -12323,22 +12324,22 @@
         <v>99</v>
       </c>
       <c r="K50" s="43" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="L50" s="43" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="M50" s="43" t="s">
         <v>56</v>
       </c>
       <c r="N50" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="O50" s="43" t="s">
         <v>168</v>
       </c>
       <c r="P50" s="43" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="Q50" s="44" t="s">
         <v>99</v>
@@ -12407,22 +12408,22 @@
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="14"/>
       <c r="D52" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E52" s="43" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H52" s="43" t="s">
         <v>36</v>
       </c>
       <c r="I52" s="43" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="J52" s="43" t="s">
         <v>99</v>
@@ -12434,16 +12435,16 @@
         <v>97</v>
       </c>
       <c r="M52" s="43" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="N52" s="43" t="s">
         <v>37</v>
       </c>
       <c r="O52" s="43" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="P52" s="43" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="Q52" s="43" t="s">
         <v>99</v>
@@ -12462,43 +12463,43 @@
         <v>13</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E53" s="45" t="s">
         <v>111</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I53" s="45" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J53" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K53" s="45" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L53" s="45" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M53" s="45" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N53" s="45" t="s">
         <v>110</v>
       </c>
       <c r="O53" s="45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P53" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="Q53" s="45" t="s">
         <v>106</v>
@@ -12516,43 +12517,43 @@
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="16"/>
       <c r="D54" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E54" s="43" t="s">
         <v>42</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="G54" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H54" s="43" t="s">
         <v>203</v>
       </c>
       <c r="I54" s="43" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="J54" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K54" s="43" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="L54" s="43" t="s">
         <v>98</v>
       </c>
       <c r="M54" s="43" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="N54" s="43" t="s">
         <v>37</v>
       </c>
       <c r="O54" s="43" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="P54" s="43" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="Q54" s="44" t="s">
         <v>99</v>
@@ -12621,19 +12622,19 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="14"/>
       <c r="D56" s="43" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E56" s="43" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="G56" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="I56" s="43" t="s">
         <v>202</v>
@@ -12645,19 +12646,19 @@
         <v>35</v>
       </c>
       <c r="L56" s="43" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="M56" s="43" t="s">
         <v>283</v>
       </c>
       <c r="N56" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O56" s="43" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="P56" s="43" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="Q56" s="43" t="s">
         <v>99</v>
@@ -12676,43 +12677,43 @@
         <v>14</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E57" s="45" t="s">
         <v>153</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I57" s="45" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J57" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K57" s="45" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L57" s="45" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M57" s="45" t="s">
         <v>239</v>
       </c>
       <c r="N57" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O57" s="45" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P57" s="45" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q57" s="45" t="s">
         <v>106</v>
@@ -12730,22 +12731,22 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="16"/>
       <c r="D58" s="43" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E58" s="43" t="s">
         <v>195</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="G58" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="I58" s="43" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="J58" s="43" t="s">
         <v>99</v>
@@ -12754,19 +12755,19 @@
         <v>174</v>
       </c>
       <c r="L58" s="43" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="M58" s="43" t="s">
         <v>284</v>
       </c>
       <c r="N58" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O58" s="43" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="P58" s="43" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="Q58" s="44" t="s">
         <v>99</v>
@@ -12806,7 +12807,7 @@
       <c r="K59" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="L59" s="41" t="s">
+      <c r="L59" s="55" t="s">
         <v>99</v>
       </c>
       <c r="M59" s="41" t="s">
@@ -12835,7 +12836,7 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="14"/>
       <c r="D60" s="43" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="E60" s="43" t="s">
         <v>186</v>
@@ -12844,13 +12845,13 @@
         <v>130</v>
       </c>
       <c r="G60" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H60" s="43" t="s">
         <v>95</v>
       </c>
       <c r="I60" s="43" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="J60" s="43" t="s">
         <v>99</v>
@@ -12858,20 +12859,20 @@
       <c r="K60" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="L60" s="43" t="s">
-        <v>1046</v>
+      <c r="L60" s="56" t="s">
+        <v>1037</v>
       </c>
       <c r="M60" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N60" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O60" s="43" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="P60" s="43" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="Q60" s="43" t="s">
         <v>99</v>
@@ -12890,22 +12891,22 @@
         <v>15</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E61" s="45" t="s">
         <v>157</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G61" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I61" s="45" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J61" s="45" t="s">
         <v>104</v>
@@ -12913,20 +12914,20 @@
       <c r="K61" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="L61" s="45" t="s">
-        <v>547</v>
+      <c r="L61" s="54" t="s">
+        <v>544</v>
       </c>
       <c r="M61" s="45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N61" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O61" s="45" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P61" s="45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q61" s="45" t="s">
         <v>106</v>
@@ -12944,7 +12945,7 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="16"/>
       <c r="D62" s="43" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="E62" s="43" t="s">
         <v>163</v>
@@ -12953,13 +12954,13 @@
         <v>182</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H62" s="43" t="s">
         <v>96</v>
       </c>
       <c r="I62" s="43" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="J62" s="43" t="s">
         <v>99</v>
@@ -12967,20 +12968,20 @@
       <c r="K62" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="43" t="s">
-        <v>1047</v>
+      <c r="L62" s="56" t="s">
+        <v>1038</v>
       </c>
       <c r="M62" s="43" t="s">
         <v>189</v>
       </c>
       <c r="N62" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O62" s="43" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="P62" s="43" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="Q62" s="44" t="s">
         <v>99</v>
@@ -13049,37 +13050,37 @@
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="14"/>
       <c r="D64" s="43" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="E64" s="43" t="s">
         <v>40</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H64" s="43" t="s">
         <v>177</v>
       </c>
       <c r="I64" s="43" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="J64" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K64" s="43" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="L64" s="43" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="M64" s="43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="N64" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O64" s="43" t="s">
         <v>179</v>
@@ -13104,37 +13105,37 @@
         <v>16</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E65" s="45" t="s">
         <v>109</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H65" s="45" t="s">
         <v>147</v>
       </c>
       <c r="I65" s="45" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J65" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K65" s="45" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L65" s="45" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M65" s="45" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="N65" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O65" s="45" t="s">
         <v>148</v>
@@ -13158,37 +13159,37 @@
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="16"/>
       <c r="D66" s="43" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="E66" s="43" t="s">
         <v>128</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G66" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H66" s="43" t="s">
         <v>178</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="J66" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K66" s="43" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="L66" s="43" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="M66" s="43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="N66" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O66" s="43" t="s">
         <v>180</v>
@@ -13222,7 +13223,7 @@
       <c r="G67" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="55" t="s">
         <v>99</v>
       </c>
       <c r="I67" s="41" t="s">
@@ -13266,16 +13267,16 @@
         <v>48</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="G68" s="43" t="s">
-        <v>786</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>775</v>
+        <v>780</v>
+      </c>
+      <c r="H68" s="56" t="s">
+        <v>1392</v>
       </c>
       <c r="I68" s="43" t="s">
         <v>266</v>
@@ -13287,16 +13288,16 @@
         <v>163</v>
       </c>
       <c r="L68" s="43" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="M68" s="43" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="N68" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O68" s="43" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="P68" s="43" t="s">
         <v>211</v>
@@ -13318,19 +13319,19 @@
         <v>17</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G69" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="H69" s="45" t="s">
-        <v>345</v>
+        <v>352</v>
+      </c>
+      <c r="H69" s="54" t="s">
+        <v>342</v>
       </c>
       <c r="I69" s="45" t="s">
         <v>223</v>
@@ -13339,22 +13340,22 @@
         <v>104</v>
       </c>
       <c r="K69" s="45" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L69" s="45" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M69" s="45" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N69" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O69" s="45" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P69" s="45" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q69" s="45" t="s">
         <v>106</v>
@@ -13375,16 +13376,16 @@
         <v>185</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G70" s="43" t="s">
-        <v>787</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>776</v>
+        <v>781</v>
+      </c>
+      <c r="H70" s="56" t="s">
+        <v>1393</v>
       </c>
       <c r="I70" s="43" t="s">
         <v>267</v>
@@ -13393,19 +13394,19 @@
         <v>99</v>
       </c>
       <c r="K70" s="43" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="L70" s="43" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="M70" s="43" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="N70" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O70" s="43" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="P70" s="43" t="s">
         <v>281</v>
@@ -13480,19 +13481,19 @@
         <v>300</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F72" s="43" t="s">
         <v>126</v>
       </c>
       <c r="G72" s="43" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H72" s="43" t="s">
         <v>99</v>
       </c>
       <c r="I72" s="43" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="J72" s="43" t="s">
         <v>115</v>
@@ -13501,13 +13502,13 @@
         <v>169</v>
       </c>
       <c r="L72" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="M72" s="43" t="s">
         <v>289</v>
       </c>
       <c r="N72" s="43" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="O72" s="43" t="s">
         <v>99</v>
@@ -13532,7 +13533,7 @@
         <v>18</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E73" s="45" t="s">
         <v>248</v>
@@ -13541,28 +13542,28 @@
         <v>108</v>
       </c>
       <c r="G73" s="45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H73" s="45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I73" s="45" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J73" s="45" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K73" s="45" t="s">
         <v>144</v>
       </c>
       <c r="L73" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M73" s="45" t="s">
         <v>244</v>
       </c>
       <c r="N73" s="45" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="O73" s="45" t="s">
         <v>106</v>
@@ -13595,13 +13596,13 @@
         <v>127</v>
       </c>
       <c r="G74" s="43" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="H74" s="43" t="s">
         <v>99</v>
       </c>
       <c r="I74" s="43" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="J74" s="43" t="s">
         <v>116</v>
@@ -13610,13 +13611,13 @@
         <v>170</v>
       </c>
       <c r="L74" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="M74" s="43" t="s">
         <v>289</v>
       </c>
       <c r="N74" s="43" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="O74" s="43" t="s">
         <v>99</v>
@@ -13641,7 +13642,7 @@
       <c r="D75" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="55" t="s">
         <v>99</v>
       </c>
       <c r="F75" s="41" t="s">
@@ -13693,14 +13694,14 @@
       <c r="D76" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="E76" s="43" t="s">
-        <v>327</v>
+      <c r="E76" s="56" t="s">
+        <v>903</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="G76" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="H76" s="43" t="s">
         <v>199</v>
@@ -13712,22 +13713,22 @@
         <v>99</v>
       </c>
       <c r="K76" s="43" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="L76" s="43" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="M76" s="43" t="s">
         <v>200</v>
       </c>
       <c r="N76" s="43" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="O76" s="43" t="s">
         <v>51</v>
       </c>
       <c r="P76" s="43" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="Q76" s="43" t="s">
         <v>99</v>
@@ -13748,44 +13749,44 @@
       <c r="D77" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="E77" s="45" t="s">
+      <c r="E77" s="54" t="s">
         <v>152</v>
       </c>
       <c r="F77" s="45" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G77" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H77" s="45" t="s">
         <v>155</v>
       </c>
       <c r="I77" s="45" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J77" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K77" s="45" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L77" s="45" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M77" s="45" t="s">
         <v>162</v>
       </c>
       <c r="N77" s="45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O77" s="45" t="s">
         <v>245</v>
       </c>
       <c r="P77" s="45" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Q77" s="45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="R77" s="45" t="str">
         <f>CHAR(10)</f>
@@ -13802,14 +13803,14 @@
       <c r="D78" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="43" t="s">
-        <v>328</v>
+      <c r="E78" s="56" t="s">
+        <v>904</v>
       </c>
       <c r="F78" s="43" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="G78" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="H78" s="43" t="s">
         <v>199</v>
@@ -13821,22 +13822,22 @@
         <v>99</v>
       </c>
       <c r="K78" s="43" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="L78" s="43" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="M78" s="43" t="s">
         <v>204</v>
       </c>
       <c r="N78" s="43" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="O78" s="43" t="s">
         <v>183</v>
       </c>
       <c r="P78" s="43" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="Q78" s="44" t="s">
         <v>99</v>
@@ -13852,7 +13853,7 @@
     <row r="79" spans="2:22" s="26" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="10"/>
       <c r="C79" s="25"/>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="55" t="s">
         <v>99</v>
       </c>
       <c r="E79" s="41" t="s">
@@ -13904,23 +13905,23 @@
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="14"/>
-      <c r="D80" s="43" t="s">
-        <v>1132</v>
+      <c r="D80" s="56" t="s">
+        <v>1395</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="G80" s="43" t="s">
         <v>37</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="I80" s="43" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="J80" s="43" t="s">
         <v>99</v>
@@ -13929,19 +13930,19 @@
         <v>92</v>
       </c>
       <c r="L80" s="43" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="M80" s="43" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="N80" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="O80" s="43" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="P80" s="43" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="Q80" s="43" t="s">
         <v>99</v>
@@ -13959,23 +13960,23 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="45" t="s">
-        <v>601</v>
+      <c r="D81" s="54" t="s">
+        <v>598</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>110</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I81" s="45" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J81" s="45" t="s">
         <v>104</v>
@@ -13984,19 +13985,19 @@
         <v>232</v>
       </c>
       <c r="L81" s="45" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M81" s="45" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N81" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O81" s="45" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="P81" s="45" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q81" s="45" t="s">
         <v>106</v>
@@ -14013,23 +14014,23 @@
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="16"/>
-      <c r="D82" s="43" t="s">
-        <v>1133</v>
+      <c r="D82" s="56" t="s">
+        <v>1396</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="G82" s="43" t="s">
         <v>37</v>
       </c>
       <c r="H82" s="43" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="I82" s="43" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="J82" s="43" t="s">
         <v>99</v>
@@ -14038,19 +14039,19 @@
         <v>92</v>
       </c>
       <c r="L82" s="43" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="M82" s="43" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="N82" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="O82" s="43" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="P82" s="43" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="Q82" s="44" t="s">
         <v>99</v>
@@ -14119,22 +14120,22 @@
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="14"/>
       <c r="D84" s="43" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>31</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G84" s="43" t="s">
         <v>89</v>
       </c>
       <c r="H84" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="I84" s="43" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="J84" s="43" t="s">
         <v>290</v>
@@ -14143,7 +14144,7 @@
         <v>99</v>
       </c>
       <c r="L84" s="43" t="s">
-        <v>775</v>
+        <v>1392</v>
       </c>
       <c r="M84" s="43" t="s">
         <v>47</v>
@@ -14152,13 +14153,13 @@
         <v>88</v>
       </c>
       <c r="O84" s="43" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="P84" s="43" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="Q84" s="43" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="R84" s="43" t="s">
         <v>99</v>
@@ -14174,22 +14175,22 @@
         <v>21</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E85" s="45" t="s">
         <v>143</v>
       </c>
       <c r="F85" s="45" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>158</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I85" s="45" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J85" s="45" t="s">
         <v>251</v>
@@ -14198,22 +14199,22 @@
         <v>104</v>
       </c>
       <c r="L85" s="45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M85" s="45" t="s">
         <v>105</v>
       </c>
       <c r="N85" s="45" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O85" s="45" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P85" s="45" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q85" s="45" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="R85" s="45" t="s">
         <v>106</v>
@@ -14232,16 +14233,16 @@
         <v>165</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="G86" s="43" t="s">
         <v>184</v>
       </c>
       <c r="H86" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="I86" s="43" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="J86" s="43" t="s">
         <v>291</v>
@@ -14250,7 +14251,7 @@
         <v>99</v>
       </c>
       <c r="L86" s="43" t="s">
-        <v>776</v>
+        <v>1393</v>
       </c>
       <c r="M86" s="43" t="s">
         <v>119</v>
@@ -14259,13 +14260,13 @@
         <v>175</v>
       </c>
       <c r="O86" s="43" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="P86" s="43" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="Q86" s="44" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="R86" s="44" t="s">
         <v>99</v>
@@ -14331,31 +14332,31 @@
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="14"/>
       <c r="D88" s="43" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="G88" s="43" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="H88" s="43" t="s">
         <v>99</v>
       </c>
       <c r="I88" s="43" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="J88" s="43" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="K88" s="43" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="L88" s="43" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="M88" s="43" t="s">
         <v>99</v>
@@ -14386,31 +14387,31 @@
         <v>22</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F89" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G89" s="45" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H89" s="45" t="s">
         <v>104</v>
       </c>
       <c r="I89" s="45" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J89" s="45" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K89" s="45" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L89" s="45" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M89" s="45" t="s">
         <v>106</v>
@@ -14440,31 +14441,31 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="16"/>
       <c r="D90" s="43" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="G90" s="43" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="H90" s="43" t="s">
         <v>99</v>
       </c>
       <c r="I90" s="43" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="K90" s="43" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="L90" s="43" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="M90" s="43" t="s">
         <v>99</v>
@@ -14548,40 +14549,40 @@
         <v>36</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H92" s="43" t="s">
         <v>293</v>
       </c>
       <c r="I92" s="43" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="J92" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K92" s="43" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="L92" s="43" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="M92" s="43" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="N92" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O92" s="43" t="s">
         <v>49</v>
       </c>
       <c r="P92" s="43" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="Q92" s="43" t="s">
         <v>99</v>
@@ -14603,40 +14604,40 @@
         <v>161</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G93" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H93" s="45" t="s">
         <v>253</v>
       </c>
       <c r="I93" s="45" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J93" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K93" s="45" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="L93" s="45" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="M93" s="45" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N93" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O93" s="45" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="P93" s="45" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="Q93" s="45" t="s">
         <v>106</v>
@@ -14657,40 +14658,40 @@
         <v>203</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="G94" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H94" s="43" t="s">
         <v>294</v>
       </c>
       <c r="I94" s="43" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="J94" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K94" s="43" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="L94" s="43" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="M94" s="43" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="N94" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O94" s="43" t="s">
         <v>141</v>
       </c>
       <c r="P94" s="43" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="Q94" s="44" t="s">
         <v>99</v>
@@ -14759,7 +14760,7 @@
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="14"/>
       <c r="D96" s="43" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="E96" s="43" t="s">
         <v>299</v>
@@ -14768,28 +14769,28 @@
         <v>299</v>
       </c>
       <c r="G96" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H96" s="43" t="s">
         <v>194</v>
       </c>
       <c r="I96" s="43" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="J96" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K96" s="43" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="L96" s="43" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="M96" s="43" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="N96" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O96" s="43" t="s">
         <v>181</v>
@@ -14814,7 +14815,7 @@
         <v>24</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E97" s="45" t="s">
         <v>257</v>
@@ -14823,34 +14824,34 @@
         <v>257</v>
       </c>
       <c r="G97" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H97" s="45" t="s">
         <v>250</v>
       </c>
       <c r="I97" s="45" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J97" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K97" s="45" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="L97" s="45" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M97" s="45" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N97" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O97" s="45" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="P97" s="45" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q97" s="45" t="s">
         <v>106</v>
@@ -14868,7 +14869,7 @@
     <row r="98" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="16"/>
       <c r="D98" s="43" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="E98" s="43" t="s">
         <v>299</v>
@@ -14877,31 +14878,31 @@
         <v>299</v>
       </c>
       <c r="G98" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H98" s="43" t="s">
         <v>166</v>
       </c>
       <c r="I98" s="43" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="J98" s="43" t="s">
         <v>99</v>
       </c>
       <c r="K98" s="43" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="L98" s="43" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="M98" s="43" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="N98" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O98" s="43" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="P98" s="43" t="s">
         <v>96</v>
@@ -14973,13 +14974,13 @@
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="14"/>
       <c r="D100" s="43" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="G100" s="43" t="s">
         <v>37</v>
@@ -14994,10 +14995,10 @@
         <v>99</v>
       </c>
       <c r="K100" s="43" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="L100" s="43" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="M100" s="43" t="s">
         <v>46</v>
@@ -15009,7 +15010,7 @@
         <v>39</v>
       </c>
       <c r="P100" s="43" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="Q100" s="43" t="s">
         <v>99</v>
@@ -15028,13 +15029,13 @@
         <v>25</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F101" s="45" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G101" s="45" t="s">
         <v>110</v>
@@ -15049,13 +15050,13 @@
         <v>104</v>
       </c>
       <c r="K101" s="45" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L101" s="45" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="M101" s="45" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="N101" s="45" t="s">
         <v>110</v>
@@ -15064,7 +15065,7 @@
         <v>220</v>
       </c>
       <c r="P101" s="45" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="Q101" s="45" t="s">
         <v>106</v>
@@ -15082,13 +15083,13 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="16"/>
       <c r="D102" s="43" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="G102" s="43" t="s">
         <v>37</v>
@@ -15103,10 +15104,10 @@
         <v>99</v>
       </c>
       <c r="K102" s="43" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="L102" s="43" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="M102" s="43" t="s">
         <v>46</v>
@@ -15118,7 +15119,7 @@
         <v>131</v>
       </c>
       <c r="P102" s="43" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="Q102" s="44" t="s">
         <v>99</v>
@@ -15140,7 +15141,7 @@
       <c r="E103" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="F103" s="41" t="s">
+      <c r="F103" s="55" t="s">
         <v>99</v>
       </c>
       <c r="G103" s="41" t="s">
@@ -15187,34 +15188,34 @@
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="14"/>
       <c r="D104" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>786</v>
-      </c>
-      <c r="F104" s="43" t="s">
-        <v>779</v>
+        <v>780</v>
+      </c>
+      <c r="F104" s="56" t="s">
+        <v>773</v>
       </c>
       <c r="G104" s="43" t="s">
         <v>99</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="I104" s="43" t="s">
         <v>39</v>
       </c>
       <c r="J104" s="43" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="K104" s="43" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="L104" s="43" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="M104" s="43" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="N104" s="43" t="s">
         <v>60</v>
@@ -15242,34 +15243,34 @@
         <v>26</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>688</v>
-      </c>
-      <c r="F105" s="45" t="s">
-        <v>631</v>
+        <v>685</v>
+      </c>
+      <c r="F105" s="54" t="s">
+        <v>628</v>
       </c>
       <c r="G105" s="45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I105" s="45" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J105" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K105" s="45" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L105" s="45" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M105" s="45" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="N105" s="45" t="s">
         <v>149</v>
@@ -15296,34 +15297,34 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="16"/>
       <c r="D106" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>787</v>
-      </c>
-      <c r="F106" s="43" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="F106" s="56" t="s">
+        <v>774</v>
       </c>
       <c r="G106" s="43" t="s">
         <v>99</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="I106" s="43" t="s">
         <v>131</v>
       </c>
       <c r="J106" s="43" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="K106" s="43" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="L106" s="43" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="M106" s="43" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="N106" s="43" t="s">
         <v>181</v>
@@ -15407,16 +15408,16 @@
         <v>43</v>
       </c>
       <c r="F108" s="43" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="G108" s="43" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H108" s="43" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="I108" s="43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J108" s="43" t="s">
         <v>95</v>
@@ -15425,7 +15426,7 @@
         <v>99</v>
       </c>
       <c r="L108" s="43" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="M108" s="43" t="s">
         <v>55</v>
@@ -15456,40 +15457,40 @@
         <v>27</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E109" s="45" t="s">
         <v>103</v>
       </c>
       <c r="F109" s="45" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G109" s="45" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I109" s="45" t="s">
         <v>248</v>
       </c>
       <c r="J109" s="45" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K109" s="45" t="s">
         <v>104</v>
       </c>
       <c r="L109" s="45" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M109" s="45" t="s">
         <v>218</v>
       </c>
       <c r="N109" s="45" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="O109" s="45" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="P109" s="45" t="s">
         <v>222</v>
@@ -15514,13 +15515,13 @@
         <v>117</v>
       </c>
       <c r="F110" s="43" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="G110" s="43" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H110" s="43" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="I110" s="43" t="s">
         <v>193</v>
@@ -15532,7 +15533,7 @@
         <v>99</v>
       </c>
       <c r="L110" s="43" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="M110" s="43" t="s">
         <v>122</v>
@@ -15668,7 +15669,7 @@
         <v>28</v>
       </c>
       <c r="D113" s="45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E113" s="45" t="str">
         <f>CHAR(10)</f>
@@ -15827,34 +15828,34 @@
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="14"/>
       <c r="D116" s="43" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="F116" s="43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G116" s="43" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="H116" s="43" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
       <c r="I116" s="43" t="s">
         <v>99</v>
       </c>
       <c r="J116" s="43" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="K116" s="43" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="L116" s="43" t="s">
         <v>43</v>
       </c>
       <c r="M116" s="43" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="N116" s="43" t="s">
         <v>33</v>
@@ -15882,37 +15883,37 @@
         <v>29</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E117" s="45" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F117" s="45" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G117" s="45" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H117" s="45" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I117" s="45" t="s">
         <v>104</v>
       </c>
       <c r="J117" s="45" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K117" s="45" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="L117" s="45" t="s">
         <v>103</v>
       </c>
       <c r="M117" s="45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N117" s="45" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="O117" s="45" t="s">
         <v>106</v>
@@ -15939,31 +15940,31 @@
         <v>186</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="F118" s="43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G118" s="43" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="H118" s="43" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="I118" s="43" t="s">
         <v>99</v>
       </c>
       <c r="J118" s="43" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="K118" s="43" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="L118" s="43" t="s">
         <v>117</v>
       </c>
       <c r="M118" s="43" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="N118" s="43" t="s">
         <v>93</v>
@@ -16041,7 +16042,7 @@
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="14"/>
       <c r="D120" s="43" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="E120" s="43" t="s">
         <v>120</v>
@@ -16050,10 +16051,10 @@
         <v>52</v>
       </c>
       <c r="G120" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H120" s="43" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="I120" s="43" t="s">
         <v>140</v>
@@ -16062,16 +16063,16 @@
         <v>99</v>
       </c>
       <c r="K120" s="43" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="L120" s="43" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="M120" s="43" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="N120" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O120" s="43" t="s">
         <v>133</v>
@@ -16096,19 +16097,19 @@
         <v>30</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E121" s="45" t="s">
         <v>224</v>
       </c>
       <c r="F121" s="45" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G121" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H121" s="45" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I121" s="45" t="s">
         <v>227</v>
@@ -16117,22 +16118,22 @@
         <v>104</v>
       </c>
       <c r="K121" s="45" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L121" s="45" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="M121" s="45" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="N121" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O121" s="45" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="P121" s="45" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="Q121" s="45" t="s">
         <v>104</v>
@@ -16150,19 +16151,19 @@
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="16"/>
       <c r="D122" s="43" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F122" s="43" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G122" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H122" s="43" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="I122" s="43" t="s">
         <v>272</v>
@@ -16171,16 +16172,16 @@
         <v>99</v>
       </c>
       <c r="K122" s="43" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="L122" s="43" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="M122" s="43" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="N122" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O122" s="43" t="s">
         <v>134</v>
@@ -16255,7 +16256,7 @@
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="14"/>
       <c r="D124" s="43" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>91</v>
@@ -16264,13 +16265,13 @@
         <v>56</v>
       </c>
       <c r="G124" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H124" s="43" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="I124" s="43" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="J124" s="43" t="s">
         <v>99</v>
@@ -16279,19 +16280,19 @@
         <v>54</v>
       </c>
       <c r="L124" s="43" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="M124" s="43" t="s">
         <v>95</v>
       </c>
       <c r="N124" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O124" s="43" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="P124" s="43" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>99</v>
@@ -16310,43 +16311,43 @@
         <v>31</v>
       </c>
       <c r="D125" s="45" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E125" s="45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F125" s="45" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G125" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H125" s="45" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I125" s="45" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J125" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K125" s="45" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L125" s="45" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="M125" s="45" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N125" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O125" s="45" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="P125" s="45" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q125" s="45" t="s">
         <v>106</v>
@@ -16364,22 +16365,22 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="16"/>
       <c r="D126" s="43" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F126" s="43" t="s">
         <v>118</v>
       </c>
       <c r="G126" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H126" s="43" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="I126" s="43" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="J126" s="43" t="s">
         <v>99</v>
@@ -16388,19 +16389,19 @@
         <v>173</v>
       </c>
       <c r="L126" s="43" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="M126" s="43" t="s">
         <v>96</v>
       </c>
       <c r="N126" s="43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O126" s="43" t="s">
         <v>186</v>
       </c>
       <c r="P126" s="43" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="Q126" s="44" t="s">
         <v>99</v>
@@ -16469,16 +16470,16 @@
     <row r="128" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="14"/>
       <c r="D128" s="43" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
       <c r="G128" s="43" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H128" s="43" t="s">
         <v>300</v>
@@ -16493,19 +16494,19 @@
         <v>92</v>
       </c>
       <c r="L128" s="43" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="M128" s="43" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="N128" s="43" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="O128" s="43" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="P128" s="43" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="Q128" s="43" t="s">
         <v>203</v>
@@ -16524,19 +16525,19 @@
         <v>32</v>
       </c>
       <c r="D129" s="45" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E129" s="45" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F129" s="45" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G129" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H129" s="45" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I129" s="45" t="s">
         <v>145</v>
@@ -16548,22 +16549,22 @@
         <v>232</v>
       </c>
       <c r="L129" s="45" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M129" s="45" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N129" s="45" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="O129" s="45" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="P129" s="45" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q129" s="45" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="R129" s="45" t="s">
         <v>106</v>
@@ -16576,16 +16577,16 @@
     <row r="130" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="16"/>
       <c r="D130" s="43" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="F130" s="43" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
       <c r="G130" s="43" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H130" s="43" t="s">
         <v>301</v>
@@ -16600,22 +16601,22 @@
         <v>92</v>
       </c>
       <c r="L130" s="43" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="M130" s="43" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="N130" s="43" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="O130" s="43" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="P130" s="43" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q130" s="43" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="R130" s="44" t="s">
         <v>99</v>
